--- a/output/ga_results/ga_report.xlsx
+++ b/output/ga_results/ga_report.xlsx
@@ -768,8 +768,12 @@
     </row>
     <row r="2">
       <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
+      <c r="B2" t="n">
+        <v>-8.01</v>
+      </c>
+      <c r="C2" t="n">
+        <v>114.18</v>
+      </c>
       <c r="D2" t="n">
         <v>2.9</v>
       </c>
@@ -855,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.3492465277777778</v>
+        <v>0.3492465277777779</v>
       </c>
       <c r="AE2" t="n">
         <v>0</v>
@@ -870,7 +874,7 @@
         <v>0.57142857142857</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.6938726207906296</v>
+        <v>0.6938726207906298</v>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
@@ -950,27 +954,31 @@
         <v>0</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.5</v>
+        <v>0.9474294854789893</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.5</v>
+        <v>0.9474294854789893</v>
       </c>
       <c r="BK2" t="n">
-        <v>50</v>
+        <v>94.73999999999999</v>
       </c>
       <c r="BL2" t="inlineStr">
         <is>
-          <t>Aman</t>
+          <t>Terdampak</t>
         </is>
       </c>
       <c r="BM2" t="n">
-        <v>4.989159752959225</v>
+        <v>5.882078625454835</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
+      <c r="B3" t="n">
+        <v>-8.01</v>
+      </c>
+      <c r="C3" t="n">
+        <v>114.18</v>
+      </c>
       <c r="D3" t="n">
         <v>2.9</v>
       </c>
@@ -1150,27 +1158,31 @@
         <v>0</v>
       </c>
       <c r="BI3" t="n">
-        <v>0.5</v>
+        <v>0.9732975164337723</v>
       </c>
       <c r="BJ3" t="n">
-        <v>0.5</v>
+        <v>0.9732975164337723</v>
       </c>
       <c r="BK3" t="n">
-        <v>50</v>
+        <v>97.33</v>
       </c>
       <c r="BL3" t="inlineStr">
         <is>
-          <t>Aman</t>
+          <t>Terdampak</t>
         </is>
       </c>
       <c r="BM3" t="n">
-        <v>4.989159752959225</v>
+        <v>5.933702521025999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
+      <c r="B4" t="n">
+        <v>-7.96</v>
+      </c>
+      <c r="C4" t="n">
+        <v>112.77</v>
+      </c>
       <c r="D4" t="n">
         <v>2.1</v>
       </c>
@@ -1348,13 +1360,13 @@
         <v>0.6928203230275504</v>
       </c>
       <c r="BI4" t="n">
-        <v>0.5</v>
+        <v>0.0001</v>
       </c>
       <c r="BJ4" t="n">
-        <v>0.5</v>
+        <v>0.0001</v>
       </c>
       <c r="BK4" t="n">
-        <v>50</v>
+        <v>0.01</v>
       </c>
       <c r="BL4" t="inlineStr">
         <is>
@@ -1362,13 +1374,17 @@
         </is>
       </c>
       <c r="BM4" t="n">
-        <v>3.279405314694293</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
+      <c r="B5" t="n">
+        <v>-7.96</v>
+      </c>
+      <c r="C5" t="n">
+        <v>112.77</v>
+      </c>
       <c r="D5" t="n">
         <v>2.1</v>
       </c>
@@ -1548,13 +1564,13 @@
         <v>0.6928203230275506</v>
       </c>
       <c r="BI5" t="n">
-        <v>0.5</v>
+        <v>0.02713070900168729</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0.5</v>
+        <v>0.02713070900168729</v>
       </c>
       <c r="BK5" t="n">
-        <v>50</v>
+        <v>2.71</v>
       </c>
       <c r="BL5" t="inlineStr">
         <is>
@@ -1562,13 +1578,17 @@
         </is>
       </c>
       <c r="BM5" t="n">
-        <v>3.279405314694293</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
+      <c r="B6" t="n">
+        <v>-7.98</v>
+      </c>
+      <c r="C6" t="n">
+        <v>114.15</v>
+      </c>
       <c r="D6" t="n">
         <v>2.2</v>
       </c>
@@ -1748,27 +1768,31 @@
         <v>0.6328506932918696</v>
       </c>
       <c r="BI6" t="n">
-        <v>0.5</v>
+        <v>0.9732975164337723</v>
       </c>
       <c r="BJ6" t="n">
-        <v>0.5</v>
+        <v>0.9732975164337723</v>
       </c>
       <c r="BK6" t="n">
-        <v>50</v>
+        <v>97.33</v>
       </c>
       <c r="BL6" t="inlineStr">
         <is>
-          <t>Aman</t>
+          <t>Terdampak</t>
         </is>
       </c>
       <c r="BM6" t="n">
-        <v>3.483850403030317</v>
+        <v>4.143409500382735</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
+      <c r="B7" t="n">
+        <v>-7.98</v>
+      </c>
+      <c r="C7" t="n">
+        <v>114.15</v>
+      </c>
       <c r="D7" t="n">
         <v>2.2</v>
       </c>
@@ -1947,13 +1971,13 @@
         <v>0.584807660688538</v>
       </c>
       <c r="BI7" t="n">
-        <v>0.5</v>
+        <v>0.6923586919702183</v>
       </c>
       <c r="BJ7" t="n">
-        <v>0.5</v>
+        <v>0.6923586919702183</v>
       </c>
       <c r="BK7" t="n">
-        <v>50</v>
+        <v>69.23999999999999</v>
       </c>
       <c r="BL7" t="inlineStr">
         <is>
@@ -1961,13 +1985,17 @@
         </is>
       </c>
       <c r="BM7" t="n">
-        <v>3.483850403030317</v>
+        <v>3.751909965649049</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
+      <c r="B8" t="n">
+        <v>-7.92</v>
+      </c>
+      <c r="C8" t="n">
+        <v>114.16</v>
+      </c>
       <c r="D8" t="n">
         <v>2.2</v>
       </c>
@@ -2147,27 +2175,31 @@
         <v>0.5457628998540878</v>
       </c>
       <c r="BI8" t="n">
-        <v>0.5</v>
+        <v>0.9399194119759879</v>
       </c>
       <c r="BJ8" t="n">
-        <v>0.5</v>
+        <v>0.9399194119759879</v>
       </c>
       <c r="BK8" t="n">
-        <v>50</v>
+        <v>93.98999999999999</v>
       </c>
       <c r="BL8" t="inlineStr">
         <is>
-          <t>Aman</t>
+          <t>Terdampak</t>
         </is>
       </c>
       <c r="BM8" t="n">
-        <v>3.483850403030317</v>
+        <v>4.09689577131568</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
+      <c r="B9" t="n">
+        <v>-7.92</v>
+      </c>
+      <c r="C9" t="n">
+        <v>114.16</v>
+      </c>
       <c r="D9" t="n">
         <v>2.2</v>
       </c>
@@ -2346,27 +2378,31 @@
         <v>0.4217311262607299</v>
       </c>
       <c r="BI9" t="n">
-        <v>0.5</v>
+        <v>0.8570936044459263</v>
       </c>
       <c r="BJ9" t="n">
-        <v>0.5</v>
+        <v>0.8570936044459263</v>
       </c>
       <c r="BK9" t="n">
-        <v>50</v>
+        <v>85.70999999999999</v>
       </c>
       <c r="BL9" t="inlineStr">
         <is>
-          <t>Aman</t>
+          <t>Terdampak</t>
         </is>
       </c>
       <c r="BM9" t="n">
-        <v>3.483850403030317</v>
+        <v>3.981474682137712</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
+      <c r="B10" t="n">
+        <v>-7.98</v>
+      </c>
+      <c r="C10" t="n">
+        <v>114.18</v>
+      </c>
       <c r="D10" t="n">
         <v>3</v>
       </c>
@@ -2547,27 +2583,31 @@
         <v>0.4777177887773147</v>
       </c>
       <c r="BI10" t="n">
-        <v>0.5</v>
+        <v>0.8584768370989938</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0.5</v>
+        <v>0.8584768370989938</v>
       </c>
       <c r="BK10" t="n">
-        <v>50</v>
+        <v>85.84999999999999</v>
       </c>
       <c r="BL10" t="inlineStr">
         <is>
-          <t>Aman</t>
+          <t>Terdampak</t>
         </is>
       </c>
       <c r="BM10" t="n">
-        <v>5.21395938868466</v>
+        <v>5.961592856851972</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
+      <c r="B11" t="n">
+        <v>-7.98</v>
+      </c>
+      <c r="C11" t="n">
+        <v>114.18</v>
+      </c>
       <c r="D11" t="n">
         <v>3</v>
       </c>
@@ -2747,27 +2787,31 @@
         <v>0.6026726190182244</v>
       </c>
       <c r="BI11" t="n">
-        <v>0.5</v>
+        <v>0.7040733378130177</v>
       </c>
       <c r="BJ11" t="n">
-        <v>0.5</v>
+        <v>0.7040733378130177</v>
       </c>
       <c r="BK11" t="n">
-        <v>50</v>
+        <v>70.41</v>
       </c>
       <c r="BL11" t="inlineStr">
         <is>
-          <t>Aman</t>
+          <t>Terdampak</t>
         </is>
       </c>
       <c r="BM11" t="n">
-        <v>5.21395938868466</v>
+        <v>5.63957142695282</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr"/>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
+      <c r="B12" t="n">
+        <v>-7.97</v>
+      </c>
+      <c r="C12" t="n">
+        <v>114.13</v>
+      </c>
       <c r="D12" t="n">
         <v>2.2</v>
       </c>
@@ -2947,27 +2991,31 @@
         <v>0.5855400437691201</v>
       </c>
       <c r="BI12" t="n">
-        <v>0.5</v>
+        <v>0.9140513810212049</v>
       </c>
       <c r="BJ12" t="n">
-        <v>0.5</v>
+        <v>0.9140513810212049</v>
       </c>
       <c r="BK12" t="n">
-        <v>50</v>
+        <v>91.41</v>
       </c>
       <c r="BL12" t="inlineStr">
         <is>
-          <t>Aman</t>
+          <t>Terdampak</t>
         </is>
       </c>
       <c r="BM12" t="n">
-        <v>3.483850403030317</v>
+        <v>4.060847631288711</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr"/>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
+      <c r="B13" t="n">
+        <v>-7.91</v>
+      </c>
+      <c r="C13" t="n">
+        <v>114.14</v>
+      </c>
       <c r="D13" t="n">
         <v>2</v>
       </c>
@@ -3148,27 +3196,31 @@
         <v>0.6244997998398401</v>
       </c>
       <c r="BI13" t="n">
-        <v>0.5</v>
+        <v>0.7302011752462826</v>
       </c>
       <c r="BJ13" t="n">
-        <v>0.5</v>
+        <v>0.7302011752462826</v>
       </c>
       <c r="BK13" t="n">
-        <v>50</v>
+        <v>73.02</v>
       </c>
       <c r="BL13" t="inlineStr">
         <is>
-          <t>Aman</t>
+          <t>Terdampak</t>
         </is>
       </c>
       <c r="BM13" t="n">
-        <v>3.077861033362291</v>
+        <v>3.361271924212185</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr"/>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
+      <c r="B14" t="n">
+        <v>-7.98</v>
+      </c>
+      <c r="C14" t="n">
+        <v>114.24</v>
+      </c>
       <c r="D14" t="n">
         <v>3.1</v>
       </c>
@@ -3348,27 +3400,31 @@
         <v>0.7178837948144128</v>
       </c>
       <c r="BI14" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="BJ14" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="BK14" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="BL14" t="inlineStr">
         <is>
-          <t>Aman</t>
+          <t>Terdampak</t>
         </is>
       </c>
       <c r="BM14" t="n">
-        <v>5.441018655854489</v>
+        <v>6.529222387025386</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr"/>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
+      <c r="B15" t="n">
+        <v>-7.99</v>
+      </c>
+      <c r="C15" t="n">
+        <v>114.21</v>
+      </c>
       <c r="D15" t="n">
         <v>2.9</v>
       </c>
@@ -3548,13 +3604,13 @@
         <v>0.707359274242687</v>
       </c>
       <c r="BI15" t="n">
-        <v>0.5</v>
+        <v>0.5499224398219013</v>
       </c>
       <c r="BJ15" t="n">
-        <v>0.5</v>
+        <v>0.5499224398219013</v>
       </c>
       <c r="BK15" t="n">
-        <v>50</v>
+        <v>54.99</v>
       </c>
       <c r="BL15" t="inlineStr">
         <is>
@@ -3562,13 +3618,17 @@
         </is>
       </c>
       <c r="BM15" t="n">
-        <v>4.989159752959225</v>
+        <v>5.088788163970808</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr"/>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
+      <c r="B16" t="n">
+        <v>-7.99</v>
+      </c>
+      <c r="C16" t="n">
+        <v>114.21</v>
+      </c>
       <c r="D16" t="n">
         <v>2.9</v>
       </c>
@@ -3748,13 +3808,13 @@
         <v>0.6579187965525378</v>
       </c>
       <c r="BI16" t="n">
-        <v>0.5</v>
+        <v>0.5972013280968096</v>
       </c>
       <c r="BJ16" t="n">
-        <v>0.5</v>
+        <v>0.5972013280968096</v>
       </c>
       <c r="BK16" t="n">
-        <v>50</v>
+        <v>59.72</v>
       </c>
       <c r="BL16" t="inlineStr">
         <is>
@@ -3762,13 +3822,17 @@
         </is>
       </c>
       <c r="BM16" t="n">
-        <v>4.989159752959225</v>
+        <v>5.183140934589139</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr"/>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
+      <c r="B17" t="n">
+        <v>-7.99</v>
+      </c>
+      <c r="C17" t="n">
+        <v>114.22</v>
+      </c>
       <c r="D17" t="n">
         <v>2.9</v>
       </c>
@@ -3948,13 +4012,13 @@
         <v>0.6447590912226693</v>
       </c>
       <c r="BI17" t="n">
-        <v>0.5</v>
+        <v>0.5420042983644418</v>
       </c>
       <c r="BJ17" t="n">
-        <v>0.5</v>
+        <v>0.5420042983644418</v>
       </c>
       <c r="BK17" t="n">
-        <v>50</v>
+        <v>54.2</v>
       </c>
       <c r="BL17" t="inlineStr">
         <is>
@@ -3962,13 +4026,17 @@
         </is>
       </c>
       <c r="BM17" t="n">
-        <v>4.989159752959225</v>
+        <v>5.07298621489969</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr"/>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
+      <c r="B18" t="n">
+        <v>-7.99</v>
+      </c>
+      <c r="C18" t="n">
+        <v>114.22</v>
+      </c>
       <c r="D18" t="n">
         <v>2.9</v>
       </c>
@@ -4148,13 +4216,13 @@
         <v>0.630476010645922</v>
       </c>
       <c r="BI18" t="n">
-        <v>0.5</v>
+        <v>0.4116382184564528</v>
       </c>
       <c r="BJ18" t="n">
-        <v>0.5</v>
+        <v>0.4116382184564528</v>
       </c>
       <c r="BK18" t="n">
-        <v>50</v>
+        <v>41.16</v>
       </c>
       <c r="BL18" t="inlineStr">
         <is>
@@ -4162,13 +4230,17 @@
         </is>
       </c>
       <c r="BM18" t="n">
-        <v>4.989159752959225</v>
+        <v>4.812819335288489</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr"/>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
+      <c r="B19" t="n">
+        <v>-7.97</v>
+      </c>
+      <c r="C19" t="n">
+        <v>114.16</v>
+      </c>
       <c r="D19" t="n">
         <v>2.3</v>
       </c>
@@ -4348,27 +4420,31 @@
         <v>0.6026726190182213</v>
       </c>
       <c r="BI19" t="n">
-        <v>0.5</v>
+        <v>0.9399194119759879</v>
       </c>
       <c r="BJ19" t="n">
-        <v>0.5</v>
+        <v>0.9399194119759879</v>
       </c>
       <c r="BK19" t="n">
-        <v>50</v>
+        <v>93.98999999999999</v>
       </c>
       <c r="BL19" t="inlineStr">
         <is>
-          <t>Aman</t>
+          <t>Terdampak</t>
         </is>
       </c>
       <c r="BM19" t="n">
-        <v>3.691103301765151</v>
+        <v>4.340618499387213</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr"/>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
+      <c r="B20" t="n">
+        <v>-7.97</v>
+      </c>
+      <c r="C20" t="n">
+        <v>114.15</v>
+      </c>
       <c r="D20" t="n">
         <v>2.2</v>
       </c>
@@ -4548,27 +4624,31 @@
         <v>0.5185832348124723</v>
       </c>
       <c r="BI20" t="n">
-        <v>0.5</v>
+        <v>0.9399194119759879</v>
       </c>
       <c r="BJ20" t="n">
-        <v>0.5</v>
+        <v>0.9399194119759879</v>
       </c>
       <c r="BK20" t="n">
-        <v>50</v>
+        <v>93.98999999999999</v>
       </c>
       <c r="BL20" t="inlineStr">
         <is>
-          <t>Aman</t>
+          <t>Terdampak</t>
         </is>
       </c>
       <c r="BM20" t="n">
-        <v>3.483850403030317</v>
+        <v>4.09689577131568</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr"/>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
+      <c r="B21" t="n">
+        <v>-7.99</v>
+      </c>
+      <c r="C21" t="n">
+        <v>114.19</v>
+      </c>
       <c r="D21" t="n">
         <v>2.6</v>
       </c>
@@ -4751,27 +4831,31 @@
         <v>0.4640658820223046</v>
       </c>
       <c r="BI21" t="n">
-        <v>0.5</v>
+        <v>0.9732975164337723</v>
       </c>
       <c r="BJ21" t="n">
-        <v>0.5</v>
+        <v>0.9732975164337723</v>
       </c>
       <c r="BK21" t="n">
-        <v>50</v>
+        <v>97.33</v>
       </c>
       <c r="BL21" t="inlineStr">
         <is>
-          <t>Aman</t>
+          <t>Terdampak</t>
         </is>
       </c>
       <c r="BM21" t="n">
-        <v>4.328878189671251</v>
+        <v>5.148417108117541</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr"/>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
+      <c r="B22" t="n">
+        <v>-7.96</v>
+      </c>
+      <c r="C22" t="n">
+        <v>114.15</v>
+      </c>
       <c r="D22" t="n">
         <v>2.5</v>
       </c>
@@ -4954,21 +5038,21 @@
         <v>0.4452126297784946</v>
       </c>
       <c r="BI22" t="n">
-        <v>0.5</v>
+        <v>0.7302678871464688</v>
       </c>
       <c r="BJ22" t="n">
-        <v>0.5</v>
+        <v>0.7302678871464688</v>
       </c>
       <c r="BK22" t="n">
-        <v>50</v>
+        <v>73.03</v>
       </c>
       <c r="BL22" t="inlineStr">
         <is>
-          <t>Aman</t>
+          <t>Terdampak</t>
         </is>
       </c>
       <c r="BM22" t="n">
-        <v>4.113694388544492</v>
+        <v>4.492595074631062</v>
       </c>
     </row>
   </sheetData>
@@ -5319,8 +5403,12 @@
     </row>
     <row r="2">
       <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
+      <c r="B2" t="n">
+        <v>-7.99</v>
+      </c>
+      <c r="C2" t="n">
+        <v>114.22</v>
+      </c>
       <c r="D2" t="n">
         <v>2.9</v>
       </c>
@@ -5500,13 +5588,13 @@
         <v>0.6447590912226693</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.5</v>
+        <v>0.5420042983644418</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.5</v>
+        <v>0.5420042983644418</v>
       </c>
       <c r="BK2" t="n">
-        <v>50</v>
+        <v>54.2</v>
       </c>
       <c r="BL2" t="inlineStr">
         <is>
@@ -5514,13 +5602,17 @@
         </is>
       </c>
       <c r="BM2" t="n">
-        <v>4.989159752959225</v>
+        <v>5.07298621489969</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
+      <c r="B3" t="n">
+        <v>-7.98</v>
+      </c>
+      <c r="C3" t="n">
+        <v>114.15</v>
+      </c>
       <c r="D3" t="n">
         <v>2.2</v>
       </c>
@@ -5699,13 +5791,13 @@
         <v>0.584807660688538</v>
       </c>
       <c r="BI3" t="n">
-        <v>0.5</v>
+        <v>0.6923586919702183</v>
       </c>
       <c r="BJ3" t="n">
-        <v>0.5</v>
+        <v>0.6923586919702183</v>
       </c>
       <c r="BK3" t="n">
-        <v>50</v>
+        <v>69.23999999999999</v>
       </c>
       <c r="BL3" t="inlineStr">
         <is>
@@ -5713,13 +5805,17 @@
         </is>
       </c>
       <c r="BM3" t="n">
-        <v>3.483850403030317</v>
+        <v>3.751909965649049</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
+      <c r="B4" t="n">
+        <v>-7.96</v>
+      </c>
+      <c r="C4" t="n">
+        <v>112.77</v>
+      </c>
       <c r="D4" t="n">
         <v>2.1</v>
       </c>
@@ -5897,13 +5993,13 @@
         <v>0.6928203230275504</v>
       </c>
       <c r="BI4" t="n">
-        <v>0.5</v>
+        <v>0.0001</v>
       </c>
       <c r="BJ4" t="n">
-        <v>0.5</v>
+        <v>0.0001</v>
       </c>
       <c r="BK4" t="n">
-        <v>50</v>
+        <v>0.01</v>
       </c>
       <c r="BL4" t="inlineStr">
         <is>
@@ -5911,13 +6007,17 @@
         </is>
       </c>
       <c r="BM4" t="n">
-        <v>3.279405314694293</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
+      <c r="B5" t="n">
+        <v>-7.98</v>
+      </c>
+      <c r="C5" t="n">
+        <v>114.15</v>
+      </c>
       <c r="D5" t="n">
         <v>2.2</v>
       </c>
@@ -6097,27 +6197,31 @@
         <v>0.6328506932918696</v>
       </c>
       <c r="BI5" t="n">
-        <v>0.5</v>
+        <v>0.9732975164337723</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0.5</v>
+        <v>0.9732975164337723</v>
       </c>
       <c r="BK5" t="n">
-        <v>50</v>
+        <v>97.33</v>
       </c>
       <c r="BL5" t="inlineStr">
         <is>
-          <t>Aman</t>
+          <t>Terdampak</t>
         </is>
       </c>
       <c r="BM5" t="n">
-        <v>3.483850403030317</v>
+        <v>4.143409500382735</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
+      <c r="B6" t="n">
+        <v>-7.98</v>
+      </c>
+      <c r="C6" t="n">
+        <v>114.18</v>
+      </c>
       <c r="D6" t="n">
         <v>3</v>
       </c>
@@ -6297,27 +6401,31 @@
         <v>0.6026726190182244</v>
       </c>
       <c r="BI6" t="n">
-        <v>0.5</v>
+        <v>0.7040733378130177</v>
       </c>
       <c r="BJ6" t="n">
-        <v>0.5</v>
+        <v>0.7040733378130177</v>
       </c>
       <c r="BK6" t="n">
-        <v>50</v>
+        <v>70.41</v>
       </c>
       <c r="BL6" t="inlineStr">
         <is>
-          <t>Aman</t>
+          <t>Terdampak</t>
         </is>
       </c>
       <c r="BM6" t="n">
-        <v>5.21395938868466</v>
+        <v>5.63957142695282</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
+      <c r="B7" t="n">
+        <v>-7.98</v>
+      </c>
+      <c r="C7" t="n">
+        <v>114.24</v>
+      </c>
       <c r="D7" t="n">
         <v>3.1</v>
       </c>
@@ -6497,27 +6605,31 @@
         <v>0.7178837948144128</v>
       </c>
       <c r="BI7" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="BJ7" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="BK7" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="BL7" t="inlineStr">
         <is>
-          <t>Aman</t>
+          <t>Terdampak</t>
         </is>
       </c>
       <c r="BM7" t="n">
-        <v>5.441018655854489</v>
+        <v>6.529222387025386</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
+      <c r="B8" t="n">
+        <v>-7.96</v>
+      </c>
+      <c r="C8" t="n">
+        <v>114.15</v>
+      </c>
       <c r="D8" t="n">
         <v>2.5</v>
       </c>
@@ -6700,27 +6812,31 @@
         <v>0.4452126297784946</v>
       </c>
       <c r="BI8" t="n">
-        <v>0.5</v>
+        <v>0.7302678871464688</v>
       </c>
       <c r="BJ8" t="n">
-        <v>0.5</v>
+        <v>0.7302678871464688</v>
       </c>
       <c r="BK8" t="n">
-        <v>50</v>
+        <v>73.03</v>
       </c>
       <c r="BL8" t="inlineStr">
         <is>
-          <t>Aman</t>
+          <t>Terdampak</t>
         </is>
       </c>
       <c r="BM8" t="n">
-        <v>4.113694388544492</v>
+        <v>4.492595074631062</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
+      <c r="B9" t="n">
+        <v>-8.01</v>
+      </c>
+      <c r="C9" t="n">
+        <v>114.18</v>
+      </c>
       <c r="D9" t="n">
         <v>2.9</v>
       </c>
@@ -6900,27 +7016,31 @@
         <v>0</v>
       </c>
       <c r="BI9" t="n">
-        <v>0.5</v>
+        <v>0.9732975164337723</v>
       </c>
       <c r="BJ9" t="n">
-        <v>0.5</v>
+        <v>0.9732975164337723</v>
       </c>
       <c r="BK9" t="n">
-        <v>50</v>
+        <v>97.33</v>
       </c>
       <c r="BL9" t="inlineStr">
         <is>
-          <t>Aman</t>
+          <t>Terdampak</t>
         </is>
       </c>
       <c r="BM9" t="n">
-        <v>4.989159752959225</v>
+        <v>5.933702521025999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
+      <c r="B10" t="n">
+        <v>-7.96</v>
+      </c>
+      <c r="C10" t="n">
+        <v>112.77</v>
+      </c>
       <c r="D10" t="n">
         <v>2.1</v>
       </c>
@@ -7100,13 +7220,13 @@
         <v>0.6928203230275506</v>
       </c>
       <c r="BI10" t="n">
-        <v>0.5</v>
+        <v>0.02713070900168729</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0.5</v>
+        <v>0.02713070900168729</v>
       </c>
       <c r="BK10" t="n">
-        <v>50</v>
+        <v>2.71</v>
       </c>
       <c r="BL10" t="inlineStr">
         <is>
@@ -7114,13 +7234,17 @@
         </is>
       </c>
       <c r="BM10" t="n">
-        <v>3.279405314694293</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
+      <c r="B11" t="n">
+        <v>-7.92</v>
+      </c>
+      <c r="C11" t="n">
+        <v>114.16</v>
+      </c>
       <c r="D11" t="n">
         <v>2.2</v>
       </c>
@@ -7299,27 +7423,31 @@
         <v>0.4217311262607299</v>
       </c>
       <c r="BI11" t="n">
-        <v>0.5</v>
+        <v>0.8570936044459263</v>
       </c>
       <c r="BJ11" t="n">
-        <v>0.5</v>
+        <v>0.8570936044459263</v>
       </c>
       <c r="BK11" t="n">
-        <v>50</v>
+        <v>85.70999999999999</v>
       </c>
       <c r="BL11" t="inlineStr">
         <is>
-          <t>Aman</t>
+          <t>Terdampak</t>
         </is>
       </c>
       <c r="BM11" t="n">
-        <v>3.483850403030317</v>
+        <v>3.981474682137712</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr"/>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
+      <c r="B12" t="n">
+        <v>-7.99</v>
+      </c>
+      <c r="C12" t="n">
+        <v>114.21</v>
+      </c>
       <c r="D12" t="n">
         <v>2.9</v>
       </c>
@@ -7499,13 +7627,13 @@
         <v>0.707359274242687</v>
       </c>
       <c r="BI12" t="n">
-        <v>0.5</v>
+        <v>0.5499224398219013</v>
       </c>
       <c r="BJ12" t="n">
-        <v>0.5</v>
+        <v>0.5499224398219013</v>
       </c>
       <c r="BK12" t="n">
-        <v>50</v>
+        <v>54.99</v>
       </c>
       <c r="BL12" t="inlineStr">
         <is>
@@ -7513,13 +7641,17 @@
         </is>
       </c>
       <c r="BM12" t="n">
-        <v>4.989159752959225</v>
+        <v>5.088788163970808</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr"/>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
+      <c r="B13" t="n">
+        <v>-7.91</v>
+      </c>
+      <c r="C13" t="n">
+        <v>114.14</v>
+      </c>
       <c r="D13" t="n">
         <v>2</v>
       </c>
@@ -7700,27 +7832,31 @@
         <v>0.6244997998398401</v>
       </c>
       <c r="BI13" t="n">
-        <v>0.5</v>
+        <v>0.7302011752462826</v>
       </c>
       <c r="BJ13" t="n">
-        <v>0.5</v>
+        <v>0.7302011752462826</v>
       </c>
       <c r="BK13" t="n">
-        <v>50</v>
+        <v>73.02</v>
       </c>
       <c r="BL13" t="inlineStr">
         <is>
-          <t>Aman</t>
+          <t>Terdampak</t>
         </is>
       </c>
       <c r="BM13" t="n">
-        <v>3.077861033362291</v>
+        <v>3.361271924212185</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr"/>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
+      <c r="B14" t="n">
+        <v>-7.98</v>
+      </c>
+      <c r="C14" t="n">
+        <v>114.18</v>
+      </c>
       <c r="D14" t="n">
         <v>3</v>
       </c>
@@ -7901,27 +8037,31 @@
         <v>0.4777177887773147</v>
       </c>
       <c r="BI14" t="n">
-        <v>0.5</v>
+        <v>0.8584768370989938</v>
       </c>
       <c r="BJ14" t="n">
-        <v>0.5</v>
+        <v>0.8584768370989938</v>
       </c>
       <c r="BK14" t="n">
-        <v>50</v>
+        <v>85.84999999999999</v>
       </c>
       <c r="BL14" t="inlineStr">
         <is>
-          <t>Aman</t>
+          <t>Terdampak</t>
         </is>
       </c>
       <c r="BM14" t="n">
-        <v>5.21395938868466</v>
+        <v>5.961592856851972</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr"/>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
+      <c r="B15" t="n">
+        <v>-7.92</v>
+      </c>
+      <c r="C15" t="n">
+        <v>114.16</v>
+      </c>
       <c r="D15" t="n">
         <v>2.2</v>
       </c>
@@ -8101,27 +8241,31 @@
         <v>0.5457628998540878</v>
       </c>
       <c r="BI15" t="n">
-        <v>0.5</v>
+        <v>0.9399194119759879</v>
       </c>
       <c r="BJ15" t="n">
-        <v>0.5</v>
+        <v>0.9399194119759879</v>
       </c>
       <c r="BK15" t="n">
-        <v>50</v>
+        <v>93.98999999999999</v>
       </c>
       <c r="BL15" t="inlineStr">
         <is>
-          <t>Aman</t>
+          <t>Terdampak</t>
         </is>
       </c>
       <c r="BM15" t="n">
-        <v>3.483850403030317</v>
+        <v>4.09689577131568</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr"/>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
+      <c r="B16" t="n">
+        <v>-7.97</v>
+      </c>
+      <c r="C16" t="n">
+        <v>114.13</v>
+      </c>
       <c r="D16" t="n">
         <v>2.2</v>
       </c>
@@ -8301,27 +8445,31 @@
         <v>0.5855400437691201</v>
       </c>
       <c r="BI16" t="n">
-        <v>0.5</v>
+        <v>0.9140513810212049</v>
       </c>
       <c r="BJ16" t="n">
-        <v>0.5</v>
+        <v>0.9140513810212049</v>
       </c>
       <c r="BK16" t="n">
-        <v>50</v>
+        <v>91.41</v>
       </c>
       <c r="BL16" t="inlineStr">
         <is>
-          <t>Aman</t>
+          <t>Terdampak</t>
         </is>
       </c>
       <c r="BM16" t="n">
-        <v>3.483850403030317</v>
+        <v>4.060847631288711</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr"/>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
+      <c r="B17" t="n">
+        <v>-8.01</v>
+      </c>
+      <c r="C17" t="n">
+        <v>114.18</v>
+      </c>
       <c r="D17" t="n">
         <v>2.9</v>
       </c>
@@ -8407,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.3492465277777778</v>
+        <v>0.3492465277777779</v>
       </c>
       <c r="AE17" t="n">
         <v>0</v>
@@ -8422,7 +8570,7 @@
         <v>0.57142857142857</v>
       </c>
       <c r="AI17" t="n">
-        <v>0.6938726207906296</v>
+        <v>0.6938726207906298</v>
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
@@ -8502,27 +8650,31 @@
         <v>0</v>
       </c>
       <c r="BI17" t="n">
-        <v>0.5</v>
+        <v>0.9474294854789893</v>
       </c>
       <c r="BJ17" t="n">
-        <v>0.5</v>
+        <v>0.9474294854789893</v>
       </c>
       <c r="BK17" t="n">
-        <v>50</v>
+        <v>94.73999999999999</v>
       </c>
       <c r="BL17" t="inlineStr">
         <is>
-          <t>Aman</t>
+          <t>Terdampak</t>
         </is>
       </c>
       <c r="BM17" t="n">
-        <v>4.989159752959225</v>
+        <v>5.882078625454835</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr"/>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
+      <c r="B18" t="n">
+        <v>-7.99</v>
+      </c>
+      <c r="C18" t="n">
+        <v>114.22</v>
+      </c>
       <c r="D18" t="n">
         <v>2.9</v>
       </c>
@@ -8702,13 +8854,13 @@
         <v>0.630476010645922</v>
       </c>
       <c r="BI18" t="n">
-        <v>0.5</v>
+        <v>0.4116382184564528</v>
       </c>
       <c r="BJ18" t="n">
-        <v>0.5</v>
+        <v>0.4116382184564528</v>
       </c>
       <c r="BK18" t="n">
-        <v>50</v>
+        <v>41.16</v>
       </c>
       <c r="BL18" t="inlineStr">
         <is>
@@ -8716,13 +8868,17 @@
         </is>
       </c>
       <c r="BM18" t="n">
-        <v>4.989159752959225</v>
+        <v>4.812819335288489</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr"/>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
+      <c r="B19" t="n">
+        <v>-7.97</v>
+      </c>
+      <c r="C19" t="n">
+        <v>114.15</v>
+      </c>
       <c r="D19" t="n">
         <v>2.2</v>
       </c>
@@ -8902,27 +9058,31 @@
         <v>0.5185832348124723</v>
       </c>
       <c r="BI19" t="n">
-        <v>0.5</v>
+        <v>0.9399194119759879</v>
       </c>
       <c r="BJ19" t="n">
-        <v>0.5</v>
+        <v>0.9399194119759879</v>
       </c>
       <c r="BK19" t="n">
-        <v>50</v>
+        <v>93.98999999999999</v>
       </c>
       <c r="BL19" t="inlineStr">
         <is>
-          <t>Aman</t>
+          <t>Terdampak</t>
         </is>
       </c>
       <c r="BM19" t="n">
-        <v>3.483850403030317</v>
+        <v>4.09689577131568</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr"/>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
+      <c r="B20" t="n">
+        <v>-7.99</v>
+      </c>
+      <c r="C20" t="n">
+        <v>114.19</v>
+      </c>
       <c r="D20" t="n">
         <v>2.6</v>
       </c>
@@ -9105,27 +9265,31 @@
         <v>0.4640658820223046</v>
       </c>
       <c r="BI20" t="n">
-        <v>0.5</v>
+        <v>0.9732975164337723</v>
       </c>
       <c r="BJ20" t="n">
-        <v>0.5</v>
+        <v>0.9732975164337723</v>
       </c>
       <c r="BK20" t="n">
-        <v>50</v>
+        <v>97.33</v>
       </c>
       <c r="BL20" t="inlineStr">
         <is>
-          <t>Aman</t>
+          <t>Terdampak</t>
         </is>
       </c>
       <c r="BM20" t="n">
-        <v>4.328878189671251</v>
+        <v>5.148417108117541</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr"/>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
+      <c r="B21" t="n">
+        <v>-7.97</v>
+      </c>
+      <c r="C21" t="n">
+        <v>114.16</v>
+      </c>
       <c r="D21" t="n">
         <v>2.3</v>
       </c>
@@ -9305,27 +9469,31 @@
         <v>0.6026726190182213</v>
       </c>
       <c r="BI21" t="n">
-        <v>0.5</v>
+        <v>0.9399194119759879</v>
       </c>
       <c r="BJ21" t="n">
-        <v>0.5</v>
+        <v>0.9399194119759879</v>
       </c>
       <c r="BK21" t="n">
-        <v>50</v>
+        <v>93.98999999999999</v>
       </c>
       <c r="BL21" t="inlineStr">
         <is>
-          <t>Aman</t>
+          <t>Terdampak</t>
         </is>
       </c>
       <c r="BM21" t="n">
-        <v>3.691103301765151</v>
+        <v>4.340618499387213</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr"/>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
+      <c r="B22" t="n">
+        <v>-7.99</v>
+      </c>
+      <c r="C22" t="n">
+        <v>114.21</v>
+      </c>
       <c r="D22" t="n">
         <v>2.9</v>
       </c>
@@ -9505,13 +9673,13 @@
         <v>0.6579187965525378</v>
       </c>
       <c r="BI22" t="n">
-        <v>0.5</v>
+        <v>0.5972013280968096</v>
       </c>
       <c r="BJ22" t="n">
-        <v>0.5</v>
+        <v>0.5972013280968096</v>
       </c>
       <c r="BK22" t="n">
-        <v>50</v>
+        <v>59.72</v>
       </c>
       <c r="BL22" t="inlineStr">
         <is>
@@ -9519,7 +9687,7 @@
         </is>
       </c>
       <c r="BM22" t="n">
-        <v>4.989159752959225</v>
+        <v>5.183140934589139</v>
       </c>
     </row>
   </sheetData>
@@ -9596,7 +9764,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-12-22T13:01:57.014908</t>
+          <t>2025-12-22T19:21:05.201074</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -9606,16 +9774,16 @@
         <v>21</v>
       </c>
       <c r="D2" t="n">
-        <v>-7.972569281605572</v>
+        <v>-7.989320574622198</v>
       </c>
       <c r="E2" t="n">
-        <v>114.2750144089263</v>
+        <v>114.2798366875917</v>
       </c>
       <c r="F2" t="n">
-        <v>74.85607655907955</v>
+        <v>89.4419901231613</v>
       </c>
       <c r="G2" t="n">
-        <v>7.416980624912464</v>
+        <v>7.690488797187909</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -9623,10 +9791,10 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.5036525791123133</v>
+        <v>0.4004541829451808</v>
       </c>
       <c r="J2" t="n">
-        <v>1.29</v>
+        <v>1.38720132809681</v>
       </c>
     </row>
   </sheetData>

--- a/output/ga_results/ga_report.xlsx
+++ b/output/ga_results/ga_report.xlsx
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.3492465277777779</v>
+        <v>0.3492465277777778</v>
       </c>
       <c r="AE2" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0.57142857142857</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.6938726207906298</v>
+        <v>0.6938726207906296</v>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
@@ -954,13 +954,13 @@
         <v>0</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.9474294854789893</v>
+        <v>0.9539916251188205</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.9474294854789893</v>
+        <v>0.9539916251188205</v>
       </c>
       <c r="BK2" t="n">
-        <v>94.73999999999999</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="BL2" t="inlineStr">
         <is>
@@ -968,7 +968,7 @@
         </is>
       </c>
       <c r="BM2" t="n">
-        <v>5.882078625454835</v>
+        <v>5.895174450648573</v>
       </c>
     </row>
     <row r="3">
@@ -1158,13 +1158,13 @@
         <v>0</v>
       </c>
       <c r="BI3" t="n">
-        <v>0.9732975164337723</v>
+        <v>0.9041440257520243</v>
       </c>
       <c r="BJ3" t="n">
-        <v>0.9732975164337723</v>
+        <v>0.9041440257520243</v>
       </c>
       <c r="BK3" t="n">
-        <v>97.33</v>
+        <v>90.41</v>
       </c>
       <c r="BL3" t="inlineStr">
         <is>
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="BM3" t="n">
-        <v>5.933702521025999</v>
+        <v>5.795695396031591</v>
       </c>
     </row>
     <row r="4">
@@ -1564,13 +1564,13 @@
         <v>0.6928203230275506</v>
       </c>
       <c r="BI5" t="n">
-        <v>0.02713070900168729</v>
+        <v>0.1672673985868431</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0.02713070900168729</v>
+        <v>0.1672673985868431</v>
       </c>
       <c r="BK5" t="n">
-        <v>2.71</v>
+        <v>16.73</v>
       </c>
       <c r="BL5" t="inlineStr">
         <is>
@@ -1768,13 +1768,13 @@
         <v>0.6328506932918696</v>
       </c>
       <c r="BI6" t="n">
-        <v>0.9732975164337723</v>
+        <v>0.8658575536014507</v>
       </c>
       <c r="BJ6" t="n">
-        <v>0.9732975164337723</v>
+        <v>0.8658575536014507</v>
       </c>
       <c r="BK6" t="n">
-        <v>97.33</v>
+        <v>86.59</v>
       </c>
       <c r="BL6" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         </is>
       </c>
       <c r="BM6" t="n">
-        <v>4.143409500382735</v>
+        <v>3.993687597256756</v>
       </c>
     </row>
     <row r="7">
@@ -1971,21 +1971,21 @@
         <v>0.584807660688538</v>
       </c>
       <c r="BI7" t="n">
-        <v>0.6923586919702183</v>
+        <v>0.7094038067733358</v>
       </c>
       <c r="BJ7" t="n">
-        <v>0.6923586919702183</v>
+        <v>0.7094038067733358</v>
       </c>
       <c r="BK7" t="n">
-        <v>69.23999999999999</v>
+        <v>70.94</v>
       </c>
       <c r="BL7" t="inlineStr">
         <is>
-          <t>Aman</t>
+          <t>Terdampak</t>
         </is>
       </c>
       <c r="BM7" t="n">
-        <v>3.751909965649049</v>
+        <v>3.775663017679664</v>
       </c>
     </row>
     <row r="8">
@@ -2175,13 +2175,13 @@
         <v>0.5457628998540878</v>
       </c>
       <c r="BI8" t="n">
-        <v>0.9399194119759879</v>
+        <v>0.8738711975564902</v>
       </c>
       <c r="BJ8" t="n">
-        <v>0.9399194119759879</v>
+        <v>0.8738711975564902</v>
       </c>
       <c r="BK8" t="n">
-        <v>93.98999999999999</v>
+        <v>87.39</v>
       </c>
       <c r="BL8" t="inlineStr">
         <is>
@@ -2189,7 +2189,7 @@
         </is>
       </c>
       <c r="BM8" t="n">
-        <v>4.09689577131568</v>
+        <v>4.004854931945759</v>
       </c>
     </row>
     <row r="9">
@@ -2378,13 +2378,13 @@
         <v>0.4217311262607299</v>
       </c>
       <c r="BI9" t="n">
-        <v>0.8570936044459263</v>
+        <v>0.8782238145513602</v>
       </c>
       <c r="BJ9" t="n">
-        <v>0.8570936044459263</v>
+        <v>0.8782238145513602</v>
       </c>
       <c r="BK9" t="n">
-        <v>85.70999999999999</v>
+        <v>87.81999999999999</v>
       </c>
       <c r="BL9" t="inlineStr">
         <is>
@@ -2392,7 +2392,7 @@
         </is>
       </c>
       <c r="BM9" t="n">
-        <v>3.981474682137712</v>
+        <v>4.010920478534485</v>
       </c>
     </row>
     <row r="10">
@@ -2583,13 +2583,13 @@
         <v>0.4777177887773147</v>
       </c>
       <c r="BI10" t="n">
-        <v>0.8584768370989938</v>
+        <v>0.7204312088716125</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0.8584768370989938</v>
+        <v>0.7204312088716125</v>
       </c>
       <c r="BK10" t="n">
-        <v>85.84999999999999</v>
+        <v>72.04000000000001</v>
       </c>
       <c r="BL10" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
         </is>
       </c>
       <c r="BM10" t="n">
-        <v>5.961592856851972</v>
+        <v>5.673687137106762</v>
       </c>
     </row>
     <row r="11">
@@ -2787,13 +2787,13 @@
         <v>0.6026726190182244</v>
       </c>
       <c r="BI11" t="n">
-        <v>0.7040733378130177</v>
+        <v>0.823337560535471</v>
       </c>
       <c r="BJ11" t="n">
-        <v>0.7040733378130177</v>
+        <v>0.823337560535471</v>
       </c>
       <c r="BK11" t="n">
-        <v>70.41</v>
+        <v>82.33</v>
       </c>
       <c r="BL11" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
         </is>
       </c>
       <c r="BM11" t="n">
-        <v>5.63957142695282</v>
+        <v>5.888306952471986</v>
       </c>
     </row>
     <row r="12">
@@ -2991,13 +2991,13 @@
         <v>0.5855400437691201</v>
       </c>
       <c r="BI12" t="n">
-        <v>0.9140513810212049</v>
+        <v>0.9384232982664215</v>
       </c>
       <c r="BJ12" t="n">
-        <v>0.9140513810212049</v>
+        <v>0.9384232982664215</v>
       </c>
       <c r="BK12" t="n">
-        <v>91.41</v>
+        <v>93.84</v>
       </c>
       <c r="BL12" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         </is>
       </c>
       <c r="BM12" t="n">
-        <v>4.060847631288711</v>
+        <v>4.094810876775658</v>
       </c>
     </row>
     <row r="13">
@@ -3196,21 +3196,21 @@
         <v>0.6244997998398401</v>
       </c>
       <c r="BI13" t="n">
-        <v>0.7302011752462826</v>
+        <v>0.677305670828254</v>
       </c>
       <c r="BJ13" t="n">
-        <v>0.7302011752462826</v>
+        <v>0.677305670828254</v>
       </c>
       <c r="BK13" t="n">
-        <v>73.02</v>
+        <v>67.73</v>
       </c>
       <c r="BL13" t="inlineStr">
         <is>
-          <t>Terdampak</t>
+          <t>Aman</t>
         </is>
       </c>
       <c r="BM13" t="n">
-        <v>3.361271924212185</v>
+        <v>3.296149919456868</v>
       </c>
     </row>
     <row r="14">
@@ -3604,21 +3604,21 @@
         <v>0.707359274242687</v>
       </c>
       <c r="BI15" t="n">
-        <v>0.5499224398219013</v>
+        <v>0.7165122398822593</v>
       </c>
       <c r="BJ15" t="n">
-        <v>0.5499224398219013</v>
+        <v>0.7165122398822593</v>
       </c>
       <c r="BK15" t="n">
-        <v>54.99</v>
+        <v>71.65000000000001</v>
       </c>
       <c r="BL15" t="inlineStr">
         <is>
-          <t>Aman</t>
+          <t>Terdampak</t>
         </is>
       </c>
       <c r="BM15" t="n">
-        <v>5.088788163970808</v>
+        <v>5.421245414256673</v>
       </c>
     </row>
     <row r="16">
@@ -3808,13 +3808,13 @@
         <v>0.6579187965525378</v>
       </c>
       <c r="BI16" t="n">
-        <v>0.5972013280968096</v>
+        <v>0.6125849555638699</v>
       </c>
       <c r="BJ16" t="n">
-        <v>0.5972013280968096</v>
+        <v>0.6125849555638699</v>
       </c>
       <c r="BK16" t="n">
-        <v>59.72</v>
+        <v>61.26</v>
       </c>
       <c r="BL16" t="inlineStr">
         <is>
@@ -3822,7 +3822,7 @@
         </is>
       </c>
       <c r="BM16" t="n">
-        <v>5.183140934589139</v>
+        <v>5.213841484594409</v>
       </c>
     </row>
     <row r="17">
@@ -4012,13 +4012,13 @@
         <v>0.6447590912226693</v>
       </c>
       <c r="BI17" t="n">
-        <v>0.5420042983644418</v>
+        <v>0.6494492536341329</v>
       </c>
       <c r="BJ17" t="n">
-        <v>0.5420042983644418</v>
+        <v>0.6494492536341329</v>
       </c>
       <c r="BK17" t="n">
-        <v>54.2</v>
+        <v>64.94</v>
       </c>
       <c r="BL17" t="inlineStr">
         <is>
@@ -4026,7 +4026,7 @@
         </is>
       </c>
       <c r="BM17" t="n">
-        <v>5.07298621489969</v>
+        <v>5.287410233495709</v>
       </c>
     </row>
     <row r="18">
@@ -4216,13 +4216,13 @@
         <v>0.630476010645922</v>
       </c>
       <c r="BI18" t="n">
-        <v>0.4116382184564528</v>
+        <v>0.5312912516201734</v>
       </c>
       <c r="BJ18" t="n">
-        <v>0.4116382184564528</v>
+        <v>0.5312912516201734</v>
       </c>
       <c r="BK18" t="n">
-        <v>41.16</v>
+        <v>53.13</v>
       </c>
       <c r="BL18" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         </is>
       </c>
       <c r="BM18" t="n">
-        <v>4.812819335288489</v>
+        <v>5.051606574240461</v>
       </c>
     </row>
     <row r="19">
@@ -4420,13 +4420,13 @@
         <v>0.6026726190182213</v>
       </c>
       <c r="BI19" t="n">
-        <v>0.9399194119759879</v>
+        <v>0.9021512027174915</v>
       </c>
       <c r="BJ19" t="n">
-        <v>0.9399194119759879</v>
+        <v>0.9021512027174915</v>
       </c>
       <c r="BK19" t="n">
-        <v>93.98999999999999</v>
+        <v>90.22</v>
       </c>
       <c r="BL19" t="inlineStr">
         <is>
@@ -4434,7 +4434,7 @@
         </is>
       </c>
       <c r="BM19" t="n">
-        <v>4.340618499387213</v>
+        <v>4.284855954628895</v>
       </c>
     </row>
     <row r="20">
@@ -4624,13 +4624,13 @@
         <v>0.5185832348124723</v>
       </c>
       <c r="BI20" t="n">
-        <v>0.9399194119759879</v>
+        <v>0.834470754412394</v>
       </c>
       <c r="BJ20" t="n">
-        <v>0.9399194119759879</v>
+        <v>0.834470754412394</v>
       </c>
       <c r="BK20" t="n">
-        <v>93.98999999999999</v>
+        <v>83.45</v>
       </c>
       <c r="BL20" t="inlineStr">
         <is>
@@ -4638,7 +4638,7 @@
         </is>
       </c>
       <c r="BM20" t="n">
-        <v>4.09689577131568</v>
+        <v>3.949948832054906</v>
       </c>
     </row>
     <row r="21">
@@ -4831,13 +4831,13 @@
         <v>0.4640658820223046</v>
       </c>
       <c r="BI21" t="n">
-        <v>0.9732975164337723</v>
+        <v>1</v>
       </c>
       <c r="BJ21" t="n">
-        <v>0.9732975164337723</v>
+        <v>1</v>
       </c>
       <c r="BK21" t="n">
-        <v>97.33</v>
+        <v>100</v>
       </c>
       <c r="BL21" t="inlineStr">
         <is>
@@ -4845,7 +4845,7 @@
         </is>
       </c>
       <c r="BM21" t="n">
-        <v>5.148417108117541</v>
+        <v>5.1946538276055</v>
       </c>
     </row>
     <row r="22">
@@ -5038,13 +5038,13 @@
         <v>0.4452126297784946</v>
       </c>
       <c r="BI22" t="n">
-        <v>0.7302678871464688</v>
+        <v>0.8867501780830805</v>
       </c>
       <c r="BJ22" t="n">
-        <v>0.7302678871464688</v>
+        <v>0.8867501780830805</v>
       </c>
       <c r="BK22" t="n">
-        <v>73.03</v>
+        <v>88.68000000000001</v>
       </c>
       <c r="BL22" t="inlineStr">
         <is>
@@ -5052,7 +5052,7 @@
         </is>
       </c>
       <c r="BM22" t="n">
-        <v>4.492595074631062</v>
+        <v>4.750083203484072</v>
       </c>
     </row>
   </sheetData>
@@ -5588,13 +5588,13 @@
         <v>0.6447590912226693</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.5420042983644418</v>
+        <v>0.6494492536341329</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.5420042983644418</v>
+        <v>0.6494492536341329</v>
       </c>
       <c r="BK2" t="n">
-        <v>54.2</v>
+        <v>64.94</v>
       </c>
       <c r="BL2" t="inlineStr">
         <is>
@@ -5602,7 +5602,7 @@
         </is>
       </c>
       <c r="BM2" t="n">
-        <v>5.07298621489969</v>
+        <v>5.287410233495709</v>
       </c>
     </row>
     <row r="3">
@@ -5791,21 +5791,21 @@
         <v>0.584807660688538</v>
       </c>
       <c r="BI3" t="n">
-        <v>0.6923586919702183</v>
+        <v>0.7094038067733358</v>
       </c>
       <c r="BJ3" t="n">
-        <v>0.6923586919702183</v>
+        <v>0.7094038067733358</v>
       </c>
       <c r="BK3" t="n">
-        <v>69.23999999999999</v>
+        <v>70.94</v>
       </c>
       <c r="BL3" t="inlineStr">
         <is>
-          <t>Aman</t>
+          <t>Terdampak</t>
         </is>
       </c>
       <c r="BM3" t="n">
-        <v>3.751909965649049</v>
+        <v>3.775663017679664</v>
       </c>
     </row>
     <row r="4">
@@ -6197,13 +6197,13 @@
         <v>0.6328506932918696</v>
       </c>
       <c r="BI5" t="n">
-        <v>0.9732975164337723</v>
+        <v>0.8658575536014507</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0.9732975164337723</v>
+        <v>0.8658575536014507</v>
       </c>
       <c r="BK5" t="n">
-        <v>97.33</v>
+        <v>86.59</v>
       </c>
       <c r="BL5" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         </is>
       </c>
       <c r="BM5" t="n">
-        <v>4.143409500382735</v>
+        <v>3.993687597256756</v>
       </c>
     </row>
     <row r="6">
@@ -6401,13 +6401,13 @@
         <v>0.6026726190182244</v>
       </c>
       <c r="BI6" t="n">
-        <v>0.7040733378130177</v>
+        <v>0.823337560535471</v>
       </c>
       <c r="BJ6" t="n">
-        <v>0.7040733378130177</v>
+        <v>0.823337560535471</v>
       </c>
       <c r="BK6" t="n">
-        <v>70.41</v>
+        <v>82.33</v>
       </c>
       <c r="BL6" t="inlineStr">
         <is>
@@ -6415,7 +6415,7 @@
         </is>
       </c>
       <c r="BM6" t="n">
-        <v>5.63957142695282</v>
+        <v>5.888306952471986</v>
       </c>
     </row>
     <row r="7">
@@ -6812,13 +6812,13 @@
         <v>0.4452126297784946</v>
       </c>
       <c r="BI8" t="n">
-        <v>0.7302678871464688</v>
+        <v>0.8867501780830805</v>
       </c>
       <c r="BJ8" t="n">
-        <v>0.7302678871464688</v>
+        <v>0.8867501780830805</v>
       </c>
       <c r="BK8" t="n">
-        <v>73.03</v>
+        <v>88.68000000000001</v>
       </c>
       <c r="BL8" t="inlineStr">
         <is>
@@ -6826,7 +6826,7 @@
         </is>
       </c>
       <c r="BM8" t="n">
-        <v>4.492595074631062</v>
+        <v>4.750083203484072</v>
       </c>
     </row>
     <row r="9">
@@ -7016,13 +7016,13 @@
         <v>0</v>
       </c>
       <c r="BI9" t="n">
-        <v>0.9732975164337723</v>
+        <v>0.9041440257520243</v>
       </c>
       <c r="BJ9" t="n">
-        <v>0.9732975164337723</v>
+        <v>0.9041440257520243</v>
       </c>
       <c r="BK9" t="n">
-        <v>97.33</v>
+        <v>90.41</v>
       </c>
       <c r="BL9" t="inlineStr">
         <is>
@@ -7030,7 +7030,7 @@
         </is>
       </c>
       <c r="BM9" t="n">
-        <v>5.933702521025999</v>
+        <v>5.795695396031591</v>
       </c>
     </row>
     <row r="10">
@@ -7220,13 +7220,13 @@
         <v>0.6928203230275506</v>
       </c>
       <c r="BI10" t="n">
-        <v>0.02713070900168729</v>
+        <v>0.1672673985868431</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0.02713070900168729</v>
+        <v>0.1672673985868431</v>
       </c>
       <c r="BK10" t="n">
-        <v>2.71</v>
+        <v>16.73</v>
       </c>
       <c r="BL10" t="inlineStr">
         <is>
@@ -7423,13 +7423,13 @@
         <v>0.4217311262607299</v>
       </c>
       <c r="BI11" t="n">
-        <v>0.8570936044459263</v>
+        <v>0.8782238145513602</v>
       </c>
       <c r="BJ11" t="n">
-        <v>0.8570936044459263</v>
+        <v>0.8782238145513602</v>
       </c>
       <c r="BK11" t="n">
-        <v>85.70999999999999</v>
+        <v>87.81999999999999</v>
       </c>
       <c r="BL11" t="inlineStr">
         <is>
@@ -7437,7 +7437,7 @@
         </is>
       </c>
       <c r="BM11" t="n">
-        <v>3.981474682137712</v>
+        <v>4.010920478534485</v>
       </c>
     </row>
     <row r="12">
@@ -7627,21 +7627,21 @@
         <v>0.707359274242687</v>
       </c>
       <c r="BI12" t="n">
-        <v>0.5499224398219013</v>
+        <v>0.7165122398822593</v>
       </c>
       <c r="BJ12" t="n">
-        <v>0.5499224398219013</v>
+        <v>0.7165122398822593</v>
       </c>
       <c r="BK12" t="n">
-        <v>54.99</v>
+        <v>71.65000000000001</v>
       </c>
       <c r="BL12" t="inlineStr">
         <is>
-          <t>Aman</t>
+          <t>Terdampak</t>
         </is>
       </c>
       <c r="BM12" t="n">
-        <v>5.088788163970808</v>
+        <v>5.421245414256673</v>
       </c>
     </row>
     <row r="13">
@@ -7832,21 +7832,21 @@
         <v>0.6244997998398401</v>
       </c>
       <c r="BI13" t="n">
-        <v>0.7302011752462826</v>
+        <v>0.677305670828254</v>
       </c>
       <c r="BJ13" t="n">
-        <v>0.7302011752462826</v>
+        <v>0.677305670828254</v>
       </c>
       <c r="BK13" t="n">
-        <v>73.02</v>
+        <v>67.73</v>
       </c>
       <c r="BL13" t="inlineStr">
         <is>
-          <t>Terdampak</t>
+          <t>Aman</t>
         </is>
       </c>
       <c r="BM13" t="n">
-        <v>3.361271924212185</v>
+        <v>3.296149919456868</v>
       </c>
     </row>
     <row r="14">
@@ -8037,13 +8037,13 @@
         <v>0.4777177887773147</v>
       </c>
       <c r="BI14" t="n">
-        <v>0.8584768370989938</v>
+        <v>0.7204312088716125</v>
       </c>
       <c r="BJ14" t="n">
-        <v>0.8584768370989938</v>
+        <v>0.7204312088716125</v>
       </c>
       <c r="BK14" t="n">
-        <v>85.84999999999999</v>
+        <v>72.04000000000001</v>
       </c>
       <c r="BL14" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
         </is>
       </c>
       <c r="BM14" t="n">
-        <v>5.961592856851972</v>
+        <v>5.673687137106762</v>
       </c>
     </row>
     <row r="15">
@@ -8241,13 +8241,13 @@
         <v>0.5457628998540878</v>
       </c>
       <c r="BI15" t="n">
-        <v>0.9399194119759879</v>
+        <v>0.8738711975564902</v>
       </c>
       <c r="BJ15" t="n">
-        <v>0.9399194119759879</v>
+        <v>0.8738711975564902</v>
       </c>
       <c r="BK15" t="n">
-        <v>93.98999999999999</v>
+        <v>87.39</v>
       </c>
       <c r="BL15" t="inlineStr">
         <is>
@@ -8255,7 +8255,7 @@
         </is>
       </c>
       <c r="BM15" t="n">
-        <v>4.09689577131568</v>
+        <v>4.004854931945759</v>
       </c>
     </row>
     <row r="16">
@@ -8445,13 +8445,13 @@
         <v>0.5855400437691201</v>
       </c>
       <c r="BI16" t="n">
-        <v>0.9140513810212049</v>
+        <v>0.9384232982664215</v>
       </c>
       <c r="BJ16" t="n">
-        <v>0.9140513810212049</v>
+        <v>0.9384232982664215</v>
       </c>
       <c r="BK16" t="n">
-        <v>91.41</v>
+        <v>93.84</v>
       </c>
       <c r="BL16" t="inlineStr">
         <is>
@@ -8459,7 +8459,7 @@
         </is>
       </c>
       <c r="BM16" t="n">
-        <v>4.060847631288711</v>
+        <v>4.094810876775658</v>
       </c>
     </row>
     <row r="17">
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.3492465277777779</v>
+        <v>0.3492465277777778</v>
       </c>
       <c r="AE17" t="n">
         <v>0</v>
@@ -8570,7 +8570,7 @@
         <v>0.57142857142857</v>
       </c>
       <c r="AI17" t="n">
-        <v>0.6938726207906298</v>
+        <v>0.6938726207906296</v>
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
@@ -8650,13 +8650,13 @@
         <v>0</v>
       </c>
       <c r="BI17" t="n">
-        <v>0.9474294854789893</v>
+        <v>0.9539916251188205</v>
       </c>
       <c r="BJ17" t="n">
-        <v>0.9474294854789893</v>
+        <v>0.9539916251188205</v>
       </c>
       <c r="BK17" t="n">
-        <v>94.73999999999999</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="BL17" t="inlineStr">
         <is>
@@ -8664,7 +8664,7 @@
         </is>
       </c>
       <c r="BM17" t="n">
-        <v>5.882078625454835</v>
+        <v>5.895174450648573</v>
       </c>
     </row>
     <row r="18">
@@ -8854,13 +8854,13 @@
         <v>0.630476010645922</v>
       </c>
       <c r="BI18" t="n">
-        <v>0.4116382184564528</v>
+        <v>0.5312912516201734</v>
       </c>
       <c r="BJ18" t="n">
-        <v>0.4116382184564528</v>
+        <v>0.5312912516201734</v>
       </c>
       <c r="BK18" t="n">
-        <v>41.16</v>
+        <v>53.13</v>
       </c>
       <c r="BL18" t="inlineStr">
         <is>
@@ -8868,7 +8868,7 @@
         </is>
       </c>
       <c r="BM18" t="n">
-        <v>4.812819335288489</v>
+        <v>5.051606574240461</v>
       </c>
     </row>
     <row r="19">
@@ -9058,13 +9058,13 @@
         <v>0.5185832348124723</v>
       </c>
       <c r="BI19" t="n">
-        <v>0.9399194119759879</v>
+        <v>0.834470754412394</v>
       </c>
       <c r="BJ19" t="n">
-        <v>0.9399194119759879</v>
+        <v>0.834470754412394</v>
       </c>
       <c r="BK19" t="n">
-        <v>93.98999999999999</v>
+        <v>83.45</v>
       </c>
       <c r="BL19" t="inlineStr">
         <is>
@@ -9072,7 +9072,7 @@
         </is>
       </c>
       <c r="BM19" t="n">
-        <v>4.09689577131568</v>
+        <v>3.949948832054906</v>
       </c>
     </row>
     <row r="20">
@@ -9265,13 +9265,13 @@
         <v>0.4640658820223046</v>
       </c>
       <c r="BI20" t="n">
-        <v>0.9732975164337723</v>
+        <v>1</v>
       </c>
       <c r="BJ20" t="n">
-        <v>0.9732975164337723</v>
+        <v>1</v>
       </c>
       <c r="BK20" t="n">
-        <v>97.33</v>
+        <v>100</v>
       </c>
       <c r="BL20" t="inlineStr">
         <is>
@@ -9279,7 +9279,7 @@
         </is>
       </c>
       <c r="BM20" t="n">
-        <v>5.148417108117541</v>
+        <v>5.1946538276055</v>
       </c>
     </row>
     <row r="21">
@@ -9469,13 +9469,13 @@
         <v>0.6026726190182213</v>
       </c>
       <c r="BI21" t="n">
-        <v>0.9399194119759879</v>
+        <v>0.9021512027174915</v>
       </c>
       <c r="BJ21" t="n">
-        <v>0.9399194119759879</v>
+        <v>0.9021512027174915</v>
       </c>
       <c r="BK21" t="n">
-        <v>93.98999999999999</v>
+        <v>90.22</v>
       </c>
       <c r="BL21" t="inlineStr">
         <is>
@@ -9483,7 +9483,7 @@
         </is>
       </c>
       <c r="BM21" t="n">
-        <v>4.340618499387213</v>
+        <v>4.284855954628895</v>
       </c>
     </row>
     <row r="22">
@@ -9673,13 +9673,13 @@
         <v>0.6579187965525378</v>
       </c>
       <c r="BI22" t="n">
-        <v>0.5972013280968096</v>
+        <v>0.6125849555638699</v>
       </c>
       <c r="BJ22" t="n">
-        <v>0.5972013280968096</v>
+        <v>0.6125849555638699</v>
       </c>
       <c r="BK22" t="n">
-        <v>59.72</v>
+        <v>61.26</v>
       </c>
       <c r="BL22" t="inlineStr">
         <is>
@@ -9687,7 +9687,7 @@
         </is>
       </c>
       <c r="BM22" t="n">
-        <v>5.183140934589139</v>
+        <v>5.213841484594409</v>
       </c>
     </row>
   </sheetData>
@@ -9764,7 +9764,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-12-22T19:21:05.201074</t>
+          <t>2025-12-23T22:51:57.098499</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -9774,16 +9774,16 @@
         <v>21</v>
       </c>
       <c r="D2" t="n">
-        <v>-7.989320574622198</v>
+        <v>-7.970361640118958</v>
       </c>
       <c r="E2" t="n">
-        <v>114.2798366875917</v>
+        <v>114.2779518650261</v>
       </c>
       <c r="F2" t="n">
-        <v>89.4419901231613</v>
+        <v>73.73588854200722</v>
       </c>
       <c r="G2" t="n">
-        <v>7.690488797187909</v>
+        <v>7.794866014414225</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -9791,10 +9791,10 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.4004541829451808</v>
+        <v>0.4167849918336792</v>
       </c>
       <c r="J2" t="n">
-        <v>1.38720132809681</v>
+        <v>1.40258495556387</v>
       </c>
     </row>
   </sheetData>

--- a/output/ga_results/ga_report.xlsx
+++ b/output/ga_results/ga_report.xlsx
@@ -954,13 +954,13 @@
         <v>0</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.9539916251188205</v>
+        <v>0.9666043955712974</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.9539916251188205</v>
+        <v>0.9666043955712974</v>
       </c>
       <c r="BK2" t="n">
-        <v>95.40000000000001</v>
+        <v>96.66</v>
       </c>
       <c r="BL2" t="inlineStr">
         <is>
@@ -968,7 +968,7 @@
         </is>
       </c>
       <c r="BM2" t="n">
-        <v>5.895174450648573</v>
+        <v>5.920345301334497</v>
       </c>
     </row>
     <row r="3">
@@ -1158,13 +1158,13 @@
         <v>0</v>
       </c>
       <c r="BI3" t="n">
-        <v>0.9041440257520243</v>
+        <v>0.9332087911425947</v>
       </c>
       <c r="BJ3" t="n">
-        <v>0.9041440257520243</v>
+        <v>0.9332087911425947</v>
       </c>
       <c r="BK3" t="n">
-        <v>90.41</v>
+        <v>93.31999999999999</v>
       </c>
       <c r="BL3" t="inlineStr">
         <is>
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="BM3" t="n">
-        <v>5.795695396031591</v>
+        <v>5.853698899117926</v>
       </c>
     </row>
     <row r="4">
@@ -1564,13 +1564,13 @@
         <v>0.6928203230275506</v>
       </c>
       <c r="BI5" t="n">
-        <v>0.1672673985868431</v>
+        <v>0.1947663063785711</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0.1672673985868431</v>
+        <v>0.1947663063785711</v>
       </c>
       <c r="BK5" t="n">
-        <v>16.73</v>
+        <v>19.48</v>
       </c>
       <c r="BL5" t="inlineStr">
         <is>
@@ -1768,13 +1768,13 @@
         <v>0.6328506932918696</v>
       </c>
       <c r="BI6" t="n">
-        <v>0.8658575536014507</v>
+        <v>0.8530849540544733</v>
       </c>
       <c r="BJ6" t="n">
-        <v>0.8658575536014507</v>
+        <v>0.8530849540544733</v>
       </c>
       <c r="BK6" t="n">
-        <v>86.59</v>
+        <v>85.31</v>
       </c>
       <c r="BL6" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         </is>
       </c>
       <c r="BM6" t="n">
-        <v>3.993687597256756</v>
+        <v>3.975888466824964</v>
       </c>
     </row>
     <row r="7">
@@ -1971,13 +1971,13 @@
         <v>0.584807660688538</v>
       </c>
       <c r="BI7" t="n">
-        <v>0.7094038067733358</v>
+        <v>0.8517235163365602</v>
       </c>
       <c r="BJ7" t="n">
-        <v>0.7094038067733358</v>
+        <v>0.8517235163365602</v>
       </c>
       <c r="BK7" t="n">
-        <v>70.94</v>
+        <v>85.17</v>
       </c>
       <c r="BL7" t="inlineStr">
         <is>
@@ -1985,7 +1985,7 @@
         </is>
       </c>
       <c r="BM7" t="n">
-        <v>3.775663017679664</v>
+        <v>3.973991248688063</v>
       </c>
     </row>
     <row r="8">
@@ -2175,13 +2175,13 @@
         <v>0.5457628998540878</v>
       </c>
       <c r="BI8" t="n">
-        <v>0.8738711975564902</v>
+        <v>0.8664175822851895</v>
       </c>
       <c r="BJ8" t="n">
-        <v>0.8738711975564902</v>
+        <v>0.8664175822851895</v>
       </c>
       <c r="BK8" t="n">
-        <v>87.39</v>
+        <v>86.64</v>
       </c>
       <c r="BL8" t="inlineStr">
         <is>
@@ -2189,7 +2189,7 @@
         </is>
       </c>
       <c r="BM8" t="n">
-        <v>4.004854931945759</v>
+        <v>3.994468019718978</v>
       </c>
     </row>
     <row r="9">
@@ -2378,21 +2378,21 @@
         <v>0.4217311262607299</v>
       </c>
       <c r="BI9" t="n">
-        <v>0.8782238145513602</v>
+        <v>0.655162614654189</v>
       </c>
       <c r="BJ9" t="n">
-        <v>0.8782238145513602</v>
+        <v>0.655162614654189</v>
       </c>
       <c r="BK9" t="n">
-        <v>87.81999999999999</v>
+        <v>65.52</v>
       </c>
       <c r="BL9" t="inlineStr">
         <is>
-          <t>Terdampak</t>
+          <t>Aman</t>
         </is>
       </c>
       <c r="BM9" t="n">
-        <v>4.010920478534485</v>
+        <v>3.700075738069611</v>
       </c>
     </row>
     <row r="10">
@@ -2583,21 +2583,21 @@
         <v>0.4777177887773147</v>
       </c>
       <c r="BI10" t="n">
-        <v>0.7204312088716125</v>
+        <v>0.6465352290527959</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0.7204312088716125</v>
+        <v>0.6465352290527959</v>
       </c>
       <c r="BK10" t="n">
-        <v>72.04000000000001</v>
+        <v>64.65000000000001</v>
       </c>
       <c r="BL10" t="inlineStr">
         <is>
-          <t>Terdampak</t>
+          <t>Aman</t>
         </is>
       </c>
       <c r="BM10" t="n">
-        <v>5.673687137106762</v>
+        <v>5.519570882001814</v>
       </c>
     </row>
     <row r="11">
@@ -2787,21 +2787,21 @@
         <v>0.6026726190182244</v>
       </c>
       <c r="BI11" t="n">
-        <v>0.823337560535471</v>
+        <v>0.6441119143107423</v>
       </c>
       <c r="BJ11" t="n">
-        <v>0.823337560535471</v>
+        <v>0.6441119143107423</v>
       </c>
       <c r="BK11" t="n">
-        <v>82.33</v>
+        <v>64.41</v>
       </c>
       <c r="BL11" t="inlineStr">
         <is>
-          <t>Terdampak</t>
+          <t>Aman</t>
         </is>
       </c>
       <c r="BM11" t="n">
-        <v>5.888306952471986</v>
+        <v>5.514516856141386</v>
       </c>
     </row>
     <row r="12">
@@ -2991,13 +2991,13 @@
         <v>0.5855400437691201</v>
       </c>
       <c r="BI12" t="n">
-        <v>0.9384232982664215</v>
+        <v>0.9206645672290633</v>
       </c>
       <c r="BJ12" t="n">
-        <v>0.9384232982664215</v>
+        <v>0.9206645672290633</v>
       </c>
       <c r="BK12" t="n">
-        <v>93.84</v>
+        <v>92.06999999999999</v>
       </c>
       <c r="BL12" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         </is>
       </c>
       <c r="BM12" t="n">
-        <v>4.094810876775658</v>
+        <v>4.070063371862935</v>
       </c>
     </row>
     <row r="13">
@@ -3196,13 +3196,13 @@
         <v>0.6244997998398401</v>
       </c>
       <c r="BI13" t="n">
-        <v>0.677305670828254</v>
+        <v>0.5864758690932007</v>
       </c>
       <c r="BJ13" t="n">
-        <v>0.677305670828254</v>
+        <v>0.5864758690932007</v>
       </c>
       <c r="BK13" t="n">
-        <v>67.73</v>
+        <v>58.65</v>
       </c>
       <c r="BL13" t="inlineStr">
         <is>
@@ -3210,7 +3210,7 @@
         </is>
       </c>
       <c r="BM13" t="n">
-        <v>3.296149919456868</v>
+        <v>3.184325316485531</v>
       </c>
     </row>
     <row r="14">
@@ -3604,21 +3604,21 @@
         <v>0.707359274242687</v>
       </c>
       <c r="BI15" t="n">
-        <v>0.7165122398822593</v>
+        <v>0.677145014269307</v>
       </c>
       <c r="BJ15" t="n">
-        <v>0.7165122398822593</v>
+        <v>0.677145014269307</v>
       </c>
       <c r="BK15" t="n">
-        <v>71.65000000000001</v>
+        <v>67.70999999999999</v>
       </c>
       <c r="BL15" t="inlineStr">
         <is>
-          <t>Terdampak</t>
+          <t>Aman</t>
         </is>
       </c>
       <c r="BM15" t="n">
-        <v>5.421245414256673</v>
+        <v>5.34268166321115</v>
       </c>
     </row>
     <row r="16">
@@ -3808,13 +3808,13 @@
         <v>0.6579187965525378</v>
       </c>
       <c r="BI16" t="n">
-        <v>0.6125849555638699</v>
+        <v>0.5907159954734811</v>
       </c>
       <c r="BJ16" t="n">
-        <v>0.6125849555638699</v>
+        <v>0.5907159954734811</v>
       </c>
       <c r="BK16" t="n">
-        <v>61.26</v>
+        <v>59.07</v>
       </c>
       <c r="BL16" t="inlineStr">
         <is>
@@ -3822,7 +3822,7 @@
         </is>
       </c>
       <c r="BM16" t="n">
-        <v>5.213841484594409</v>
+        <v>5.170198390385593</v>
       </c>
     </row>
     <row r="17">
@@ -4012,13 +4012,13 @@
         <v>0.6447590912226693</v>
       </c>
       <c r="BI17" t="n">
-        <v>0.6494492536341329</v>
+        <v>0.3564751685606725</v>
       </c>
       <c r="BJ17" t="n">
-        <v>0.6494492536341329</v>
+        <v>0.3564751685606725</v>
       </c>
       <c r="BK17" t="n">
-        <v>64.94</v>
+        <v>35.65</v>
       </c>
       <c r="BL17" t="inlineStr">
         <is>
@@ -4026,7 +4026,7 @@
         </is>
       </c>
       <c r="BM17" t="n">
-        <v>5.287410233495709</v>
+        <v>4.702732427932285</v>
       </c>
     </row>
     <row r="18">
@@ -4216,13 +4216,13 @@
         <v>0.630476010645922</v>
       </c>
       <c r="BI18" t="n">
-        <v>0.5312912516201734</v>
+        <v>0.6922595051895055</v>
       </c>
       <c r="BJ18" t="n">
-        <v>0.5312912516201734</v>
+        <v>0.6922595051895055</v>
       </c>
       <c r="BK18" t="n">
-        <v>53.13</v>
+        <v>69.23</v>
       </c>
       <c r="BL18" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         </is>
       </c>
       <c r="BM18" t="n">
-        <v>5.051606574240461</v>
+        <v>5.372845107125358</v>
       </c>
     </row>
     <row r="19">
@@ -4420,13 +4420,13 @@
         <v>0.6026726190182213</v>
       </c>
       <c r="BI19" t="n">
-        <v>0.9021512027174915</v>
+        <v>0.9666043955712974</v>
       </c>
       <c r="BJ19" t="n">
-        <v>0.9021512027174915</v>
+        <v>0.9666043955712974</v>
       </c>
       <c r="BK19" t="n">
-        <v>90.22</v>
+        <v>96.66</v>
       </c>
       <c r="BL19" t="inlineStr">
         <is>
@@ -4434,7 +4434,7 @@
         </is>
       </c>
       <c r="BM19" t="n">
-        <v>4.284855954628895</v>
+        <v>4.380017311809691</v>
       </c>
     </row>
     <row r="20">
@@ -4624,13 +4624,13 @@
         <v>0.5185832348124723</v>
       </c>
       <c r="BI20" t="n">
-        <v>0.834470754412394</v>
+        <v>0.8517235163365602</v>
       </c>
       <c r="BJ20" t="n">
-        <v>0.834470754412394</v>
+        <v>0.8517235163365602</v>
       </c>
       <c r="BK20" t="n">
-        <v>83.45</v>
+        <v>85.17</v>
       </c>
       <c r="BL20" t="inlineStr">
         <is>
@@ -4638,7 +4638,7 @@
         </is>
       </c>
       <c r="BM20" t="n">
-        <v>3.949948832054906</v>
+        <v>3.973991248688063</v>
       </c>
     </row>
     <row r="21">
@@ -5038,13 +5038,13 @@
         <v>0.4452126297784946</v>
       </c>
       <c r="BI22" t="n">
-        <v>0.8867501780830805</v>
+        <v>0.9666043955712974</v>
       </c>
       <c r="BJ22" t="n">
-        <v>0.8867501780830805</v>
+        <v>0.9666043955712974</v>
       </c>
       <c r="BK22" t="n">
-        <v>88.68000000000001</v>
+        <v>96.66</v>
       </c>
       <c r="BL22" t="inlineStr">
         <is>
@@ -5052,7 +5052,7 @@
         </is>
       </c>
       <c r="BM22" t="n">
-        <v>4.750083203484072</v>
+        <v>4.881481542037228</v>
       </c>
     </row>
   </sheetData>
@@ -5588,13 +5588,13 @@
         <v>0.6447590912226693</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.6494492536341329</v>
+        <v>0.3564751685606725</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.6494492536341329</v>
+        <v>0.3564751685606725</v>
       </c>
       <c r="BK2" t="n">
-        <v>64.94</v>
+        <v>35.65</v>
       </c>
       <c r="BL2" t="inlineStr">
         <is>
@@ -5602,7 +5602,7 @@
         </is>
       </c>
       <c r="BM2" t="n">
-        <v>5.287410233495709</v>
+        <v>4.702732427932285</v>
       </c>
     </row>
     <row r="3">
@@ -5791,13 +5791,13 @@
         <v>0.584807660688538</v>
       </c>
       <c r="BI3" t="n">
-        <v>0.7094038067733358</v>
+        <v>0.8517235163365602</v>
       </c>
       <c r="BJ3" t="n">
-        <v>0.7094038067733358</v>
+        <v>0.8517235163365602</v>
       </c>
       <c r="BK3" t="n">
-        <v>70.94</v>
+        <v>85.17</v>
       </c>
       <c r="BL3" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="BM3" t="n">
-        <v>3.775663017679664</v>
+        <v>3.973991248688063</v>
       </c>
     </row>
     <row r="4">
@@ -6197,13 +6197,13 @@
         <v>0.6328506932918696</v>
       </c>
       <c r="BI5" t="n">
-        <v>0.8658575536014507</v>
+        <v>0.8530849540544733</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0.8658575536014507</v>
+        <v>0.8530849540544733</v>
       </c>
       <c r="BK5" t="n">
-        <v>86.59</v>
+        <v>85.31</v>
       </c>
       <c r="BL5" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         </is>
       </c>
       <c r="BM5" t="n">
-        <v>3.993687597256756</v>
+        <v>3.975888466824964</v>
       </c>
     </row>
     <row r="6">
@@ -6401,21 +6401,21 @@
         <v>0.6026726190182244</v>
       </c>
       <c r="BI6" t="n">
-        <v>0.823337560535471</v>
+        <v>0.6441119143107423</v>
       </c>
       <c r="BJ6" t="n">
-        <v>0.823337560535471</v>
+        <v>0.6441119143107423</v>
       </c>
       <c r="BK6" t="n">
-        <v>82.33</v>
+        <v>64.41</v>
       </c>
       <c r="BL6" t="inlineStr">
         <is>
-          <t>Terdampak</t>
+          <t>Aman</t>
         </is>
       </c>
       <c r="BM6" t="n">
-        <v>5.888306952471986</v>
+        <v>5.514516856141386</v>
       </c>
     </row>
     <row r="7">
@@ -6812,13 +6812,13 @@
         <v>0.4452126297784946</v>
       </c>
       <c r="BI8" t="n">
-        <v>0.8867501780830805</v>
+        <v>0.9666043955712974</v>
       </c>
       <c r="BJ8" t="n">
-        <v>0.8867501780830805</v>
+        <v>0.9666043955712974</v>
       </c>
       <c r="BK8" t="n">
-        <v>88.68000000000001</v>
+        <v>96.66</v>
       </c>
       <c r="BL8" t="inlineStr">
         <is>
@@ -6826,7 +6826,7 @@
         </is>
       </c>
       <c r="BM8" t="n">
-        <v>4.750083203484072</v>
+        <v>4.881481542037228</v>
       </c>
     </row>
     <row r="9">
@@ -7016,13 +7016,13 @@
         <v>0</v>
       </c>
       <c r="BI9" t="n">
-        <v>0.9041440257520243</v>
+        <v>0.9332087911425947</v>
       </c>
       <c r="BJ9" t="n">
-        <v>0.9041440257520243</v>
+        <v>0.9332087911425947</v>
       </c>
       <c r="BK9" t="n">
-        <v>90.41</v>
+        <v>93.31999999999999</v>
       </c>
       <c r="BL9" t="inlineStr">
         <is>
@@ -7030,7 +7030,7 @@
         </is>
       </c>
       <c r="BM9" t="n">
-        <v>5.795695396031591</v>
+        <v>5.853698899117926</v>
       </c>
     </row>
     <row r="10">
@@ -7220,13 +7220,13 @@
         <v>0.6928203230275506</v>
       </c>
       <c r="BI10" t="n">
-        <v>0.1672673985868431</v>
+        <v>0.1947663063785711</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0.1672673985868431</v>
+        <v>0.1947663063785711</v>
       </c>
       <c r="BK10" t="n">
-        <v>16.73</v>
+        <v>19.48</v>
       </c>
       <c r="BL10" t="inlineStr">
         <is>
@@ -7423,21 +7423,21 @@
         <v>0.4217311262607299</v>
       </c>
       <c r="BI11" t="n">
-        <v>0.8782238145513602</v>
+        <v>0.655162614654189</v>
       </c>
       <c r="BJ11" t="n">
-        <v>0.8782238145513602</v>
+        <v>0.655162614654189</v>
       </c>
       <c r="BK11" t="n">
-        <v>87.81999999999999</v>
+        <v>65.52</v>
       </c>
       <c r="BL11" t="inlineStr">
         <is>
-          <t>Terdampak</t>
+          <t>Aman</t>
         </is>
       </c>
       <c r="BM11" t="n">
-        <v>4.010920478534485</v>
+        <v>3.700075738069611</v>
       </c>
     </row>
     <row r="12">
@@ -7627,21 +7627,21 @@
         <v>0.707359274242687</v>
       </c>
       <c r="BI12" t="n">
-        <v>0.7165122398822593</v>
+        <v>0.677145014269307</v>
       </c>
       <c r="BJ12" t="n">
-        <v>0.7165122398822593</v>
+        <v>0.677145014269307</v>
       </c>
       <c r="BK12" t="n">
-        <v>71.65000000000001</v>
+        <v>67.70999999999999</v>
       </c>
       <c r="BL12" t="inlineStr">
         <is>
-          <t>Terdampak</t>
+          <t>Aman</t>
         </is>
       </c>
       <c r="BM12" t="n">
-        <v>5.421245414256673</v>
+        <v>5.34268166321115</v>
       </c>
     </row>
     <row r="13">
@@ -7832,13 +7832,13 @@
         <v>0.6244997998398401</v>
       </c>
       <c r="BI13" t="n">
-        <v>0.677305670828254</v>
+        <v>0.5864758690932007</v>
       </c>
       <c r="BJ13" t="n">
-        <v>0.677305670828254</v>
+        <v>0.5864758690932007</v>
       </c>
       <c r="BK13" t="n">
-        <v>67.73</v>
+        <v>58.65</v>
       </c>
       <c r="BL13" t="inlineStr">
         <is>
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="BM13" t="n">
-        <v>3.296149919456868</v>
+        <v>3.184325316485531</v>
       </c>
     </row>
     <row r="14">
@@ -8037,21 +8037,21 @@
         <v>0.4777177887773147</v>
       </c>
       <c r="BI14" t="n">
-        <v>0.7204312088716125</v>
+        <v>0.6465352290527959</v>
       </c>
       <c r="BJ14" t="n">
-        <v>0.7204312088716125</v>
+        <v>0.6465352290527959</v>
       </c>
       <c r="BK14" t="n">
-        <v>72.04000000000001</v>
+        <v>64.65000000000001</v>
       </c>
       <c r="BL14" t="inlineStr">
         <is>
-          <t>Terdampak</t>
+          <t>Aman</t>
         </is>
       </c>
       <c r="BM14" t="n">
-        <v>5.673687137106762</v>
+        <v>5.519570882001814</v>
       </c>
     </row>
     <row r="15">
@@ -8241,13 +8241,13 @@
         <v>0.5457628998540878</v>
       </c>
       <c r="BI15" t="n">
-        <v>0.8738711975564902</v>
+        <v>0.8664175822851895</v>
       </c>
       <c r="BJ15" t="n">
-        <v>0.8738711975564902</v>
+        <v>0.8664175822851895</v>
       </c>
       <c r="BK15" t="n">
-        <v>87.39</v>
+        <v>86.64</v>
       </c>
       <c r="BL15" t="inlineStr">
         <is>
@@ -8255,7 +8255,7 @@
         </is>
       </c>
       <c r="BM15" t="n">
-        <v>4.004854931945759</v>
+        <v>3.994468019718978</v>
       </c>
     </row>
     <row r="16">
@@ -8445,13 +8445,13 @@
         <v>0.5855400437691201</v>
       </c>
       <c r="BI16" t="n">
-        <v>0.9384232982664215</v>
+        <v>0.9206645672290633</v>
       </c>
       <c r="BJ16" t="n">
-        <v>0.9384232982664215</v>
+        <v>0.9206645672290633</v>
       </c>
       <c r="BK16" t="n">
-        <v>93.84</v>
+        <v>92.06999999999999</v>
       </c>
       <c r="BL16" t="inlineStr">
         <is>
@@ -8459,7 +8459,7 @@
         </is>
       </c>
       <c r="BM16" t="n">
-        <v>4.094810876775658</v>
+        <v>4.070063371862935</v>
       </c>
     </row>
     <row r="17">
@@ -8650,13 +8650,13 @@
         <v>0</v>
       </c>
       <c r="BI17" t="n">
-        <v>0.9539916251188205</v>
+        <v>0.9666043955712974</v>
       </c>
       <c r="BJ17" t="n">
-        <v>0.9539916251188205</v>
+        <v>0.9666043955712974</v>
       </c>
       <c r="BK17" t="n">
-        <v>95.40000000000001</v>
+        <v>96.66</v>
       </c>
       <c r="BL17" t="inlineStr">
         <is>
@@ -8664,7 +8664,7 @@
         </is>
       </c>
       <c r="BM17" t="n">
-        <v>5.895174450648573</v>
+        <v>5.920345301334497</v>
       </c>
     </row>
     <row r="18">
@@ -8854,13 +8854,13 @@
         <v>0.630476010645922</v>
       </c>
       <c r="BI18" t="n">
-        <v>0.5312912516201734</v>
+        <v>0.6922595051895055</v>
       </c>
       <c r="BJ18" t="n">
-        <v>0.5312912516201734</v>
+        <v>0.6922595051895055</v>
       </c>
       <c r="BK18" t="n">
-        <v>53.13</v>
+        <v>69.23</v>
       </c>
       <c r="BL18" t="inlineStr">
         <is>
@@ -8868,7 +8868,7 @@
         </is>
       </c>
       <c r="BM18" t="n">
-        <v>5.051606574240461</v>
+        <v>5.372845107125358</v>
       </c>
     </row>
     <row r="19">
@@ -9058,13 +9058,13 @@
         <v>0.5185832348124723</v>
       </c>
       <c r="BI19" t="n">
-        <v>0.834470754412394</v>
+        <v>0.8517235163365602</v>
       </c>
       <c r="BJ19" t="n">
-        <v>0.834470754412394</v>
+        <v>0.8517235163365602</v>
       </c>
       <c r="BK19" t="n">
-        <v>83.45</v>
+        <v>85.17</v>
       </c>
       <c r="BL19" t="inlineStr">
         <is>
@@ -9072,7 +9072,7 @@
         </is>
       </c>
       <c r="BM19" t="n">
-        <v>3.949948832054906</v>
+        <v>3.973991248688063</v>
       </c>
     </row>
     <row r="20">
@@ -9469,13 +9469,13 @@
         <v>0.6026726190182213</v>
       </c>
       <c r="BI21" t="n">
-        <v>0.9021512027174915</v>
+        <v>0.9666043955712974</v>
       </c>
       <c r="BJ21" t="n">
-        <v>0.9021512027174915</v>
+        <v>0.9666043955712974</v>
       </c>
       <c r="BK21" t="n">
-        <v>90.22</v>
+        <v>96.66</v>
       </c>
       <c r="BL21" t="inlineStr">
         <is>
@@ -9483,7 +9483,7 @@
         </is>
       </c>
       <c r="BM21" t="n">
-        <v>4.284855954628895</v>
+        <v>4.380017311809691</v>
       </c>
     </row>
     <row r="22">
@@ -9673,13 +9673,13 @@
         <v>0.6579187965525378</v>
       </c>
       <c r="BI22" t="n">
-        <v>0.6125849555638699</v>
+        <v>0.5907159954734811</v>
       </c>
       <c r="BJ22" t="n">
-        <v>0.6125849555638699</v>
+        <v>0.5907159954734811</v>
       </c>
       <c r="BK22" t="n">
-        <v>61.26</v>
+        <v>59.07</v>
       </c>
       <c r="BL22" t="inlineStr">
         <is>
@@ -9687,7 +9687,7 @@
         </is>
       </c>
       <c r="BM22" t="n">
-        <v>5.213841484594409</v>
+        <v>5.170198390385593</v>
       </c>
     </row>
   </sheetData>
@@ -9764,7 +9764,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-12-23T22:51:57.098499</t>
+          <t>2025-12-24T19:31:53.947336</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -9774,27 +9774,27 @@
         <v>21</v>
       </c>
       <c r="D2" t="n">
-        <v>-7.970361640118958</v>
+        <v>-7.922036831968879</v>
       </c>
       <c r="E2" t="n">
-        <v>114.2779518650261</v>
+        <v>114.1946298110392</v>
       </c>
       <c r="F2" t="n">
-        <v>73.73588854200722</v>
+        <v>347.3743065761527</v>
       </c>
       <c r="G2" t="n">
-        <v>7.794866014414225</v>
+        <v>7.744407194020869</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.4167849918336792</v>
+        <v>0.4260490514426782</v>
       </c>
       <c r="J2" t="n">
-        <v>1.40258495556387</v>
+        <v>1.380715995473481</v>
       </c>
     </row>
   </sheetData>

--- a/output/ga_results/ga_report.xlsx
+++ b/output/ga_results/ga_report.xlsx
@@ -767,7 +767,9 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
+      <c r="A2" s="2" t="n">
+        <v>46000.94930555556</v>
+      </c>
       <c r="B2" t="n">
         <v>-8.01</v>
       </c>
@@ -954,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.9666043955712974</v>
+        <v>1</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.9666043955712974</v>
+        <v>1</v>
       </c>
       <c r="BK2" t="n">
-        <v>96.66</v>
+        <v>100</v>
       </c>
       <c r="BL2" t="inlineStr">
         <is>
@@ -968,11 +970,13 @@
         </is>
       </c>
       <c r="BM2" t="n">
-        <v>5.920345301334497</v>
+        <v>5.98699170355107</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
+      <c r="A3" s="2" t="n">
+        <v>46000.94930555556</v>
+      </c>
       <c r="B3" t="n">
         <v>-8.01</v>
       </c>
@@ -1158,13 +1162,13 @@
         <v>0</v>
       </c>
       <c r="BI3" t="n">
-        <v>0.9332087911425947</v>
+        <v>1</v>
       </c>
       <c r="BJ3" t="n">
-        <v>0.9332087911425947</v>
+        <v>1</v>
       </c>
       <c r="BK3" t="n">
-        <v>93.31999999999999</v>
+        <v>100</v>
       </c>
       <c r="BL3" t="inlineStr">
         <is>
@@ -1172,11 +1176,13 @@
         </is>
       </c>
       <c r="BM3" t="n">
-        <v>5.853698899117926</v>
+        <v>5.98699170355107</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
+      <c r="A4" s="2" t="n">
+        <v>46000.96944444445</v>
+      </c>
       <c r="B4" t="n">
         <v>-7.96</v>
       </c>
@@ -1360,13 +1366,13 @@
         <v>0.6928203230275504</v>
       </c>
       <c r="BI4" t="n">
-        <v>0.0001</v>
+        <v>0.108791743223536</v>
       </c>
       <c r="BJ4" t="n">
-        <v>0.0001</v>
+        <v>0.108791743223536</v>
       </c>
       <c r="BK4" t="n">
-        <v>0.01</v>
+        <v>10.88</v>
       </c>
       <c r="BL4" t="inlineStr">
         <is>
@@ -1378,7 +1384,9 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
+      <c r="A5" s="2" t="n">
+        <v>46000.96944444445</v>
+      </c>
       <c r="B5" t="n">
         <v>-7.96</v>
       </c>
@@ -1564,13 +1572,13 @@
         <v>0.6928203230275506</v>
       </c>
       <c r="BI5" t="n">
-        <v>0.1947663063785711</v>
+        <v>0.0001</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0.1947663063785711</v>
+        <v>0.0001</v>
       </c>
       <c r="BK5" t="n">
-        <v>19.48</v>
+        <v>0.01</v>
       </c>
       <c r="BL5" t="inlineStr">
         <is>
@@ -1582,7 +1590,9 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
+      <c r="A6" s="2" t="n">
+        <v>46002.14027777778</v>
+      </c>
       <c r="B6" t="n">
         <v>-7.98</v>
       </c>
@@ -1768,25 +1778,27 @@
         <v>0.6328506932918696</v>
       </c>
       <c r="BI6" t="n">
-        <v>0.8530849540544733</v>
+        <v>0.6849569313212293</v>
       </c>
       <c r="BJ6" t="n">
-        <v>0.8530849540544733</v>
+        <v>0.6849569313212293</v>
       </c>
       <c r="BK6" t="n">
-        <v>85.31</v>
+        <v>68.5</v>
       </c>
       <c r="BL6" t="inlineStr">
         <is>
-          <t>Terdampak</t>
+          <t>Aman</t>
         </is>
       </c>
       <c r="BM6" t="n">
-        <v>3.975888466824964</v>
+        <v>3.741595314921003</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
+      <c r="A7" s="2" t="n">
+        <v>46002.14027777778</v>
+      </c>
       <c r="B7" t="n">
         <v>-7.98</v>
       </c>
@@ -1971,13 +1983,13 @@
         <v>0.584807660688538</v>
       </c>
       <c r="BI7" t="n">
-        <v>0.8517235163365602</v>
+        <v>0.7393299860799165</v>
       </c>
       <c r="BJ7" t="n">
-        <v>0.8517235163365602</v>
+        <v>0.7393299860799165</v>
       </c>
       <c r="BK7" t="n">
-        <v>85.17</v>
+        <v>73.93000000000001</v>
       </c>
       <c r="BL7" t="inlineStr">
         <is>
@@ -1985,11 +1997,13 @@
         </is>
       </c>
       <c r="BM7" t="n">
-        <v>3.973991248688063</v>
+        <v>3.81736635041502</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr"/>
+      <c r="A8" s="2" t="n">
+        <v>46002.91805555556</v>
+      </c>
       <c r="B8" t="n">
         <v>-7.92</v>
       </c>
@@ -2175,13 +2189,13 @@
         <v>0.5457628998540878</v>
       </c>
       <c r="BI8" t="n">
-        <v>0.8664175822851895</v>
+        <v>0.9058650833129628</v>
       </c>
       <c r="BJ8" t="n">
-        <v>0.8664175822851895</v>
+        <v>0.9058650833129628</v>
       </c>
       <c r="BK8" t="n">
-        <v>86.64</v>
+        <v>90.59</v>
       </c>
       <c r="BL8" t="inlineStr">
         <is>
@@ -2189,11 +2203,13 @@
         </is>
       </c>
       <c r="BM8" t="n">
-        <v>3.994468019718978</v>
+        <v>4.049439696660636</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr"/>
+      <c r="A9" s="2" t="n">
+        <v>46002.91805555556</v>
+      </c>
       <c r="B9" t="n">
         <v>-7.92</v>
       </c>
@@ -2378,25 +2394,27 @@
         <v>0.4217311262607299</v>
       </c>
       <c r="BI9" t="n">
-        <v>0.655162614654189</v>
+        <v>0.8940786072861067</v>
       </c>
       <c r="BJ9" t="n">
-        <v>0.655162614654189</v>
+        <v>0.8940786072861067</v>
       </c>
       <c r="BK9" t="n">
-        <v>65.52</v>
+        <v>89.41</v>
       </c>
       <c r="BL9" t="inlineStr">
         <is>
-          <t>Aman</t>
+          <t>Terdampak</t>
         </is>
       </c>
       <c r="BM9" t="n">
-        <v>3.700075738069611</v>
+        <v>4.033014768958048</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr"/>
+      <c r="A10" s="2" t="n">
+        <v>46003.22152777778</v>
+      </c>
       <c r="B10" t="n">
         <v>-7.98</v>
       </c>
@@ -2583,25 +2601,27 @@
         <v>0.4777177887773147</v>
       </c>
       <c r="BI10" t="n">
-        <v>0.6465352290527959</v>
+        <v>0.7056955754627748</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0.6465352290527959</v>
+        <v>0.7056955754627748</v>
       </c>
       <c r="BK10" t="n">
-        <v>64.65000000000001</v>
+        <v>70.56999999999999</v>
       </c>
       <c r="BL10" t="inlineStr">
         <is>
-          <t>Aman</t>
+          <t>Terdampak</t>
         </is>
       </c>
       <c r="BM10" t="n">
-        <v>5.519570882001814</v>
+        <v>5.642954739442672</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr"/>
+      <c r="A11" s="2" t="n">
+        <v>46003.22152777778</v>
+      </c>
       <c r="B11" t="n">
         <v>-7.98</v>
       </c>
@@ -2787,13 +2807,13 @@
         <v>0.6026726190182244</v>
       </c>
       <c r="BI11" t="n">
-        <v>0.6441119143107423</v>
+        <v>0.6466534570979616</v>
       </c>
       <c r="BJ11" t="n">
-        <v>0.6441119143107423</v>
+        <v>0.6466534570979616</v>
       </c>
       <c r="BK11" t="n">
-        <v>64.41</v>
+        <v>64.67</v>
       </c>
       <c r="BL11" t="inlineStr">
         <is>
@@ -2801,11 +2821,13 @@
         </is>
       </c>
       <c r="BM11" t="n">
-        <v>5.514516856141386</v>
+        <v>5.519817456492253</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr"/>
+      <c r="A12" s="2" t="n">
+        <v>46003.23680555556</v>
+      </c>
       <c r="B12" t="n">
         <v>-7.97</v>
       </c>
@@ -2991,13 +3013,13 @@
         <v>0.5855400437691201</v>
       </c>
       <c r="BI12" t="n">
-        <v>0.9206645672290633</v>
+        <v>0.9372433888753086</v>
       </c>
       <c r="BJ12" t="n">
-        <v>0.9206645672290633</v>
+        <v>0.9372433888753086</v>
       </c>
       <c r="BK12" t="n">
-        <v>92.06999999999999</v>
+        <v>93.72</v>
       </c>
       <c r="BL12" t="inlineStr">
         <is>
@@ -3005,11 +3027,13 @@
         </is>
       </c>
       <c r="BM12" t="n">
-        <v>4.070063371862935</v>
+        <v>4.093166625652551</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr"/>
+      <c r="A13" s="2" t="n">
+        <v>46003.76111111111</v>
+      </c>
       <c r="B13" t="n">
         <v>-7.91</v>
       </c>
@@ -3196,25 +3220,27 @@
         <v>0.6244997998398401</v>
       </c>
       <c r="BI13" t="n">
-        <v>0.5864758690932007</v>
+        <v>0.8070038093505972</v>
       </c>
       <c r="BJ13" t="n">
-        <v>0.5864758690932007</v>
+        <v>0.8070038093505972</v>
       </c>
       <c r="BK13" t="n">
-        <v>58.65</v>
+        <v>80.7</v>
       </c>
       <c r="BL13" t="inlineStr">
         <is>
-          <t>Aman</t>
+          <t>Terdampak</t>
         </is>
       </c>
       <c r="BM13" t="n">
-        <v>3.184325316485531</v>
+        <v>3.455827058119886</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr"/>
+      <c r="A14" s="2" t="n">
+        <v>46004.62708333333</v>
+      </c>
       <c r="B14" t="n">
         <v>-7.98</v>
       </c>
@@ -3400,13 +3426,13 @@
         <v>0.7178837948144128</v>
       </c>
       <c r="BI14" t="n">
-        <v>1</v>
+        <v>0.9686216944376542</v>
       </c>
       <c r="BJ14" t="n">
-        <v>1</v>
+        <v>0.9686216944376542</v>
       </c>
       <c r="BK14" t="n">
-        <v>100</v>
+        <v>96.86</v>
       </c>
       <c r="BL14" t="inlineStr">
         <is>
@@ -3414,11 +3440,13 @@
         </is>
       </c>
       <c r="BM14" t="n">
-        <v>6.529222387025386</v>
+        <v>6.460930408643855</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr"/>
+      <c r="A15" s="2" t="n">
+        <v>46004.62986111111</v>
+      </c>
       <c r="B15" t="n">
         <v>-7.99</v>
       </c>
@@ -3604,13 +3632,13 @@
         <v>0.707359274242687</v>
       </c>
       <c r="BI15" t="n">
-        <v>0.677145014269307</v>
+        <v>0.6838732729278348</v>
       </c>
       <c r="BJ15" t="n">
-        <v>0.677145014269307</v>
+        <v>0.6838732729278348</v>
       </c>
       <c r="BK15" t="n">
-        <v>67.70999999999999</v>
+        <v>68.39</v>
       </c>
       <c r="BL15" t="inlineStr">
         <is>
@@ -3618,11 +3646,13 @@
         </is>
       </c>
       <c r="BM15" t="n">
-        <v>5.34268166321115</v>
+        <v>5.356109006133801</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr"/>
+      <c r="A16" s="2" t="n">
+        <v>46004.62986111111</v>
+      </c>
       <c r="B16" t="n">
         <v>-7.99</v>
       </c>
@@ -3808,13 +3838,13 @@
         <v>0.6579187965525378</v>
       </c>
       <c r="BI16" t="n">
-        <v>0.5907159954734811</v>
+        <v>0.5541117581201249</v>
       </c>
       <c r="BJ16" t="n">
-        <v>0.5907159954734811</v>
+        <v>0.5541117581201249</v>
       </c>
       <c r="BK16" t="n">
-        <v>59.07</v>
+        <v>55.41</v>
       </c>
       <c r="BL16" t="inlineStr">
         <is>
@@ -3822,11 +3852,13 @@
         </is>
       </c>
       <c r="BM16" t="n">
-        <v>5.170198390385593</v>
+        <v>5.097148635269141</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr"/>
+      <c r="A17" s="2" t="n">
+        <v>46004.97708333333</v>
+      </c>
       <c r="B17" t="n">
         <v>-7.99</v>
       </c>
@@ -4012,25 +4044,27 @@
         <v>0.6447590912226693</v>
       </c>
       <c r="BI17" t="n">
-        <v>0.3564751685606725</v>
+        <v>0.7928438292387981</v>
       </c>
       <c r="BJ17" t="n">
-        <v>0.3564751685606725</v>
+        <v>0.7928438292387981</v>
       </c>
       <c r="BK17" t="n">
-        <v>35.65</v>
+        <v>79.28</v>
       </c>
       <c r="BL17" t="inlineStr">
         <is>
-          <t>Aman</t>
+          <t>Terdampak</t>
         </is>
       </c>
       <c r="BM17" t="n">
-        <v>4.702732427932285</v>
+        <v>5.573577611655494</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr"/>
+      <c r="A18" s="2" t="n">
+        <v>46004.97708333333</v>
+      </c>
       <c r="B18" t="n">
         <v>-7.99</v>
       </c>
@@ -4216,13 +4250,13 @@
         <v>0.630476010645922</v>
       </c>
       <c r="BI18" t="n">
-        <v>0.6922595051895055</v>
+        <v>0.5650823309923173</v>
       </c>
       <c r="BJ18" t="n">
-        <v>0.6922595051895055</v>
+        <v>0.5650823309923173</v>
       </c>
       <c r="BK18" t="n">
-        <v>69.23</v>
+        <v>56.51</v>
       </c>
       <c r="BL18" t="inlineStr">
         <is>
@@ -4230,11 +4264,13 @@
         </is>
       </c>
       <c r="BM18" t="n">
-        <v>5.372845107125358</v>
+        <v>5.119042211525481</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr"/>
+      <c r="A19" s="2" t="n">
+        <v>46004.99583333333</v>
+      </c>
       <c r="B19" t="n">
         <v>-7.97</v>
       </c>
@@ -4420,13 +4456,13 @@
         <v>0.6026726190182213</v>
       </c>
       <c r="BI19" t="n">
-        <v>0.9666043955712974</v>
+        <v>0.9129252020644906</v>
       </c>
       <c r="BJ19" t="n">
-        <v>0.9666043955712974</v>
+        <v>0.9129252020644906</v>
       </c>
       <c r="BK19" t="n">
-        <v>96.66</v>
+        <v>91.29000000000001</v>
       </c>
       <c r="BL19" t="inlineStr">
         <is>
@@ -4434,11 +4470,13 @@
         </is>
       </c>
       <c r="BM19" t="n">
-        <v>4.380017311809691</v>
+        <v>4.300763132454064</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr"/>
+      <c r="A20" s="2" t="n">
+        <v>46006.00833333333</v>
+      </c>
       <c r="B20" t="n">
         <v>-7.97</v>
       </c>
@@ -4624,25 +4662,27 @@
         <v>0.5185832348124723</v>
       </c>
       <c r="BI20" t="n">
-        <v>0.8517235163365602</v>
+        <v>0.6526275283112936</v>
       </c>
       <c r="BJ20" t="n">
-        <v>0.8517235163365602</v>
+        <v>0.6526275283112936</v>
       </c>
       <c r="BK20" t="n">
-        <v>85.17</v>
+        <v>65.26000000000001</v>
       </c>
       <c r="BL20" t="inlineStr">
         <is>
-          <t>Terdampak</t>
+          <t>Aman</t>
         </is>
       </c>
       <c r="BM20" t="n">
-        <v>3.973991248688063</v>
+        <v>3.696542993438646</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr"/>
+      <c r="A21" s="2" t="n">
+        <v>46006.48263888889</v>
+      </c>
       <c r="B21" t="n">
         <v>-7.99</v>
       </c>
@@ -4849,7 +4889,9 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr"/>
+      <c r="A22" s="2" t="n">
+        <v>46006.86041666667</v>
+      </c>
       <c r="B22" t="n">
         <v>-7.96</v>
       </c>
@@ -5038,13 +5080,13 @@
         <v>0.4452126297784946</v>
       </c>
       <c r="BI22" t="n">
-        <v>0.9666043955712974</v>
+        <v>0.9129252020644906</v>
       </c>
       <c r="BJ22" t="n">
-        <v>0.9666043955712974</v>
+        <v>0.9129252020644906</v>
       </c>
       <c r="BK22" t="n">
-        <v>96.66</v>
+        <v>91.29000000000001</v>
       </c>
       <c r="BL22" t="inlineStr">
         <is>
@@ -5052,7 +5094,7 @@
         </is>
       </c>
       <c r="BM22" t="n">
-        <v>4.881481542037228</v>
+        <v>4.79315362319301</v>
       </c>
     </row>
   </sheetData>
@@ -5402,7 +5444,9 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
+      <c r="A2" s="2" t="n">
+        <v>46004.97708333333</v>
+      </c>
       <c r="B2" t="n">
         <v>-7.99</v>
       </c>
@@ -5588,25 +5632,27 @@
         <v>0.6447590912226693</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.3564751685606725</v>
+        <v>0.7928438292387981</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.3564751685606725</v>
+        <v>0.7928438292387981</v>
       </c>
       <c r="BK2" t="n">
-        <v>35.65</v>
+        <v>79.28</v>
       </c>
       <c r="BL2" t="inlineStr">
         <is>
-          <t>Aman</t>
+          <t>Terdampak</t>
         </is>
       </c>
       <c r="BM2" t="n">
-        <v>4.702732427932285</v>
+        <v>5.573577611655494</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
+      <c r="A3" s="2" t="n">
+        <v>46002.14027777778</v>
+      </c>
       <c r="B3" t="n">
         <v>-7.98</v>
       </c>
@@ -5791,13 +5837,13 @@
         <v>0.584807660688538</v>
       </c>
       <c r="BI3" t="n">
-        <v>0.8517235163365602</v>
+        <v>0.7393299860799165</v>
       </c>
       <c r="BJ3" t="n">
-        <v>0.8517235163365602</v>
+        <v>0.7393299860799165</v>
       </c>
       <c r="BK3" t="n">
-        <v>85.17</v>
+        <v>73.93000000000001</v>
       </c>
       <c r="BL3" t="inlineStr">
         <is>
@@ -5805,11 +5851,13 @@
         </is>
       </c>
       <c r="BM3" t="n">
-        <v>3.973991248688063</v>
+        <v>3.81736635041502</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
+      <c r="A4" s="2" t="n">
+        <v>46000.96944444445</v>
+      </c>
       <c r="B4" t="n">
         <v>-7.96</v>
       </c>
@@ -5993,13 +6041,13 @@
         <v>0.6928203230275504</v>
       </c>
       <c r="BI4" t="n">
-        <v>0.0001</v>
+        <v>0.108791743223536</v>
       </c>
       <c r="BJ4" t="n">
-        <v>0.0001</v>
+        <v>0.108791743223536</v>
       </c>
       <c r="BK4" t="n">
-        <v>0.01</v>
+        <v>10.88</v>
       </c>
       <c r="BL4" t="inlineStr">
         <is>
@@ -6011,7 +6059,9 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
+      <c r="A5" s="2" t="n">
+        <v>46002.14027777778</v>
+      </c>
       <c r="B5" t="n">
         <v>-7.98</v>
       </c>
@@ -6197,25 +6247,27 @@
         <v>0.6328506932918696</v>
       </c>
       <c r="BI5" t="n">
-        <v>0.8530849540544733</v>
+        <v>0.6849569313212293</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0.8530849540544733</v>
+        <v>0.6849569313212293</v>
       </c>
       <c r="BK5" t="n">
-        <v>85.31</v>
+        <v>68.5</v>
       </c>
       <c r="BL5" t="inlineStr">
         <is>
-          <t>Terdampak</t>
+          <t>Aman</t>
         </is>
       </c>
       <c r="BM5" t="n">
-        <v>3.975888466824964</v>
+        <v>3.741595314921003</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
+      <c r="A6" s="2" t="n">
+        <v>46003.22152777778</v>
+      </c>
       <c r="B6" t="n">
         <v>-7.98</v>
       </c>
@@ -6401,13 +6453,13 @@
         <v>0.6026726190182244</v>
       </c>
       <c r="BI6" t="n">
-        <v>0.6441119143107423</v>
+        <v>0.6466534570979616</v>
       </c>
       <c r="BJ6" t="n">
-        <v>0.6441119143107423</v>
+        <v>0.6466534570979616</v>
       </c>
       <c r="BK6" t="n">
-        <v>64.41</v>
+        <v>64.67</v>
       </c>
       <c r="BL6" t="inlineStr">
         <is>
@@ -6415,11 +6467,13 @@
         </is>
       </c>
       <c r="BM6" t="n">
-        <v>5.514516856141386</v>
+        <v>5.519817456492253</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
+      <c r="A7" s="2" t="n">
+        <v>46004.62708333333</v>
+      </c>
       <c r="B7" t="n">
         <v>-7.98</v>
       </c>
@@ -6605,13 +6659,13 @@
         <v>0.7178837948144128</v>
       </c>
       <c r="BI7" t="n">
-        <v>1</v>
+        <v>0.9686216944376542</v>
       </c>
       <c r="BJ7" t="n">
-        <v>1</v>
+        <v>0.9686216944376542</v>
       </c>
       <c r="BK7" t="n">
-        <v>100</v>
+        <v>96.86</v>
       </c>
       <c r="BL7" t="inlineStr">
         <is>
@@ -6619,11 +6673,13 @@
         </is>
       </c>
       <c r="BM7" t="n">
-        <v>6.529222387025386</v>
+        <v>6.460930408643855</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr"/>
+      <c r="A8" s="2" t="n">
+        <v>46006.86041666667</v>
+      </c>
       <c r="B8" t="n">
         <v>-7.96</v>
       </c>
@@ -6812,13 +6868,13 @@
         <v>0.4452126297784946</v>
       </c>
       <c r="BI8" t="n">
-        <v>0.9666043955712974</v>
+        <v>0.9129252020644906</v>
       </c>
       <c r="BJ8" t="n">
-        <v>0.9666043955712974</v>
+        <v>0.9129252020644906</v>
       </c>
       <c r="BK8" t="n">
-        <v>96.66</v>
+        <v>91.29000000000001</v>
       </c>
       <c r="BL8" t="inlineStr">
         <is>
@@ -6826,11 +6882,13 @@
         </is>
       </c>
       <c r="BM8" t="n">
-        <v>4.881481542037228</v>
+        <v>4.79315362319301</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr"/>
+      <c r="A9" s="2" t="n">
+        <v>46000.94930555556</v>
+      </c>
       <c r="B9" t="n">
         <v>-8.01</v>
       </c>
@@ -7016,13 +7074,13 @@
         <v>0</v>
       </c>
       <c r="BI9" t="n">
-        <v>0.9332087911425947</v>
+        <v>1</v>
       </c>
       <c r="BJ9" t="n">
-        <v>0.9332087911425947</v>
+        <v>1</v>
       </c>
       <c r="BK9" t="n">
-        <v>93.31999999999999</v>
+        <v>100</v>
       </c>
       <c r="BL9" t="inlineStr">
         <is>
@@ -7030,11 +7088,13 @@
         </is>
       </c>
       <c r="BM9" t="n">
-        <v>5.853698899117926</v>
+        <v>5.98699170355107</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr"/>
+      <c r="A10" s="2" t="n">
+        <v>46000.96944444445</v>
+      </c>
       <c r="B10" t="n">
         <v>-7.96</v>
       </c>
@@ -7220,13 +7280,13 @@
         <v>0.6928203230275506</v>
       </c>
       <c r="BI10" t="n">
-        <v>0.1947663063785711</v>
+        <v>0.0001</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0.1947663063785711</v>
+        <v>0.0001</v>
       </c>
       <c r="BK10" t="n">
-        <v>19.48</v>
+        <v>0.01</v>
       </c>
       <c r="BL10" t="inlineStr">
         <is>
@@ -7238,7 +7298,9 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr"/>
+      <c r="A11" s="2" t="n">
+        <v>46002.91805555556</v>
+      </c>
       <c r="B11" t="n">
         <v>-7.92</v>
       </c>
@@ -7423,25 +7485,27 @@
         <v>0.4217311262607299</v>
       </c>
       <c r="BI11" t="n">
-        <v>0.655162614654189</v>
+        <v>0.8940786072861067</v>
       </c>
       <c r="BJ11" t="n">
-        <v>0.655162614654189</v>
+        <v>0.8940786072861067</v>
       </c>
       <c r="BK11" t="n">
-        <v>65.52</v>
+        <v>89.41</v>
       </c>
       <c r="BL11" t="inlineStr">
         <is>
-          <t>Aman</t>
+          <t>Terdampak</t>
         </is>
       </c>
       <c r="BM11" t="n">
-        <v>3.700075738069611</v>
+        <v>4.033014768958048</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr"/>
+      <c r="A12" s="2" t="n">
+        <v>46004.62986111111</v>
+      </c>
       <c r="B12" t="n">
         <v>-7.99</v>
       </c>
@@ -7627,13 +7691,13 @@
         <v>0.707359274242687</v>
       </c>
       <c r="BI12" t="n">
-        <v>0.677145014269307</v>
+        <v>0.6838732729278348</v>
       </c>
       <c r="BJ12" t="n">
-        <v>0.677145014269307</v>
+        <v>0.6838732729278348</v>
       </c>
       <c r="BK12" t="n">
-        <v>67.70999999999999</v>
+        <v>68.39</v>
       </c>
       <c r="BL12" t="inlineStr">
         <is>
@@ -7641,11 +7705,13 @@
         </is>
       </c>
       <c r="BM12" t="n">
-        <v>5.34268166321115</v>
+        <v>5.356109006133801</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr"/>
+      <c r="A13" s="2" t="n">
+        <v>46003.76111111111</v>
+      </c>
       <c r="B13" t="n">
         <v>-7.91</v>
       </c>
@@ -7832,25 +7898,27 @@
         <v>0.6244997998398401</v>
       </c>
       <c r="BI13" t="n">
-        <v>0.5864758690932007</v>
+        <v>0.8070038093505972</v>
       </c>
       <c r="BJ13" t="n">
-        <v>0.5864758690932007</v>
+        <v>0.8070038093505972</v>
       </c>
       <c r="BK13" t="n">
-        <v>58.65</v>
+        <v>80.7</v>
       </c>
       <c r="BL13" t="inlineStr">
         <is>
-          <t>Aman</t>
+          <t>Terdampak</t>
         </is>
       </c>
       <c r="BM13" t="n">
-        <v>3.184325316485531</v>
+        <v>3.455827058119886</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr"/>
+      <c r="A14" s="2" t="n">
+        <v>46003.22152777778</v>
+      </c>
       <c r="B14" t="n">
         <v>-7.98</v>
       </c>
@@ -8037,25 +8105,27 @@
         <v>0.4777177887773147</v>
       </c>
       <c r="BI14" t="n">
-        <v>0.6465352290527959</v>
+        <v>0.7056955754627748</v>
       </c>
       <c r="BJ14" t="n">
-        <v>0.6465352290527959</v>
+        <v>0.7056955754627748</v>
       </c>
       <c r="BK14" t="n">
-        <v>64.65000000000001</v>
+        <v>70.56999999999999</v>
       </c>
       <c r="BL14" t="inlineStr">
         <is>
-          <t>Aman</t>
+          <t>Terdampak</t>
         </is>
       </c>
       <c r="BM14" t="n">
-        <v>5.519570882001814</v>
+        <v>5.642954739442672</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr"/>
+      <c r="A15" s="2" t="n">
+        <v>46002.91805555556</v>
+      </c>
       <c r="B15" t="n">
         <v>-7.92</v>
       </c>
@@ -8241,13 +8311,13 @@
         <v>0.5457628998540878</v>
       </c>
       <c r="BI15" t="n">
-        <v>0.8664175822851895</v>
+        <v>0.9058650833129628</v>
       </c>
       <c r="BJ15" t="n">
-        <v>0.8664175822851895</v>
+        <v>0.9058650833129628</v>
       </c>
       <c r="BK15" t="n">
-        <v>86.64</v>
+        <v>90.59</v>
       </c>
       <c r="BL15" t="inlineStr">
         <is>
@@ -8255,11 +8325,13 @@
         </is>
       </c>
       <c r="BM15" t="n">
-        <v>3.994468019718978</v>
+        <v>4.049439696660636</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr"/>
+      <c r="A16" s="2" t="n">
+        <v>46003.23680555556</v>
+      </c>
       <c r="B16" t="n">
         <v>-7.97</v>
       </c>
@@ -8445,13 +8517,13 @@
         <v>0.5855400437691201</v>
       </c>
       <c r="BI16" t="n">
-        <v>0.9206645672290633</v>
+        <v>0.9372433888753086</v>
       </c>
       <c r="BJ16" t="n">
-        <v>0.9206645672290633</v>
+        <v>0.9372433888753086</v>
       </c>
       <c r="BK16" t="n">
-        <v>92.06999999999999</v>
+        <v>93.72</v>
       </c>
       <c r="BL16" t="inlineStr">
         <is>
@@ -8459,11 +8531,13 @@
         </is>
       </c>
       <c r="BM16" t="n">
-        <v>4.070063371862935</v>
+        <v>4.093166625652551</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr"/>
+      <c r="A17" s="2" t="n">
+        <v>46000.94930555556</v>
+      </c>
       <c r="B17" t="n">
         <v>-8.01</v>
       </c>
@@ -8650,13 +8724,13 @@
         <v>0</v>
       </c>
       <c r="BI17" t="n">
-        <v>0.9666043955712974</v>
+        <v>1</v>
       </c>
       <c r="BJ17" t="n">
-        <v>0.9666043955712974</v>
+        <v>1</v>
       </c>
       <c r="BK17" t="n">
-        <v>96.66</v>
+        <v>100</v>
       </c>
       <c r="BL17" t="inlineStr">
         <is>
@@ -8664,11 +8738,13 @@
         </is>
       </c>
       <c r="BM17" t="n">
-        <v>5.920345301334497</v>
+        <v>5.98699170355107</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr"/>
+      <c r="A18" s="2" t="n">
+        <v>46004.97708333333</v>
+      </c>
       <c r="B18" t="n">
         <v>-7.99</v>
       </c>
@@ -8854,13 +8930,13 @@
         <v>0.630476010645922</v>
       </c>
       <c r="BI18" t="n">
-        <v>0.6922595051895055</v>
+        <v>0.5650823309923173</v>
       </c>
       <c r="BJ18" t="n">
-        <v>0.6922595051895055</v>
+        <v>0.5650823309923173</v>
       </c>
       <c r="BK18" t="n">
-        <v>69.23</v>
+        <v>56.51</v>
       </c>
       <c r="BL18" t="inlineStr">
         <is>
@@ -8868,11 +8944,13 @@
         </is>
       </c>
       <c r="BM18" t="n">
-        <v>5.372845107125358</v>
+        <v>5.119042211525481</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr"/>
+      <c r="A19" s="2" t="n">
+        <v>46006.00833333333</v>
+      </c>
       <c r="B19" t="n">
         <v>-7.97</v>
       </c>
@@ -9058,25 +9136,27 @@
         <v>0.5185832348124723</v>
       </c>
       <c r="BI19" t="n">
-        <v>0.8517235163365602</v>
+        <v>0.6526275283112936</v>
       </c>
       <c r="BJ19" t="n">
-        <v>0.8517235163365602</v>
+        <v>0.6526275283112936</v>
       </c>
       <c r="BK19" t="n">
-        <v>85.17</v>
+        <v>65.26000000000001</v>
       </c>
       <c r="BL19" t="inlineStr">
         <is>
-          <t>Terdampak</t>
+          <t>Aman</t>
         </is>
       </c>
       <c r="BM19" t="n">
-        <v>3.973991248688063</v>
+        <v>3.696542993438646</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr"/>
+      <c r="A20" s="2" t="n">
+        <v>46006.48263888889</v>
+      </c>
       <c r="B20" t="n">
         <v>-7.99</v>
       </c>
@@ -9283,7 +9363,9 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr"/>
+      <c r="A21" s="2" t="n">
+        <v>46004.99583333333</v>
+      </c>
       <c r="B21" t="n">
         <v>-7.97</v>
       </c>
@@ -9469,13 +9551,13 @@
         <v>0.6026726190182213</v>
       </c>
       <c r="BI21" t="n">
-        <v>0.9666043955712974</v>
+        <v>0.9129252020644906</v>
       </c>
       <c r="BJ21" t="n">
-        <v>0.9666043955712974</v>
+        <v>0.9129252020644906</v>
       </c>
       <c r="BK21" t="n">
-        <v>96.66</v>
+        <v>91.29000000000001</v>
       </c>
       <c r="BL21" t="inlineStr">
         <is>
@@ -9483,11 +9565,13 @@
         </is>
       </c>
       <c r="BM21" t="n">
-        <v>4.380017311809691</v>
+        <v>4.300763132454064</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr"/>
+      <c r="A22" s="2" t="n">
+        <v>46004.62986111111</v>
+      </c>
       <c r="B22" t="n">
         <v>-7.99</v>
       </c>
@@ -9673,13 +9757,13 @@
         <v>0.6579187965525378</v>
       </c>
       <c r="BI22" t="n">
-        <v>0.5907159954734811</v>
+        <v>0.5541117581201249</v>
       </c>
       <c r="BJ22" t="n">
-        <v>0.5907159954734811</v>
+        <v>0.5541117581201249</v>
       </c>
       <c r="BK22" t="n">
-        <v>59.07</v>
+        <v>55.41</v>
       </c>
       <c r="BL22" t="inlineStr">
         <is>
@@ -9687,7 +9771,7 @@
         </is>
       </c>
       <c r="BM22" t="n">
-        <v>5.170198390385593</v>
+        <v>5.097148635269141</v>
       </c>
     </row>
   </sheetData>
@@ -9764,7 +9848,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-12-24T19:31:53.947336</t>
+          <t>2025-12-24T20:43:53.053389</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -9774,27 +9858,27 @@
         <v>21</v>
       </c>
       <c r="D2" t="n">
-        <v>-7.922036831968879</v>
+        <v>-7.93768680738518</v>
       </c>
       <c r="E2" t="n">
-        <v>114.1946298110392</v>
+        <v>114.2516159052801</v>
       </c>
       <c r="F2" t="n">
-        <v>347.3743065761527</v>
+        <v>38.23542230768794</v>
       </c>
       <c r="G2" t="n">
-        <v>7.744407194020869</v>
+        <v>7.40538283510641</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>NE</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.4260490514426782</v>
+        <v>0.4084106032954545</v>
       </c>
       <c r="J2" t="n">
-        <v>1.380715995473481</v>
+        <v>1.344111758120125</v>
       </c>
     </row>
   </sheetData>

--- a/output/ga_results/ga_report.xlsx
+++ b/output/ga_results/ga_report.xlsx
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="BI2" t="n">
-        <v>1</v>
+        <v>0.9050311477000964</v>
       </c>
       <c r="BJ2" t="n">
-        <v>1</v>
+        <v>0.9050311477000964</v>
       </c>
       <c r="BK2" t="n">
-        <v>100</v>
+        <v>90.5</v>
       </c>
       <c r="BL2" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
         </is>
       </c>
       <c r="BM2" t="n">
-        <v>5.98699170355107</v>
+        <v>5.797465793279306</v>
       </c>
     </row>
     <row r="3">
@@ -1366,13 +1366,13 @@
         <v>0.6928203230275504</v>
       </c>
       <c r="BI4" t="n">
-        <v>0.108791743223536</v>
+        <v>0.0001</v>
       </c>
       <c r="BJ4" t="n">
-        <v>0.108791743223536</v>
+        <v>0.0001</v>
       </c>
       <c r="BK4" t="n">
-        <v>10.88</v>
+        <v>0.01</v>
       </c>
       <c r="BL4" t="inlineStr">
         <is>
@@ -1572,13 +1572,13 @@
         <v>0.6928203230275506</v>
       </c>
       <c r="BI5" t="n">
-        <v>0.0001</v>
+        <v>0.08251730895139703</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0.0001</v>
+        <v>0.08251730895139703</v>
       </c>
       <c r="BK5" t="n">
-        <v>0.01</v>
+        <v>8.25</v>
       </c>
       <c r="BL5" t="inlineStr">
         <is>
@@ -1778,21 +1778,21 @@
         <v>0.6328506932918696</v>
       </c>
       <c r="BI6" t="n">
-        <v>0.6849569313212293</v>
+        <v>0.8801299099219815</v>
       </c>
       <c r="BJ6" t="n">
-        <v>0.6849569313212293</v>
+        <v>0.8801299099219815</v>
       </c>
       <c r="BK6" t="n">
-        <v>68.5</v>
+        <v>88.01000000000001</v>
       </c>
       <c r="BL6" t="inlineStr">
         <is>
-          <t>Aman</t>
+          <t>Terdampak</t>
         </is>
       </c>
       <c r="BM6" t="n">
-        <v>3.741595314921003</v>
+        <v>4.013576698984546</v>
       </c>
     </row>
     <row r="7">
@@ -1983,13 +1983,13 @@
         <v>0.584807660688538</v>
       </c>
       <c r="BI7" t="n">
-        <v>0.7393299860799165</v>
+        <v>0.8563608003958793</v>
       </c>
       <c r="BJ7" t="n">
-        <v>0.7393299860799165</v>
+        <v>0.8563608003958793</v>
       </c>
       <c r="BK7" t="n">
-        <v>73.93000000000001</v>
+        <v>85.64</v>
       </c>
       <c r="BL7" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         </is>
       </c>
       <c r="BM7" t="n">
-        <v>3.81736635041502</v>
+        <v>3.980453490263673</v>
       </c>
     </row>
     <row r="8">
@@ -2189,13 +2189,13 @@
         <v>0.5457628998540878</v>
       </c>
       <c r="BI8" t="n">
-        <v>0.9058650833129628</v>
+        <v>0.8952454008765773</v>
       </c>
       <c r="BJ8" t="n">
-        <v>0.9058650833129628</v>
+        <v>0.8952454008765773</v>
       </c>
       <c r="BK8" t="n">
-        <v>90.59</v>
+        <v>89.52</v>
       </c>
       <c r="BL8" t="inlineStr">
         <is>
@@ -2203,7 +2203,7 @@
         </is>
       </c>
       <c r="BM8" t="n">
-        <v>4.049439696660636</v>
+        <v>4.034640742686214</v>
       </c>
     </row>
     <row r="9">
@@ -2394,13 +2394,13 @@
         <v>0.4217311262607299</v>
       </c>
       <c r="BI9" t="n">
-        <v>0.8940786072861067</v>
+        <v>0.8952454008765773</v>
       </c>
       <c r="BJ9" t="n">
-        <v>0.8940786072861067</v>
+        <v>0.8952454008765773</v>
       </c>
       <c r="BK9" t="n">
-        <v>89.41</v>
+        <v>89.52</v>
       </c>
       <c r="BL9" t="inlineStr">
         <is>
@@ -2408,7 +2408,7 @@
         </is>
       </c>
       <c r="BM9" t="n">
-        <v>4.033014768958048</v>
+        <v>4.034640742686214</v>
       </c>
     </row>
     <row r="10">
@@ -2601,13 +2601,13 @@
         <v>0.4777177887773147</v>
       </c>
       <c r="BI10" t="n">
-        <v>0.7056955754627748</v>
+        <v>0.7391713004368596</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0.7056955754627748</v>
+        <v>0.7391713004368596</v>
       </c>
       <c r="BK10" t="n">
-        <v>70.56999999999999</v>
+        <v>73.92</v>
       </c>
       <c r="BL10" t="inlineStr">
         <is>
@@ -2615,7 +2615,7 @@
         </is>
       </c>
       <c r="BM10" t="n">
-        <v>5.642954739442672</v>
+        <v>5.712771167651334</v>
       </c>
     </row>
     <row r="11">
@@ -2807,21 +2807,21 @@
         <v>0.6026726190182244</v>
       </c>
       <c r="BI11" t="n">
-        <v>0.6466534570979616</v>
+        <v>0.7662975188656237</v>
       </c>
       <c r="BJ11" t="n">
-        <v>0.6466534570979616</v>
+        <v>0.7662975188656237</v>
       </c>
       <c r="BK11" t="n">
-        <v>64.67</v>
+        <v>76.63</v>
       </c>
       <c r="BL11" t="inlineStr">
         <is>
-          <t>Aman</t>
+          <t>Terdampak</t>
         </is>
       </c>
       <c r="BM11" t="n">
-        <v>5.519817456492253</v>
+        <v>5.7693451681538</v>
       </c>
     </row>
     <row r="12">
@@ -3013,13 +3013,13 @@
         <v>0.5855400437691201</v>
       </c>
       <c r="BI12" t="n">
-        <v>0.9372433888753086</v>
+        <v>1</v>
       </c>
       <c r="BJ12" t="n">
-        <v>0.9372433888753086</v>
+        <v>1</v>
       </c>
       <c r="BK12" t="n">
-        <v>93.72</v>
+        <v>100</v>
       </c>
       <c r="BL12" t="inlineStr">
         <is>
@@ -3027,7 +3027,7 @@
         </is>
       </c>
       <c r="BM12" t="n">
-        <v>4.093166625652551</v>
+        <v>4.18062048363638</v>
       </c>
     </row>
     <row r="13">
@@ -3220,13 +3220,13 @@
         <v>0.6244997998398401</v>
       </c>
       <c r="BI13" t="n">
-        <v>0.8070038093505972</v>
+        <v>0.7728573340692999</v>
       </c>
       <c r="BJ13" t="n">
-        <v>0.8070038093505972</v>
+        <v>0.7728573340692999</v>
       </c>
       <c r="BK13" t="n">
-        <v>80.7</v>
+        <v>77.29000000000001</v>
       </c>
       <c r="BL13" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         </is>
       </c>
       <c r="BM13" t="n">
-        <v>3.455827058119886</v>
+        <v>3.413787815841897</v>
       </c>
     </row>
     <row r="14">
@@ -3426,13 +3426,13 @@
         <v>0.7178837948144128</v>
       </c>
       <c r="BI14" t="n">
-        <v>0.9686216944376542</v>
+        <v>1</v>
       </c>
       <c r="BJ14" t="n">
-        <v>0.9686216944376542</v>
+        <v>1</v>
       </c>
       <c r="BK14" t="n">
-        <v>96.86</v>
+        <v>100</v>
       </c>
       <c r="BL14" t="inlineStr">
         <is>
@@ -3440,7 +3440,7 @@
         </is>
       </c>
       <c r="BM14" t="n">
-        <v>6.460930408643855</v>
+        <v>6.529222387025386</v>
       </c>
     </row>
     <row r="15">
@@ -3632,13 +3632,13 @@
         <v>0.707359274242687</v>
       </c>
       <c r="BI15" t="n">
-        <v>0.6838732729278348</v>
+        <v>0.6661433127090994</v>
       </c>
       <c r="BJ15" t="n">
-        <v>0.6838732729278348</v>
+        <v>0.6661433127090994</v>
       </c>
       <c r="BK15" t="n">
-        <v>68.39</v>
+        <v>66.61</v>
       </c>
       <c r="BL15" t="inlineStr">
         <is>
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="BM15" t="n">
-        <v>5.356109006133801</v>
+        <v>5.320725964555848</v>
       </c>
     </row>
     <row r="16">
@@ -3838,13 +3838,13 @@
         <v>0.6579187965525378</v>
       </c>
       <c r="BI16" t="n">
-        <v>0.5541117581201249</v>
+        <v>0.4333148331112077</v>
       </c>
       <c r="BJ16" t="n">
-        <v>0.5541117581201249</v>
+        <v>0.4333148331112077</v>
       </c>
       <c r="BK16" t="n">
-        <v>55.41</v>
+        <v>43.33</v>
       </c>
       <c r="BL16" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         </is>
       </c>
       <c r="BM16" t="n">
-        <v>5.097148635269141</v>
+        <v>4.856078572654853</v>
       </c>
     </row>
     <row r="17">
@@ -4044,21 +4044,21 @@
         <v>0.6447590912226693</v>
       </c>
       <c r="BI17" t="n">
-        <v>0.7928438292387981</v>
+        <v>0.5919847068707884</v>
       </c>
       <c r="BJ17" t="n">
-        <v>0.7928438292387981</v>
+        <v>0.5919847068707884</v>
       </c>
       <c r="BK17" t="n">
-        <v>79.28</v>
+        <v>59.2</v>
       </c>
       <c r="BL17" t="inlineStr">
         <is>
-          <t>Terdampak</t>
+          <t>Aman</t>
         </is>
       </c>
       <c r="BM17" t="n">
-        <v>5.573577611655494</v>
+        <v>5.172730311922221</v>
       </c>
     </row>
     <row r="18">
@@ -4250,13 +4250,13 @@
         <v>0.630476010645922</v>
       </c>
       <c r="BI18" t="n">
-        <v>0.5650823309923173</v>
+        <v>0.5152535995865384</v>
       </c>
       <c r="BJ18" t="n">
-        <v>0.5650823309923173</v>
+        <v>0.5152535995865384</v>
       </c>
       <c r="BK18" t="n">
-        <v>56.51</v>
+        <v>51.53</v>
       </c>
       <c r="BL18" t="inlineStr">
         <is>
@@ -4264,7 +4264,7 @@
         </is>
       </c>
       <c r="BM18" t="n">
-        <v>5.119042211525481</v>
+        <v>5.019600811017189</v>
       </c>
     </row>
     <row r="19">
@@ -4456,13 +4456,13 @@
         <v>0.6026726190182213</v>
       </c>
       <c r="BI19" t="n">
-        <v>0.9129252020644906</v>
+        <v>0.9245011898209567</v>
       </c>
       <c r="BJ19" t="n">
-        <v>0.9129252020644906</v>
+        <v>0.9245011898209567</v>
       </c>
       <c r="BK19" t="n">
-        <v>91.29000000000001</v>
+        <v>92.45</v>
       </c>
       <c r="BL19" t="inlineStr">
         <is>
@@ -4470,7 +4470,7 @@
         </is>
       </c>
       <c r="BM19" t="n">
-        <v>4.300763132454064</v>
+        <v>4.317854399105698</v>
       </c>
     </row>
     <row r="20">
@@ -4662,21 +4662,21 @@
         <v>0.5185832348124723</v>
       </c>
       <c r="BI20" t="n">
-        <v>0.6526275283112936</v>
+        <v>0.7662004171515935</v>
       </c>
       <c r="BJ20" t="n">
-        <v>0.6526275283112936</v>
+        <v>0.7662004171515935</v>
       </c>
       <c r="BK20" t="n">
-        <v>65.26000000000001</v>
+        <v>76.62</v>
       </c>
       <c r="BL20" t="inlineStr">
         <is>
-          <t>Aman</t>
+          <t>Terdampak</t>
         </is>
       </c>
       <c r="BM20" t="n">
-        <v>3.696542993438646</v>
+        <v>3.854811375262484</v>
       </c>
     </row>
     <row r="21">
@@ -5080,13 +5080,13 @@
         <v>0.4452126297784946</v>
       </c>
       <c r="BI22" t="n">
-        <v>0.9129252020644906</v>
+        <v>0.8282402068426764</v>
       </c>
       <c r="BJ22" t="n">
-        <v>0.9129252020644906</v>
+        <v>0.8282402068426764</v>
       </c>
       <c r="BK22" t="n">
-        <v>91.29000000000001</v>
+        <v>82.81999999999999</v>
       </c>
       <c r="BL22" t="inlineStr">
         <is>
@@ -5094,7 +5094,7 @@
         </is>
       </c>
       <c r="BM22" t="n">
-        <v>4.79315362319301</v>
+        <v>4.653806347337853</v>
       </c>
     </row>
   </sheetData>
@@ -5632,21 +5632,21 @@
         <v>0.6447590912226693</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.7928438292387981</v>
+        <v>0.5919847068707884</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.7928438292387981</v>
+        <v>0.5919847068707884</v>
       </c>
       <c r="BK2" t="n">
-        <v>79.28</v>
+        <v>59.2</v>
       </c>
       <c r="BL2" t="inlineStr">
         <is>
-          <t>Terdampak</t>
+          <t>Aman</t>
         </is>
       </c>
       <c r="BM2" t="n">
-        <v>5.573577611655494</v>
+        <v>5.172730311922221</v>
       </c>
     </row>
     <row r="3">
@@ -5837,13 +5837,13 @@
         <v>0.584807660688538</v>
       </c>
       <c r="BI3" t="n">
-        <v>0.7393299860799165</v>
+        <v>0.8563608003958793</v>
       </c>
       <c r="BJ3" t="n">
-        <v>0.7393299860799165</v>
+        <v>0.8563608003958793</v>
       </c>
       <c r="BK3" t="n">
-        <v>73.93000000000001</v>
+        <v>85.64</v>
       </c>
       <c r="BL3" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         </is>
       </c>
       <c r="BM3" t="n">
-        <v>3.81736635041502</v>
+        <v>3.980453490263673</v>
       </c>
     </row>
     <row r="4">
@@ -6041,13 +6041,13 @@
         <v>0.6928203230275504</v>
       </c>
       <c r="BI4" t="n">
-        <v>0.108791743223536</v>
+        <v>0.0001</v>
       </c>
       <c r="BJ4" t="n">
-        <v>0.108791743223536</v>
+        <v>0.0001</v>
       </c>
       <c r="BK4" t="n">
-        <v>10.88</v>
+        <v>0.01</v>
       </c>
       <c r="BL4" t="inlineStr">
         <is>
@@ -6247,21 +6247,21 @@
         <v>0.6328506932918696</v>
       </c>
       <c r="BI5" t="n">
-        <v>0.6849569313212293</v>
+        <v>0.8801299099219815</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0.6849569313212293</v>
+        <v>0.8801299099219815</v>
       </c>
       <c r="BK5" t="n">
-        <v>68.5</v>
+        <v>88.01000000000001</v>
       </c>
       <c r="BL5" t="inlineStr">
         <is>
-          <t>Aman</t>
+          <t>Terdampak</t>
         </is>
       </c>
       <c r="BM5" t="n">
-        <v>3.741595314921003</v>
+        <v>4.013576698984546</v>
       </c>
     </row>
     <row r="6">
@@ -6453,21 +6453,21 @@
         <v>0.6026726190182244</v>
       </c>
       <c r="BI6" t="n">
-        <v>0.6466534570979616</v>
+        <v>0.7662975188656237</v>
       </c>
       <c r="BJ6" t="n">
-        <v>0.6466534570979616</v>
+        <v>0.7662975188656237</v>
       </c>
       <c r="BK6" t="n">
-        <v>64.67</v>
+        <v>76.63</v>
       </c>
       <c r="BL6" t="inlineStr">
         <is>
-          <t>Aman</t>
+          <t>Terdampak</t>
         </is>
       </c>
       <c r="BM6" t="n">
-        <v>5.519817456492253</v>
+        <v>5.7693451681538</v>
       </c>
     </row>
     <row r="7">
@@ -6659,13 +6659,13 @@
         <v>0.7178837948144128</v>
       </c>
       <c r="BI7" t="n">
-        <v>0.9686216944376542</v>
+        <v>1</v>
       </c>
       <c r="BJ7" t="n">
-        <v>0.9686216944376542</v>
+        <v>1</v>
       </c>
       <c r="BK7" t="n">
-        <v>96.86</v>
+        <v>100</v>
       </c>
       <c r="BL7" t="inlineStr">
         <is>
@@ -6673,7 +6673,7 @@
         </is>
       </c>
       <c r="BM7" t="n">
-        <v>6.460930408643855</v>
+        <v>6.529222387025386</v>
       </c>
     </row>
     <row r="8">
@@ -6868,13 +6868,13 @@
         <v>0.4452126297784946</v>
       </c>
       <c r="BI8" t="n">
-        <v>0.9129252020644906</v>
+        <v>0.8282402068426764</v>
       </c>
       <c r="BJ8" t="n">
-        <v>0.9129252020644906</v>
+        <v>0.8282402068426764</v>
       </c>
       <c r="BK8" t="n">
-        <v>91.29000000000001</v>
+        <v>82.81999999999999</v>
       </c>
       <c r="BL8" t="inlineStr">
         <is>
@@ -6882,7 +6882,7 @@
         </is>
       </c>
       <c r="BM8" t="n">
-        <v>4.79315362319301</v>
+        <v>4.653806347337853</v>
       </c>
     </row>
     <row r="9">
@@ -7280,13 +7280,13 @@
         <v>0.6928203230275506</v>
       </c>
       <c r="BI10" t="n">
-        <v>0.0001</v>
+        <v>0.08251730895139703</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0.0001</v>
+        <v>0.08251730895139703</v>
       </c>
       <c r="BK10" t="n">
-        <v>0.01</v>
+        <v>8.25</v>
       </c>
       <c r="BL10" t="inlineStr">
         <is>
@@ -7485,13 +7485,13 @@
         <v>0.4217311262607299</v>
       </c>
       <c r="BI11" t="n">
-        <v>0.8940786072861067</v>
+        <v>0.8952454008765773</v>
       </c>
       <c r="BJ11" t="n">
-        <v>0.8940786072861067</v>
+        <v>0.8952454008765773</v>
       </c>
       <c r="BK11" t="n">
-        <v>89.41</v>
+        <v>89.52</v>
       </c>
       <c r="BL11" t="inlineStr">
         <is>
@@ -7499,7 +7499,7 @@
         </is>
       </c>
       <c r="BM11" t="n">
-        <v>4.033014768958048</v>
+        <v>4.034640742686214</v>
       </c>
     </row>
     <row r="12">
@@ -7691,13 +7691,13 @@
         <v>0.707359274242687</v>
       </c>
       <c r="BI12" t="n">
-        <v>0.6838732729278348</v>
+        <v>0.6661433127090994</v>
       </c>
       <c r="BJ12" t="n">
-        <v>0.6838732729278348</v>
+        <v>0.6661433127090994</v>
       </c>
       <c r="BK12" t="n">
-        <v>68.39</v>
+        <v>66.61</v>
       </c>
       <c r="BL12" t="inlineStr">
         <is>
@@ -7705,7 +7705,7 @@
         </is>
       </c>
       <c r="BM12" t="n">
-        <v>5.356109006133801</v>
+        <v>5.320725964555848</v>
       </c>
     </row>
     <row r="13">
@@ -7898,13 +7898,13 @@
         <v>0.6244997998398401</v>
       </c>
       <c r="BI13" t="n">
-        <v>0.8070038093505972</v>
+        <v>0.7728573340692999</v>
       </c>
       <c r="BJ13" t="n">
-        <v>0.8070038093505972</v>
+        <v>0.7728573340692999</v>
       </c>
       <c r="BK13" t="n">
-        <v>80.7</v>
+        <v>77.29000000000001</v>
       </c>
       <c r="BL13" t="inlineStr">
         <is>
@@ -7912,7 +7912,7 @@
         </is>
       </c>
       <c r="BM13" t="n">
-        <v>3.455827058119886</v>
+        <v>3.413787815841897</v>
       </c>
     </row>
     <row r="14">
@@ -8105,13 +8105,13 @@
         <v>0.4777177887773147</v>
       </c>
       <c r="BI14" t="n">
-        <v>0.7056955754627748</v>
+        <v>0.7391713004368596</v>
       </c>
       <c r="BJ14" t="n">
-        <v>0.7056955754627748</v>
+        <v>0.7391713004368596</v>
       </c>
       <c r="BK14" t="n">
-        <v>70.56999999999999</v>
+        <v>73.92</v>
       </c>
       <c r="BL14" t="inlineStr">
         <is>
@@ -8119,7 +8119,7 @@
         </is>
       </c>
       <c r="BM14" t="n">
-        <v>5.642954739442672</v>
+        <v>5.712771167651334</v>
       </c>
     </row>
     <row r="15">
@@ -8311,13 +8311,13 @@
         <v>0.5457628998540878</v>
       </c>
       <c r="BI15" t="n">
-        <v>0.9058650833129628</v>
+        <v>0.8952454008765773</v>
       </c>
       <c r="BJ15" t="n">
-        <v>0.9058650833129628</v>
+        <v>0.8952454008765773</v>
       </c>
       <c r="BK15" t="n">
-        <v>90.59</v>
+        <v>89.52</v>
       </c>
       <c r="BL15" t="inlineStr">
         <is>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="BM15" t="n">
-        <v>4.049439696660636</v>
+        <v>4.034640742686214</v>
       </c>
     </row>
     <row r="16">
@@ -8517,13 +8517,13 @@
         <v>0.5855400437691201</v>
       </c>
       <c r="BI16" t="n">
-        <v>0.9372433888753086</v>
+        <v>1</v>
       </c>
       <c r="BJ16" t="n">
-        <v>0.9372433888753086</v>
+        <v>1</v>
       </c>
       <c r="BK16" t="n">
-        <v>93.72</v>
+        <v>100</v>
       </c>
       <c r="BL16" t="inlineStr">
         <is>
@@ -8531,7 +8531,7 @@
         </is>
       </c>
       <c r="BM16" t="n">
-        <v>4.093166625652551</v>
+        <v>4.18062048363638</v>
       </c>
     </row>
     <row r="17">
@@ -8724,13 +8724,13 @@
         <v>0</v>
       </c>
       <c r="BI17" t="n">
-        <v>1</v>
+        <v>0.9050311477000964</v>
       </c>
       <c r="BJ17" t="n">
-        <v>1</v>
+        <v>0.9050311477000964</v>
       </c>
       <c r="BK17" t="n">
-        <v>100</v>
+        <v>90.5</v>
       </c>
       <c r="BL17" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         </is>
       </c>
       <c r="BM17" t="n">
-        <v>5.98699170355107</v>
+        <v>5.797465793279306</v>
       </c>
     </row>
     <row r="18">
@@ -8930,13 +8930,13 @@
         <v>0.630476010645922</v>
       </c>
       <c r="BI18" t="n">
-        <v>0.5650823309923173</v>
+        <v>0.5152535995865384</v>
       </c>
       <c r="BJ18" t="n">
-        <v>0.5650823309923173</v>
+        <v>0.5152535995865384</v>
       </c>
       <c r="BK18" t="n">
-        <v>56.51</v>
+        <v>51.53</v>
       </c>
       <c r="BL18" t="inlineStr">
         <is>
@@ -8944,7 +8944,7 @@
         </is>
       </c>
       <c r="BM18" t="n">
-        <v>5.119042211525481</v>
+        <v>5.019600811017189</v>
       </c>
     </row>
     <row r="19">
@@ -9136,21 +9136,21 @@
         <v>0.5185832348124723</v>
       </c>
       <c r="BI19" t="n">
-        <v>0.6526275283112936</v>
+        <v>0.7662004171515935</v>
       </c>
       <c r="BJ19" t="n">
-        <v>0.6526275283112936</v>
+        <v>0.7662004171515935</v>
       </c>
       <c r="BK19" t="n">
-        <v>65.26000000000001</v>
+        <v>76.62</v>
       </c>
       <c r="BL19" t="inlineStr">
         <is>
-          <t>Aman</t>
+          <t>Terdampak</t>
         </is>
       </c>
       <c r="BM19" t="n">
-        <v>3.696542993438646</v>
+        <v>3.854811375262484</v>
       </c>
     </row>
     <row r="20">
@@ -9551,13 +9551,13 @@
         <v>0.6026726190182213</v>
       </c>
       <c r="BI21" t="n">
-        <v>0.9129252020644906</v>
+        <v>0.9245011898209567</v>
       </c>
       <c r="BJ21" t="n">
-        <v>0.9129252020644906</v>
+        <v>0.9245011898209567</v>
       </c>
       <c r="BK21" t="n">
-        <v>91.29000000000001</v>
+        <v>92.45</v>
       </c>
       <c r="BL21" t="inlineStr">
         <is>
@@ -9565,7 +9565,7 @@
         </is>
       </c>
       <c r="BM21" t="n">
-        <v>4.300763132454064</v>
+        <v>4.317854399105698</v>
       </c>
     </row>
     <row r="22">
@@ -9757,13 +9757,13 @@
         <v>0.6579187965525378</v>
       </c>
       <c r="BI22" t="n">
-        <v>0.5541117581201249</v>
+        <v>0.4333148331112077</v>
       </c>
       <c r="BJ22" t="n">
-        <v>0.5541117581201249</v>
+        <v>0.4333148331112077</v>
       </c>
       <c r="BK22" t="n">
-        <v>55.41</v>
+        <v>43.33</v>
       </c>
       <c r="BL22" t="inlineStr">
         <is>
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="BM22" t="n">
-        <v>5.097148635269141</v>
+        <v>4.856078572654853</v>
       </c>
     </row>
   </sheetData>
@@ -9848,7 +9848,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-12-24T20:43:53.053389</t>
+          <t>2025-12-28T14:22:27.961484</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -9858,27 +9858,27 @@
         <v>21</v>
       </c>
       <c r="D2" t="n">
-        <v>-7.93768680738518</v>
+        <v>-7.929338275286627</v>
       </c>
       <c r="E2" t="n">
-        <v>114.2516159052801</v>
+        <v>114.2112030406566</v>
       </c>
       <c r="F2" t="n">
-        <v>38.23542230768794</v>
+        <v>1.12527882297519</v>
       </c>
       <c r="G2" t="n">
-        <v>7.40538283510641</v>
+        <v>6.746586267146307</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>NE</t>
+          <t>N</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.4084106032954545</v>
+        <v>0.3906193454938366</v>
       </c>
       <c r="J2" t="n">
-        <v>1.344111758120125</v>
+        <v>1.223314833111208</v>
       </c>
     </row>
   </sheetData>

--- a/output/ga_results/ga_report.xlsx
+++ b/output/ga_results/ga_report.xlsx
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.9050311477000964</v>
+        <v>0.8899727494497126</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.9050311477000964</v>
+        <v>0.8899727494497126</v>
       </c>
       <c r="BK2" t="n">
-        <v>90.5</v>
+        <v>89</v>
       </c>
       <c r="BL2" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
         </is>
       </c>
       <c r="BM2" t="n">
-        <v>5.797465793279306</v>
+        <v>5.767414291481368</v>
       </c>
     </row>
     <row r="3">
@@ -1162,13 +1162,13 @@
         <v>0</v>
       </c>
       <c r="BI3" t="n">
-        <v>1</v>
+        <v>0.9002753166300426</v>
       </c>
       <c r="BJ3" t="n">
-        <v>1</v>
+        <v>0.9002753166300426</v>
       </c>
       <c r="BK3" t="n">
-        <v>100</v>
+        <v>90.03</v>
       </c>
       <c r="BL3" t="inlineStr">
         <is>
@@ -1176,7 +1176,7 @@
         </is>
       </c>
       <c r="BM3" t="n">
-        <v>5.98699170355107</v>
+        <v>5.787974752892673</v>
       </c>
     </row>
     <row r="4">
@@ -1572,13 +1572,13 @@
         <v>0.6928203230275506</v>
       </c>
       <c r="BI5" t="n">
-        <v>0.08251730895139703</v>
+        <v>0.08952318652246555</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0.08251730895139703</v>
+        <v>0.08952318652246555</v>
       </c>
       <c r="BK5" t="n">
-        <v>8.25</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="BL5" t="inlineStr">
         <is>
@@ -1778,13 +1778,13 @@
         <v>0.6328506932918696</v>
       </c>
       <c r="BI6" t="n">
-        <v>0.8801299099219815</v>
+        <v>0.747479468576086</v>
       </c>
       <c r="BJ6" t="n">
-        <v>0.8801299099219815</v>
+        <v>0.747479468576086</v>
       </c>
       <c r="BK6" t="n">
-        <v>88.01000000000001</v>
+        <v>74.75</v>
       </c>
       <c r="BL6" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="BM6" t="n">
-        <v>4.013576698984546</v>
+        <v>3.828722981566528</v>
       </c>
     </row>
     <row r="7">
@@ -1983,13 +1983,13 @@
         <v>0.584807660688538</v>
       </c>
       <c r="BI7" t="n">
-        <v>0.8563608003958793</v>
+        <v>0.7705338303666216</v>
       </c>
       <c r="BJ7" t="n">
-        <v>0.8563608003958793</v>
+        <v>0.7705338303666216</v>
       </c>
       <c r="BK7" t="n">
-        <v>85.64</v>
+        <v>77.05</v>
       </c>
       <c r="BL7" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         </is>
       </c>
       <c r="BM7" t="n">
-        <v>3.980453490263673</v>
+        <v>3.860850160612753</v>
       </c>
     </row>
     <row r="8">
@@ -2189,21 +2189,21 @@
         <v>0.5457628998540878</v>
       </c>
       <c r="BI8" t="n">
-        <v>0.8952454008765773</v>
+        <v>0.687873057663476</v>
       </c>
       <c r="BJ8" t="n">
-        <v>0.8952454008765773</v>
+        <v>0.687873057663476</v>
       </c>
       <c r="BK8" t="n">
-        <v>89.52</v>
+        <v>68.79000000000001</v>
       </c>
       <c r="BL8" t="inlineStr">
         <is>
-          <t>Terdampak</t>
+          <t>Aman</t>
         </is>
       </c>
       <c r="BM8" t="n">
-        <v>4.034640742686214</v>
+        <v>3.745659054094092</v>
       </c>
     </row>
     <row r="9">
@@ -2394,13 +2394,13 @@
         <v>0.4217311262607299</v>
       </c>
       <c r="BI9" t="n">
-        <v>0.8952454008765773</v>
+        <v>0.9427106912047838</v>
       </c>
       <c r="BJ9" t="n">
-        <v>0.8952454008765773</v>
+        <v>0.9427106912047838</v>
       </c>
       <c r="BK9" t="n">
-        <v>89.52</v>
+        <v>94.27</v>
       </c>
       <c r="BL9" t="inlineStr">
         <is>
@@ -2408,7 +2408,7 @@
         </is>
       </c>
       <c r="BM9" t="n">
-        <v>4.034640742686214</v>
+        <v>4.100785531022163</v>
       </c>
     </row>
     <row r="10">
@@ -2601,13 +2601,13 @@
         <v>0.4777177887773147</v>
       </c>
       <c r="BI10" t="n">
-        <v>0.7391713004368596</v>
+        <v>0.7483148948397055</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0.7391713004368596</v>
+        <v>0.7483148948397055</v>
       </c>
       <c r="BK10" t="n">
-        <v>73.92</v>
+        <v>74.83</v>
       </c>
       <c r="BL10" t="inlineStr">
         <is>
@@ -2615,7 +2615,7 @@
         </is>
       </c>
       <c r="BM10" t="n">
-        <v>5.712771167651334</v>
+        <v>5.731840899604551</v>
       </c>
     </row>
     <row r="11">
@@ -2807,13 +2807,13 @@
         <v>0.6026726190182244</v>
       </c>
       <c r="BI11" t="n">
-        <v>0.7662975188656237</v>
+        <v>0.8468279593549773</v>
       </c>
       <c r="BJ11" t="n">
-        <v>0.7662975188656237</v>
+        <v>0.8468279593549773</v>
       </c>
       <c r="BK11" t="n">
-        <v>76.63</v>
+        <v>84.68000000000001</v>
       </c>
       <c r="BL11" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="BM11" t="n">
-        <v>5.7693451681538</v>
+        <v>5.93729814665955</v>
       </c>
     </row>
     <row r="12">
@@ -3013,13 +3013,13 @@
         <v>0.5855400437691201</v>
       </c>
       <c r="BI12" t="n">
-        <v>1</v>
+        <v>0.87281773447462</v>
       </c>
       <c r="BJ12" t="n">
-        <v>1</v>
+        <v>0.87281773447462</v>
       </c>
       <c r="BK12" t="n">
-        <v>100</v>
+        <v>87.28</v>
       </c>
       <c r="BL12" t="inlineStr">
         <is>
@@ -3027,7 +3027,7 @@
         </is>
       </c>
       <c r="BM12" t="n">
-        <v>4.18062048363638</v>
+        <v>4.003386888832819</v>
       </c>
     </row>
     <row r="13">
@@ -3220,13 +3220,13 @@
         <v>0.6244997998398401</v>
       </c>
       <c r="BI13" t="n">
-        <v>0.7728573340692999</v>
+        <v>0.7066689309934173</v>
       </c>
       <c r="BJ13" t="n">
-        <v>0.7728573340692999</v>
+        <v>0.7066689309934173</v>
       </c>
       <c r="BK13" t="n">
-        <v>77.29000000000001</v>
+        <v>70.67</v>
       </c>
       <c r="BL13" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         </is>
       </c>
       <c r="BM13" t="n">
-        <v>3.413787815841897</v>
+        <v>3.332300333166802</v>
       </c>
     </row>
     <row r="14">
@@ -3632,13 +3632,13 @@
         <v>0.707359274242687</v>
       </c>
       <c r="BI15" t="n">
-        <v>0.6661433127090994</v>
+        <v>0.4283952460128725</v>
       </c>
       <c r="BJ15" t="n">
-        <v>0.6661433127090994</v>
+        <v>0.4283952460128725</v>
       </c>
       <c r="BK15" t="n">
-        <v>66.61</v>
+        <v>42.84</v>
       </c>
       <c r="BL15" t="inlineStr">
         <is>
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="BM15" t="n">
-        <v>5.320725964555848</v>
+        <v>4.846260730273976</v>
       </c>
     </row>
     <row r="16">
@@ -3838,13 +3838,13 @@
         <v>0.6579187965525378</v>
       </c>
       <c r="BI16" t="n">
-        <v>0.4333148331112077</v>
+        <v>0.69643448640933</v>
       </c>
       <c r="BJ16" t="n">
-        <v>0.4333148331112077</v>
+        <v>0.69643448640933</v>
       </c>
       <c r="BK16" t="n">
-        <v>43.33</v>
+        <v>69.64</v>
       </c>
       <c r="BL16" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         </is>
       </c>
       <c r="BM16" t="n">
-        <v>4.856078572654853</v>
+        <v>5.381176966433883</v>
       </c>
     </row>
     <row r="17">
@@ -4044,13 +4044,13 @@
         <v>0.6447590912226693</v>
       </c>
       <c r="BI17" t="n">
-        <v>0.5919847068707884</v>
+        <v>0.4055282191110318</v>
       </c>
       <c r="BJ17" t="n">
-        <v>0.5919847068707884</v>
+        <v>0.4055282191110318</v>
       </c>
       <c r="BK17" t="n">
-        <v>59.2</v>
+        <v>40.55</v>
       </c>
       <c r="BL17" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         </is>
       </c>
       <c r="BM17" t="n">
-        <v>5.172730311922221</v>
+        <v>4.800625830158576</v>
       </c>
     </row>
     <row r="18">
@@ -4250,13 +4250,13 @@
         <v>0.630476010645922</v>
       </c>
       <c r="BI18" t="n">
-        <v>0.5152535995865384</v>
+        <v>0.6616581935897982</v>
       </c>
       <c r="BJ18" t="n">
-        <v>0.5152535995865384</v>
+        <v>0.6616581935897982</v>
       </c>
       <c r="BK18" t="n">
-        <v>51.53</v>
+        <v>66.17</v>
       </c>
       <c r="BL18" t="inlineStr">
         <is>
@@ -4264,7 +4264,7 @@
         </is>
       </c>
       <c r="BM18" t="n">
-        <v>5.019600811017189</v>
+        <v>5.311775174236949</v>
       </c>
     </row>
     <row r="19">
@@ -4456,13 +4456,13 @@
         <v>0.6026726190182213</v>
       </c>
       <c r="BI19" t="n">
-        <v>0.9245011898209567</v>
+        <v>0.8442143114116659</v>
       </c>
       <c r="BJ19" t="n">
-        <v>0.9245011898209567</v>
+        <v>0.8442143114116659</v>
       </c>
       <c r="BK19" t="n">
-        <v>92.45</v>
+        <v>84.42</v>
       </c>
       <c r="BL19" t="inlineStr">
         <is>
@@ -4470,7 +4470,7 @@
         </is>
       </c>
       <c r="BM19" t="n">
-        <v>4.317854399105698</v>
+        <v>4.199315534311718</v>
       </c>
     </row>
     <row r="20">
@@ -4662,13 +4662,13 @@
         <v>0.5185832348124723</v>
       </c>
       <c r="BI20" t="n">
-        <v>0.7662004171515935</v>
+        <v>0.9033063884990742</v>
       </c>
       <c r="BJ20" t="n">
-        <v>0.7662004171515935</v>
+        <v>0.9033063884990742</v>
       </c>
       <c r="BK20" t="n">
-        <v>76.62</v>
+        <v>90.33</v>
       </c>
       <c r="BL20" t="inlineStr">
         <is>
@@ -4676,7 +4676,7 @@
         </is>
       </c>
       <c r="BM20" t="n">
-        <v>3.854811375262484</v>
+        <v>4.045874052677197</v>
       </c>
     </row>
     <row r="21">
@@ -5080,13 +5080,13 @@
         <v>0.4452126297784946</v>
       </c>
       <c r="BI22" t="n">
-        <v>0.8282402068426764</v>
+        <v>0.8164047918198394</v>
       </c>
       <c r="BJ22" t="n">
-        <v>0.8282402068426764</v>
+        <v>0.8164047918198394</v>
       </c>
       <c r="BK22" t="n">
-        <v>82.81999999999999</v>
+        <v>81.64</v>
       </c>
       <c r="BL22" t="inlineStr">
         <is>
@@ -5094,7 +5094,7 @@
         </is>
       </c>
       <c r="BM22" t="n">
-        <v>4.653806347337853</v>
+        <v>4.634331435191637</v>
       </c>
     </row>
   </sheetData>
@@ -5632,13 +5632,13 @@
         <v>0.6447590912226693</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.5919847068707884</v>
+        <v>0.4055282191110318</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.5919847068707884</v>
+        <v>0.4055282191110318</v>
       </c>
       <c r="BK2" t="n">
-        <v>59.2</v>
+        <v>40.55</v>
       </c>
       <c r="BL2" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="BM2" t="n">
-        <v>5.172730311922221</v>
+        <v>4.800625830158576</v>
       </c>
     </row>
     <row r="3">
@@ -5837,13 +5837,13 @@
         <v>0.584807660688538</v>
       </c>
       <c r="BI3" t="n">
-        <v>0.8563608003958793</v>
+        <v>0.7705338303666216</v>
       </c>
       <c r="BJ3" t="n">
-        <v>0.8563608003958793</v>
+        <v>0.7705338303666216</v>
       </c>
       <c r="BK3" t="n">
-        <v>85.64</v>
+        <v>77.05</v>
       </c>
       <c r="BL3" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         </is>
       </c>
       <c r="BM3" t="n">
-        <v>3.980453490263673</v>
+        <v>3.860850160612753</v>
       </c>
     </row>
     <row r="4">
@@ -6247,13 +6247,13 @@
         <v>0.6328506932918696</v>
       </c>
       <c r="BI5" t="n">
-        <v>0.8801299099219815</v>
+        <v>0.747479468576086</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0.8801299099219815</v>
+        <v>0.747479468576086</v>
       </c>
       <c r="BK5" t="n">
-        <v>88.01000000000001</v>
+        <v>74.75</v>
       </c>
       <c r="BL5" t="inlineStr">
         <is>
@@ -6261,7 +6261,7 @@
         </is>
       </c>
       <c r="BM5" t="n">
-        <v>4.013576698984546</v>
+        <v>3.828722981566528</v>
       </c>
     </row>
     <row r="6">
@@ -6453,13 +6453,13 @@
         <v>0.6026726190182244</v>
       </c>
       <c r="BI6" t="n">
-        <v>0.7662975188656237</v>
+        <v>0.8468279593549773</v>
       </c>
       <c r="BJ6" t="n">
-        <v>0.7662975188656237</v>
+        <v>0.8468279593549773</v>
       </c>
       <c r="BK6" t="n">
-        <v>76.63</v>
+        <v>84.68000000000001</v>
       </c>
       <c r="BL6" t="inlineStr">
         <is>
@@ -6467,7 +6467,7 @@
         </is>
       </c>
       <c r="BM6" t="n">
-        <v>5.7693451681538</v>
+        <v>5.93729814665955</v>
       </c>
     </row>
     <row r="7">
@@ -6868,13 +6868,13 @@
         <v>0.4452126297784946</v>
       </c>
       <c r="BI8" t="n">
-        <v>0.8282402068426764</v>
+        <v>0.8164047918198394</v>
       </c>
       <c r="BJ8" t="n">
-        <v>0.8282402068426764</v>
+        <v>0.8164047918198394</v>
       </c>
       <c r="BK8" t="n">
-        <v>82.81999999999999</v>
+        <v>81.64</v>
       </c>
       <c r="BL8" t="inlineStr">
         <is>
@@ -6882,7 +6882,7 @@
         </is>
       </c>
       <c r="BM8" t="n">
-        <v>4.653806347337853</v>
+        <v>4.634331435191637</v>
       </c>
     </row>
     <row r="9">
@@ -7074,13 +7074,13 @@
         <v>0</v>
       </c>
       <c r="BI9" t="n">
-        <v>1</v>
+        <v>0.9002753166300426</v>
       </c>
       <c r="BJ9" t="n">
-        <v>1</v>
+        <v>0.9002753166300426</v>
       </c>
       <c r="BK9" t="n">
-        <v>100</v>
+        <v>90.03</v>
       </c>
       <c r="BL9" t="inlineStr">
         <is>
@@ -7088,7 +7088,7 @@
         </is>
       </c>
       <c r="BM9" t="n">
-        <v>5.98699170355107</v>
+        <v>5.787974752892673</v>
       </c>
     </row>
     <row r="10">
@@ -7280,13 +7280,13 @@
         <v>0.6928203230275506</v>
       </c>
       <c r="BI10" t="n">
-        <v>0.08251730895139703</v>
+        <v>0.08952318652246555</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0.08251730895139703</v>
+        <v>0.08952318652246555</v>
       </c>
       <c r="BK10" t="n">
-        <v>8.25</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="BL10" t="inlineStr">
         <is>
@@ -7485,13 +7485,13 @@
         <v>0.4217311262607299</v>
       </c>
       <c r="BI11" t="n">
-        <v>0.8952454008765773</v>
+        <v>0.9427106912047838</v>
       </c>
       <c r="BJ11" t="n">
-        <v>0.8952454008765773</v>
+        <v>0.9427106912047838</v>
       </c>
       <c r="BK11" t="n">
-        <v>89.52</v>
+        <v>94.27</v>
       </c>
       <c r="BL11" t="inlineStr">
         <is>
@@ -7499,7 +7499,7 @@
         </is>
       </c>
       <c r="BM11" t="n">
-        <v>4.034640742686214</v>
+        <v>4.100785531022163</v>
       </c>
     </row>
     <row r="12">
@@ -7691,13 +7691,13 @@
         <v>0.707359274242687</v>
       </c>
       <c r="BI12" t="n">
-        <v>0.6661433127090994</v>
+        <v>0.4283952460128725</v>
       </c>
       <c r="BJ12" t="n">
-        <v>0.6661433127090994</v>
+        <v>0.4283952460128725</v>
       </c>
       <c r="BK12" t="n">
-        <v>66.61</v>
+        <v>42.84</v>
       </c>
       <c r="BL12" t="inlineStr">
         <is>
@@ -7705,7 +7705,7 @@
         </is>
       </c>
       <c r="BM12" t="n">
-        <v>5.320725964555848</v>
+        <v>4.846260730273976</v>
       </c>
     </row>
     <row r="13">
@@ -7898,13 +7898,13 @@
         <v>0.6244997998398401</v>
       </c>
       <c r="BI13" t="n">
-        <v>0.7728573340692999</v>
+        <v>0.7066689309934173</v>
       </c>
       <c r="BJ13" t="n">
-        <v>0.7728573340692999</v>
+        <v>0.7066689309934173</v>
       </c>
       <c r="BK13" t="n">
-        <v>77.29000000000001</v>
+        <v>70.67</v>
       </c>
       <c r="BL13" t="inlineStr">
         <is>
@@ -7912,7 +7912,7 @@
         </is>
       </c>
       <c r="BM13" t="n">
-        <v>3.413787815841897</v>
+        <v>3.332300333166802</v>
       </c>
     </row>
     <row r="14">
@@ -8105,13 +8105,13 @@
         <v>0.4777177887773147</v>
       </c>
       <c r="BI14" t="n">
-        <v>0.7391713004368596</v>
+        <v>0.7483148948397055</v>
       </c>
       <c r="BJ14" t="n">
-        <v>0.7391713004368596</v>
+        <v>0.7483148948397055</v>
       </c>
       <c r="BK14" t="n">
-        <v>73.92</v>
+        <v>74.83</v>
       </c>
       <c r="BL14" t="inlineStr">
         <is>
@@ -8119,7 +8119,7 @@
         </is>
       </c>
       <c r="BM14" t="n">
-        <v>5.712771167651334</v>
+        <v>5.731840899604551</v>
       </c>
     </row>
     <row r="15">
@@ -8311,21 +8311,21 @@
         <v>0.5457628998540878</v>
       </c>
       <c r="BI15" t="n">
-        <v>0.8952454008765773</v>
+        <v>0.687873057663476</v>
       </c>
       <c r="BJ15" t="n">
-        <v>0.8952454008765773</v>
+        <v>0.687873057663476</v>
       </c>
       <c r="BK15" t="n">
-        <v>89.52</v>
+        <v>68.79000000000001</v>
       </c>
       <c r="BL15" t="inlineStr">
         <is>
-          <t>Terdampak</t>
+          <t>Aman</t>
         </is>
       </c>
       <c r="BM15" t="n">
-        <v>4.034640742686214</v>
+        <v>3.745659054094092</v>
       </c>
     </row>
     <row r="16">
@@ -8517,13 +8517,13 @@
         <v>0.5855400437691201</v>
       </c>
       <c r="BI16" t="n">
-        <v>1</v>
+        <v>0.87281773447462</v>
       </c>
       <c r="BJ16" t="n">
-        <v>1</v>
+        <v>0.87281773447462</v>
       </c>
       <c r="BK16" t="n">
-        <v>100</v>
+        <v>87.28</v>
       </c>
       <c r="BL16" t="inlineStr">
         <is>
@@ -8531,7 +8531,7 @@
         </is>
       </c>
       <c r="BM16" t="n">
-        <v>4.18062048363638</v>
+        <v>4.003386888832819</v>
       </c>
     </row>
     <row r="17">
@@ -8724,13 +8724,13 @@
         <v>0</v>
       </c>
       <c r="BI17" t="n">
-        <v>0.9050311477000964</v>
+        <v>0.8899727494497126</v>
       </c>
       <c r="BJ17" t="n">
-        <v>0.9050311477000964</v>
+        <v>0.8899727494497126</v>
       </c>
       <c r="BK17" t="n">
-        <v>90.5</v>
+        <v>89</v>
       </c>
       <c r="BL17" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         </is>
       </c>
       <c r="BM17" t="n">
-        <v>5.797465793279306</v>
+        <v>5.767414291481368</v>
       </c>
     </row>
     <row r="18">
@@ -8930,13 +8930,13 @@
         <v>0.630476010645922</v>
       </c>
       <c r="BI18" t="n">
-        <v>0.5152535995865384</v>
+        <v>0.6616581935897982</v>
       </c>
       <c r="BJ18" t="n">
-        <v>0.5152535995865384</v>
+        <v>0.6616581935897982</v>
       </c>
       <c r="BK18" t="n">
-        <v>51.53</v>
+        <v>66.17</v>
       </c>
       <c r="BL18" t="inlineStr">
         <is>
@@ -8944,7 +8944,7 @@
         </is>
       </c>
       <c r="BM18" t="n">
-        <v>5.019600811017189</v>
+        <v>5.311775174236949</v>
       </c>
     </row>
     <row r="19">
@@ -9136,13 +9136,13 @@
         <v>0.5185832348124723</v>
       </c>
       <c r="BI19" t="n">
-        <v>0.7662004171515935</v>
+        <v>0.9033063884990742</v>
       </c>
       <c r="BJ19" t="n">
-        <v>0.7662004171515935</v>
+        <v>0.9033063884990742</v>
       </c>
       <c r="BK19" t="n">
-        <v>76.62</v>
+        <v>90.33</v>
       </c>
       <c r="BL19" t="inlineStr">
         <is>
@@ -9150,7 +9150,7 @@
         </is>
       </c>
       <c r="BM19" t="n">
-        <v>3.854811375262484</v>
+        <v>4.045874052677197</v>
       </c>
     </row>
     <row r="20">
@@ -9551,13 +9551,13 @@
         <v>0.6026726190182213</v>
       </c>
       <c r="BI21" t="n">
-        <v>0.9245011898209567</v>
+        <v>0.8442143114116659</v>
       </c>
       <c r="BJ21" t="n">
-        <v>0.9245011898209567</v>
+        <v>0.8442143114116659</v>
       </c>
       <c r="BK21" t="n">
-        <v>92.45</v>
+        <v>84.42</v>
       </c>
       <c r="BL21" t="inlineStr">
         <is>
@@ -9565,7 +9565,7 @@
         </is>
       </c>
       <c r="BM21" t="n">
-        <v>4.317854399105698</v>
+        <v>4.199315534311718</v>
       </c>
     </row>
     <row r="22">
@@ -9757,13 +9757,13 @@
         <v>0.6579187965525378</v>
       </c>
       <c r="BI22" t="n">
-        <v>0.4333148331112077</v>
+        <v>0.69643448640933</v>
       </c>
       <c r="BJ22" t="n">
-        <v>0.4333148331112077</v>
+        <v>0.69643448640933</v>
       </c>
       <c r="BK22" t="n">
-        <v>43.33</v>
+        <v>69.64</v>
       </c>
       <c r="BL22" t="inlineStr">
         <is>
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="BM22" t="n">
-        <v>4.856078572654853</v>
+        <v>5.381176966433883</v>
       </c>
     </row>
   </sheetData>
@@ -9848,7 +9848,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-12-28T14:22:27.961484</t>
+          <t>2025-12-28T20:41:29.239965</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -9858,27 +9858,27 @@
         <v>21</v>
       </c>
       <c r="D2" t="n">
-        <v>-7.929338275286627</v>
+        <v>-7.966185953960982</v>
       </c>
       <c r="E2" t="n">
-        <v>114.2112030406566</v>
+        <v>114.2822248235597</v>
       </c>
       <c r="F2" t="n">
-        <v>1.12527882297519</v>
+        <v>71.59016724906428</v>
       </c>
       <c r="G2" t="n">
-        <v>6.746586267146307</v>
+        <v>8.382549466971318</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.3906193454938366</v>
+        <v>0.4387497982080247</v>
       </c>
       <c r="J2" t="n">
-        <v>1.223314833111208</v>
+        <v>1.48643448640933</v>
       </c>
     </row>
   </sheetData>

--- a/output/ga_results/ga_report.xlsx
+++ b/output/ga_results/ga_report.xlsx
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.8899727494497126</v>
+        <v>1</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.8899727494497126</v>
+        <v>1</v>
       </c>
       <c r="BK2" t="n">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="BL2" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
         </is>
       </c>
       <c r="BM2" t="n">
-        <v>5.767414291481368</v>
+        <v>5.98699170355107</v>
       </c>
     </row>
     <row r="3">
@@ -1162,13 +1162,13 @@
         <v>0</v>
       </c>
       <c r="BI3" t="n">
-        <v>0.9002753166300426</v>
+        <v>0.9322687188161658</v>
       </c>
       <c r="BJ3" t="n">
-        <v>0.9002753166300426</v>
+        <v>0.9322687188161658</v>
       </c>
       <c r="BK3" t="n">
-        <v>90.03</v>
+        <v>93.23</v>
       </c>
       <c r="BL3" t="inlineStr">
         <is>
@@ -1176,7 +1176,7 @@
         </is>
       </c>
       <c r="BM3" t="n">
-        <v>5.787974752892673</v>
+        <v>5.851822830711569</v>
       </c>
     </row>
     <row r="4">
@@ -1572,13 +1572,13 @@
         <v>0.6928203230275506</v>
       </c>
       <c r="BI5" t="n">
-        <v>0.08952318652246555</v>
+        <v>0.06516278616970395</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0.08952318652246555</v>
+        <v>0.06516278616970395</v>
       </c>
       <c r="BK5" t="n">
-        <v>8.949999999999999</v>
+        <v>6.52</v>
       </c>
       <c r="BL5" t="inlineStr">
         <is>
@@ -1778,13 +1778,13 @@
         <v>0.6328506932918696</v>
       </c>
       <c r="BI6" t="n">
-        <v>0.747479468576086</v>
+        <v>0.8660260372187892</v>
       </c>
       <c r="BJ6" t="n">
-        <v>0.747479468576086</v>
+        <v>0.8660260372187892</v>
       </c>
       <c r="BK6" t="n">
-        <v>74.75</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="BL6" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="BM6" t="n">
-        <v>3.828722981566528</v>
+        <v>3.993922385944024</v>
       </c>
     </row>
     <row r="7">
@@ -1983,13 +1983,13 @@
         <v>0.584807660688538</v>
       </c>
       <c r="BI7" t="n">
-        <v>0.7705338303666216</v>
+        <v>0.7804556995701294</v>
       </c>
       <c r="BJ7" t="n">
-        <v>0.7705338303666216</v>
+        <v>0.7804556995701294</v>
       </c>
       <c r="BK7" t="n">
-        <v>77.05</v>
+        <v>78.05</v>
       </c>
       <c r="BL7" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         </is>
       </c>
       <c r="BM7" t="n">
-        <v>3.860850160612753</v>
+        <v>3.874676683822134</v>
       </c>
     </row>
     <row r="8">
@@ -2189,21 +2189,21 @@
         <v>0.5457628998540878</v>
       </c>
       <c r="BI8" t="n">
-        <v>0.687873057663476</v>
+        <v>0.955342012406263</v>
       </c>
       <c r="BJ8" t="n">
-        <v>0.687873057663476</v>
+        <v>0.955342012406263</v>
       </c>
       <c r="BK8" t="n">
-        <v>68.79000000000001</v>
+        <v>95.53</v>
       </c>
       <c r="BL8" t="inlineStr">
         <is>
-          <t>Aman</t>
+          <t>Terdampak</t>
         </is>
       </c>
       <c r="BM8" t="n">
-        <v>3.745659054094092</v>
+        <v>4.118387784405595</v>
       </c>
     </row>
     <row r="9">
@@ -2394,13 +2394,13 @@
         <v>0.4217311262607299</v>
       </c>
       <c r="BI9" t="n">
-        <v>0.9427106912047838</v>
+        <v>0.8002671504870114</v>
       </c>
       <c r="BJ9" t="n">
-        <v>0.9427106912047838</v>
+        <v>0.8002671504870114</v>
       </c>
       <c r="BK9" t="n">
-        <v>94.27</v>
+        <v>80.03</v>
       </c>
       <c r="BL9" t="inlineStr">
         <is>
@@ -2408,7 +2408,7 @@
         </is>
       </c>
       <c r="BM9" t="n">
-        <v>4.100785531022163</v>
+        <v>3.902284736326692</v>
       </c>
     </row>
     <row r="10">
@@ -2601,13 +2601,13 @@
         <v>0.4777177887773147</v>
       </c>
       <c r="BI10" t="n">
-        <v>0.7483148948397055</v>
+        <v>0.8449251380807483</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0.7483148948397055</v>
+        <v>0.8449251380807483</v>
       </c>
       <c r="BK10" t="n">
-        <v>74.83</v>
+        <v>84.48999999999999</v>
       </c>
       <c r="BL10" t="inlineStr">
         <is>
@@ -2615,7 +2615,7 @@
         </is>
       </c>
       <c r="BM10" t="n">
-        <v>5.731840899604551</v>
+        <v>5.933329653520449</v>
       </c>
     </row>
     <row r="11">
@@ -2807,13 +2807,13 @@
         <v>0.6026726190182244</v>
       </c>
       <c r="BI11" t="n">
-        <v>0.8468279593549773</v>
+        <v>0.75847981791585</v>
       </c>
       <c r="BJ11" t="n">
-        <v>0.8468279593549773</v>
+        <v>0.75847981791585</v>
       </c>
       <c r="BK11" t="n">
-        <v>84.68000000000001</v>
+        <v>75.84999999999999</v>
       </c>
       <c r="BL11" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="BM11" t="n">
-        <v>5.93729814665955</v>
+        <v>5.753040698047799</v>
       </c>
     </row>
     <row r="12">
@@ -3013,13 +3013,13 @@
         <v>0.5855400437691201</v>
       </c>
       <c r="BI12" t="n">
-        <v>0.87281773447462</v>
+        <v>0.8233404440771093</v>
       </c>
       <c r="BJ12" t="n">
-        <v>0.87281773447462</v>
+        <v>0.8233404440771093</v>
       </c>
       <c r="BK12" t="n">
-        <v>87.28</v>
+        <v>82.33</v>
       </c>
       <c r="BL12" t="inlineStr">
         <is>
@@ -3027,7 +3027,7 @@
         </is>
       </c>
       <c r="BM12" t="n">
-        <v>4.003386888832819</v>
+        <v>3.934438297595932</v>
       </c>
     </row>
     <row r="13">
@@ -3220,21 +3220,21 @@
         <v>0.6244997998398401</v>
       </c>
       <c r="BI13" t="n">
-        <v>0.7066689309934173</v>
+        <v>0.6775390761516846</v>
       </c>
       <c r="BJ13" t="n">
-        <v>0.7066689309934173</v>
+        <v>0.6775390761516846</v>
       </c>
       <c r="BK13" t="n">
-        <v>70.67</v>
+        <v>67.75</v>
       </c>
       <c r="BL13" t="inlineStr">
         <is>
-          <t>Terdampak</t>
+          <t>Aman</t>
         </is>
       </c>
       <c r="BM13" t="n">
-        <v>3.332300333166802</v>
+        <v>3.296437275116855</v>
       </c>
     </row>
     <row r="14">
@@ -3632,13 +3632,13 @@
         <v>0.707359274242687</v>
       </c>
       <c r="BI15" t="n">
-        <v>0.4283952460128725</v>
+        <v>0.5635407836991131</v>
       </c>
       <c r="BJ15" t="n">
-        <v>0.4283952460128725</v>
+        <v>0.5635407836991131</v>
       </c>
       <c r="BK15" t="n">
-        <v>42.84</v>
+        <v>56.35</v>
       </c>
       <c r="BL15" t="inlineStr">
         <is>
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="BM15" t="n">
-        <v>4.846260730273976</v>
+        <v>5.115965801240466</v>
       </c>
     </row>
     <row r="16">
@@ -3838,13 +3838,13 @@
         <v>0.6579187965525378</v>
       </c>
       <c r="BI16" t="n">
-        <v>0.69643448640933</v>
+        <v>0.6546605430963264</v>
       </c>
       <c r="BJ16" t="n">
-        <v>0.69643448640933</v>
+        <v>0.6546605430963264</v>
       </c>
       <c r="BK16" t="n">
-        <v>69.64</v>
+        <v>65.47</v>
       </c>
       <c r="BL16" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         </is>
       </c>
       <c r="BM16" t="n">
-        <v>5.381176966433883</v>
+        <v>5.297810215754027</v>
       </c>
     </row>
     <row r="17">
@@ -4044,13 +4044,13 @@
         <v>0.6447590912226693</v>
       </c>
       <c r="BI17" t="n">
-        <v>0.4055282191110318</v>
+        <v>0.4482987068515692</v>
       </c>
       <c r="BJ17" t="n">
-        <v>0.4055282191110318</v>
+        <v>0.4482987068515692</v>
       </c>
       <c r="BK17" t="n">
-        <v>40.55</v>
+        <v>44.83</v>
       </c>
       <c r="BL17" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         </is>
       </c>
       <c r="BM17" t="n">
-        <v>4.800625830158576</v>
+        <v>4.885981348578386</v>
       </c>
     </row>
     <row r="18">
@@ -4250,13 +4250,13 @@
         <v>0.630476010645922</v>
       </c>
       <c r="BI18" t="n">
-        <v>0.6616581935897982</v>
+        <v>0.3884902514512227</v>
       </c>
       <c r="BJ18" t="n">
-        <v>0.6616581935897982</v>
+        <v>0.3884902514512227</v>
       </c>
       <c r="BK18" t="n">
-        <v>66.17</v>
+        <v>38.85</v>
       </c>
       <c r="BL18" t="inlineStr">
         <is>
@@ -4264,7 +4264,7 @@
         </is>
       </c>
       <c r="BM18" t="n">
-        <v>5.311775174236949</v>
+        <v>4.766623773150359</v>
       </c>
     </row>
     <row r="19">
@@ -4456,13 +4456,13 @@
         <v>0.6026726190182213</v>
       </c>
       <c r="BI19" t="n">
-        <v>0.8442143114116659</v>
+        <v>0.955342012406263</v>
       </c>
       <c r="BJ19" t="n">
-        <v>0.8442143114116659</v>
+        <v>0.955342012406263</v>
       </c>
       <c r="BK19" t="n">
-        <v>84.42</v>
+        <v>95.53</v>
       </c>
       <c r="BL19" t="inlineStr">
         <is>
@@ -4470,7 +4470,7 @@
         </is>
       </c>
       <c r="BM19" t="n">
-        <v>4.199315534311718</v>
+        <v>4.36338906393521</v>
       </c>
     </row>
     <row r="20">
@@ -4662,13 +4662,13 @@
         <v>0.5185832348124723</v>
       </c>
       <c r="BI20" t="n">
-        <v>0.9033063884990742</v>
+        <v>0.9322687188161658</v>
       </c>
       <c r="BJ20" t="n">
-        <v>0.9033063884990742</v>
+        <v>0.9322687188161658</v>
       </c>
       <c r="BK20" t="n">
-        <v>90.33</v>
+        <v>93.23</v>
       </c>
       <c r="BL20" t="inlineStr">
         <is>
@@ -4676,7 +4676,7 @@
         </is>
       </c>
       <c r="BM20" t="n">
-        <v>4.045874052677197</v>
+        <v>4.086234223136356</v>
       </c>
     </row>
     <row r="21">
@@ -5080,13 +5080,13 @@
         <v>0.4452126297784946</v>
       </c>
       <c r="BI22" t="n">
-        <v>0.8164047918198394</v>
+        <v>0.9126564192645831</v>
       </c>
       <c r="BJ22" t="n">
-        <v>0.8164047918198394</v>
+        <v>0.9126564192645831</v>
       </c>
       <c r="BK22" t="n">
-        <v>81.64</v>
+        <v>91.27</v>
       </c>
       <c r="BL22" t="inlineStr">
         <is>
@@ -5094,7 +5094,7 @@
         </is>
       </c>
       <c r="BM22" t="n">
-        <v>4.634331435191637</v>
+        <v>4.792711347074723</v>
       </c>
     </row>
   </sheetData>
@@ -5632,13 +5632,13 @@
         <v>0.6447590912226693</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.4055282191110318</v>
+        <v>0.4482987068515692</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.4055282191110318</v>
+        <v>0.4482987068515692</v>
       </c>
       <c r="BK2" t="n">
-        <v>40.55</v>
+        <v>44.83</v>
       </c>
       <c r="BL2" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="BM2" t="n">
-        <v>4.800625830158576</v>
+        <v>4.885981348578386</v>
       </c>
     </row>
     <row r="3">
@@ -5837,13 +5837,13 @@
         <v>0.584807660688538</v>
       </c>
       <c r="BI3" t="n">
-        <v>0.7705338303666216</v>
+        <v>0.7804556995701294</v>
       </c>
       <c r="BJ3" t="n">
-        <v>0.7705338303666216</v>
+        <v>0.7804556995701294</v>
       </c>
       <c r="BK3" t="n">
-        <v>77.05</v>
+        <v>78.05</v>
       </c>
       <c r="BL3" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         </is>
       </c>
       <c r="BM3" t="n">
-        <v>3.860850160612753</v>
+        <v>3.874676683822134</v>
       </c>
     </row>
     <row r="4">
@@ -6247,13 +6247,13 @@
         <v>0.6328506932918696</v>
       </c>
       <c r="BI5" t="n">
-        <v>0.747479468576086</v>
+        <v>0.8660260372187892</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0.747479468576086</v>
+        <v>0.8660260372187892</v>
       </c>
       <c r="BK5" t="n">
-        <v>74.75</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="BL5" t="inlineStr">
         <is>
@@ -6261,7 +6261,7 @@
         </is>
       </c>
       <c r="BM5" t="n">
-        <v>3.828722981566528</v>
+        <v>3.993922385944024</v>
       </c>
     </row>
     <row r="6">
@@ -6453,13 +6453,13 @@
         <v>0.6026726190182244</v>
       </c>
       <c r="BI6" t="n">
-        <v>0.8468279593549773</v>
+        <v>0.75847981791585</v>
       </c>
       <c r="BJ6" t="n">
-        <v>0.8468279593549773</v>
+        <v>0.75847981791585</v>
       </c>
       <c r="BK6" t="n">
-        <v>84.68000000000001</v>
+        <v>75.84999999999999</v>
       </c>
       <c r="BL6" t="inlineStr">
         <is>
@@ -6467,7 +6467,7 @@
         </is>
       </c>
       <c r="BM6" t="n">
-        <v>5.93729814665955</v>
+        <v>5.753040698047799</v>
       </c>
     </row>
     <row r="7">
@@ -6868,13 +6868,13 @@
         <v>0.4452126297784946</v>
       </c>
       <c r="BI8" t="n">
-        <v>0.8164047918198394</v>
+        <v>0.9126564192645831</v>
       </c>
       <c r="BJ8" t="n">
-        <v>0.8164047918198394</v>
+        <v>0.9126564192645831</v>
       </c>
       <c r="BK8" t="n">
-        <v>81.64</v>
+        <v>91.27</v>
       </c>
       <c r="BL8" t="inlineStr">
         <is>
@@ -6882,7 +6882,7 @@
         </is>
       </c>
       <c r="BM8" t="n">
-        <v>4.634331435191637</v>
+        <v>4.792711347074723</v>
       </c>
     </row>
     <row r="9">
@@ -7074,13 +7074,13 @@
         <v>0</v>
       </c>
       <c r="BI9" t="n">
-        <v>0.9002753166300426</v>
+        <v>0.9322687188161658</v>
       </c>
       <c r="BJ9" t="n">
-        <v>0.9002753166300426</v>
+        <v>0.9322687188161658</v>
       </c>
       <c r="BK9" t="n">
-        <v>90.03</v>
+        <v>93.23</v>
       </c>
       <c r="BL9" t="inlineStr">
         <is>
@@ -7088,7 +7088,7 @@
         </is>
       </c>
       <c r="BM9" t="n">
-        <v>5.787974752892673</v>
+        <v>5.851822830711569</v>
       </c>
     </row>
     <row r="10">
@@ -7280,13 +7280,13 @@
         <v>0.6928203230275506</v>
       </c>
       <c r="BI10" t="n">
-        <v>0.08952318652246555</v>
+        <v>0.06516278616970395</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0.08952318652246555</v>
+        <v>0.06516278616970395</v>
       </c>
       <c r="BK10" t="n">
-        <v>8.949999999999999</v>
+        <v>6.52</v>
       </c>
       <c r="BL10" t="inlineStr">
         <is>
@@ -7485,13 +7485,13 @@
         <v>0.4217311262607299</v>
       </c>
       <c r="BI11" t="n">
-        <v>0.9427106912047838</v>
+        <v>0.8002671504870114</v>
       </c>
       <c r="BJ11" t="n">
-        <v>0.9427106912047838</v>
+        <v>0.8002671504870114</v>
       </c>
       <c r="BK11" t="n">
-        <v>94.27</v>
+        <v>80.03</v>
       </c>
       <c r="BL11" t="inlineStr">
         <is>
@@ -7499,7 +7499,7 @@
         </is>
       </c>
       <c r="BM11" t="n">
-        <v>4.100785531022163</v>
+        <v>3.902284736326692</v>
       </c>
     </row>
     <row r="12">
@@ -7691,13 +7691,13 @@
         <v>0.707359274242687</v>
       </c>
       <c r="BI12" t="n">
-        <v>0.4283952460128725</v>
+        <v>0.5635407836991131</v>
       </c>
       <c r="BJ12" t="n">
-        <v>0.4283952460128725</v>
+        <v>0.5635407836991131</v>
       </c>
       <c r="BK12" t="n">
-        <v>42.84</v>
+        <v>56.35</v>
       </c>
       <c r="BL12" t="inlineStr">
         <is>
@@ -7705,7 +7705,7 @@
         </is>
       </c>
       <c r="BM12" t="n">
-        <v>4.846260730273976</v>
+        <v>5.115965801240466</v>
       </c>
     </row>
     <row r="13">
@@ -7898,21 +7898,21 @@
         <v>0.6244997998398401</v>
       </c>
       <c r="BI13" t="n">
-        <v>0.7066689309934173</v>
+        <v>0.6775390761516846</v>
       </c>
       <c r="BJ13" t="n">
-        <v>0.7066689309934173</v>
+        <v>0.6775390761516846</v>
       </c>
       <c r="BK13" t="n">
-        <v>70.67</v>
+        <v>67.75</v>
       </c>
       <c r="BL13" t="inlineStr">
         <is>
-          <t>Terdampak</t>
+          <t>Aman</t>
         </is>
       </c>
       <c r="BM13" t="n">
-        <v>3.332300333166802</v>
+        <v>3.296437275116855</v>
       </c>
     </row>
     <row r="14">
@@ -8105,13 +8105,13 @@
         <v>0.4777177887773147</v>
       </c>
       <c r="BI14" t="n">
-        <v>0.7483148948397055</v>
+        <v>0.8449251380807483</v>
       </c>
       <c r="BJ14" t="n">
-        <v>0.7483148948397055</v>
+        <v>0.8449251380807483</v>
       </c>
       <c r="BK14" t="n">
-        <v>74.83</v>
+        <v>84.48999999999999</v>
       </c>
       <c r="BL14" t="inlineStr">
         <is>
@@ -8119,7 +8119,7 @@
         </is>
       </c>
       <c r="BM14" t="n">
-        <v>5.731840899604551</v>
+        <v>5.933329653520449</v>
       </c>
     </row>
     <row r="15">
@@ -8311,21 +8311,21 @@
         <v>0.5457628998540878</v>
       </c>
       <c r="BI15" t="n">
-        <v>0.687873057663476</v>
+        <v>0.955342012406263</v>
       </c>
       <c r="BJ15" t="n">
-        <v>0.687873057663476</v>
+        <v>0.955342012406263</v>
       </c>
       <c r="BK15" t="n">
-        <v>68.79000000000001</v>
+        <v>95.53</v>
       </c>
       <c r="BL15" t="inlineStr">
         <is>
-          <t>Aman</t>
+          <t>Terdampak</t>
         </is>
       </c>
       <c r="BM15" t="n">
-        <v>3.745659054094092</v>
+        <v>4.118387784405595</v>
       </c>
     </row>
     <row r="16">
@@ -8517,13 +8517,13 @@
         <v>0.5855400437691201</v>
       </c>
       <c r="BI16" t="n">
-        <v>0.87281773447462</v>
+        <v>0.8233404440771093</v>
       </c>
       <c r="BJ16" t="n">
-        <v>0.87281773447462</v>
+        <v>0.8233404440771093</v>
       </c>
       <c r="BK16" t="n">
-        <v>87.28</v>
+        <v>82.33</v>
       </c>
       <c r="BL16" t="inlineStr">
         <is>
@@ -8531,7 +8531,7 @@
         </is>
       </c>
       <c r="BM16" t="n">
-        <v>4.003386888832819</v>
+        <v>3.934438297595932</v>
       </c>
     </row>
     <row r="17">
@@ -8724,13 +8724,13 @@
         <v>0</v>
       </c>
       <c r="BI17" t="n">
-        <v>0.8899727494497126</v>
+        <v>1</v>
       </c>
       <c r="BJ17" t="n">
-        <v>0.8899727494497126</v>
+        <v>1</v>
       </c>
       <c r="BK17" t="n">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="BL17" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         </is>
       </c>
       <c r="BM17" t="n">
-        <v>5.767414291481368</v>
+        <v>5.98699170355107</v>
       </c>
     </row>
     <row r="18">
@@ -8930,13 +8930,13 @@
         <v>0.630476010645922</v>
       </c>
       <c r="BI18" t="n">
-        <v>0.6616581935897982</v>
+        <v>0.3884902514512227</v>
       </c>
       <c r="BJ18" t="n">
-        <v>0.6616581935897982</v>
+        <v>0.3884902514512227</v>
       </c>
       <c r="BK18" t="n">
-        <v>66.17</v>
+        <v>38.85</v>
       </c>
       <c r="BL18" t="inlineStr">
         <is>
@@ -8944,7 +8944,7 @@
         </is>
       </c>
       <c r="BM18" t="n">
-        <v>5.311775174236949</v>
+        <v>4.766623773150359</v>
       </c>
     </row>
     <row r="19">
@@ -9136,13 +9136,13 @@
         <v>0.5185832348124723</v>
       </c>
       <c r="BI19" t="n">
-        <v>0.9033063884990742</v>
+        <v>0.9322687188161658</v>
       </c>
       <c r="BJ19" t="n">
-        <v>0.9033063884990742</v>
+        <v>0.9322687188161658</v>
       </c>
       <c r="BK19" t="n">
-        <v>90.33</v>
+        <v>93.23</v>
       </c>
       <c r="BL19" t="inlineStr">
         <is>
@@ -9150,7 +9150,7 @@
         </is>
       </c>
       <c r="BM19" t="n">
-        <v>4.045874052677197</v>
+        <v>4.086234223136356</v>
       </c>
     </row>
     <row r="20">
@@ -9551,13 +9551,13 @@
         <v>0.6026726190182213</v>
       </c>
       <c r="BI21" t="n">
-        <v>0.8442143114116659</v>
+        <v>0.955342012406263</v>
       </c>
       <c r="BJ21" t="n">
-        <v>0.8442143114116659</v>
+        <v>0.955342012406263</v>
       </c>
       <c r="BK21" t="n">
-        <v>84.42</v>
+        <v>95.53</v>
       </c>
       <c r="BL21" t="inlineStr">
         <is>
@@ -9565,7 +9565,7 @@
         </is>
       </c>
       <c r="BM21" t="n">
-        <v>4.199315534311718</v>
+        <v>4.36338906393521</v>
       </c>
     </row>
     <row r="22">
@@ -9757,13 +9757,13 @@
         <v>0.6579187965525378</v>
       </c>
       <c r="BI22" t="n">
-        <v>0.69643448640933</v>
+        <v>0.6546605430963264</v>
       </c>
       <c r="BJ22" t="n">
-        <v>0.69643448640933</v>
+        <v>0.6546605430963264</v>
       </c>
       <c r="BK22" t="n">
-        <v>69.64</v>
+        <v>65.47</v>
       </c>
       <c r="BL22" t="inlineStr">
         <is>
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="BM22" t="n">
-        <v>5.381176966433883</v>
+        <v>5.297810215754027</v>
       </c>
     </row>
   </sheetData>
@@ -9848,7 +9848,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-12-28T20:41:29.239965</t>
+          <t>2025-12-29T23:33:19.736701</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -9858,16 +9858,16 @@
         <v>21</v>
       </c>
       <c r="D2" t="n">
-        <v>-7.966185953960982</v>
+        <v>-7.994398215976737</v>
       </c>
       <c r="E2" t="n">
-        <v>114.2822248235597</v>
+        <v>114.2823584470765</v>
       </c>
       <c r="F2" t="n">
-        <v>71.59016724906428</v>
+        <v>93.51743294051084</v>
       </c>
       <c r="G2" t="n">
-        <v>8.382549466971318</v>
+        <v>7.982748640550591</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -9875,10 +9875,10 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.4387497982080247</v>
+        <v>0.4041904767157775</v>
       </c>
       <c r="J2" t="n">
-        <v>1.48643448640933</v>
+        <v>1.444660543096326</v>
       </c>
     </row>
   </sheetData>

--- a/output/ga_results/ga_report.xlsx
+++ b/output/ga_results/ga_report.xlsx
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="BI2" t="n">
-        <v>1</v>
+        <v>0.8975343106629416</v>
       </c>
       <c r="BJ2" t="n">
-        <v>1</v>
+        <v>0.8975343106629416</v>
       </c>
       <c r="BK2" t="n">
-        <v>100</v>
+        <v>89.75</v>
       </c>
       <c r="BL2" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
         </is>
       </c>
       <c r="BM2" t="n">
-        <v>5.98699170355107</v>
+        <v>5.782504626231201</v>
       </c>
     </row>
     <row r="3">
@@ -1162,13 +1162,13 @@
         <v>0</v>
       </c>
       <c r="BI3" t="n">
-        <v>0.9322687188161658</v>
+        <v>0.9259739153066067</v>
       </c>
       <c r="BJ3" t="n">
-        <v>0.9322687188161658</v>
+        <v>0.9259739153066067</v>
       </c>
       <c r="BK3" t="n">
-        <v>93.23</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="BL3" t="inlineStr">
         <is>
@@ -1176,7 +1176,7 @@
         </is>
       </c>
       <c r="BM3" t="n">
-        <v>5.851822830711569</v>
+        <v>5.839260518582497</v>
       </c>
     </row>
     <row r="4">
@@ -1366,13 +1366,13 @@
         <v>0.6928203230275504</v>
       </c>
       <c r="BI4" t="n">
-        <v>0.0001</v>
+        <v>0.251511556867749</v>
       </c>
       <c r="BJ4" t="n">
-        <v>0.0001</v>
+        <v>0.251511556867749</v>
       </c>
       <c r="BK4" t="n">
-        <v>0.01</v>
+        <v>25.15</v>
       </c>
       <c r="BL4" t="inlineStr">
         <is>
@@ -1572,13 +1572,13 @@
         <v>0.6928203230275506</v>
       </c>
       <c r="BI5" t="n">
-        <v>0.06516278616970395</v>
+        <v>0.0001</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0.06516278616970395</v>
+        <v>0.0001</v>
       </c>
       <c r="BK5" t="n">
-        <v>6.52</v>
+        <v>0.01</v>
       </c>
       <c r="BL5" t="inlineStr">
         <is>
@@ -1778,13 +1778,13 @@
         <v>0.6328506932918696</v>
       </c>
       <c r="BI6" t="n">
-        <v>0.8660260372187892</v>
+        <v>0.8548821979343928</v>
       </c>
       <c r="BJ6" t="n">
-        <v>0.8660260372187892</v>
+        <v>0.8548821979343928</v>
       </c>
       <c r="BK6" t="n">
-        <v>86.59999999999999</v>
+        <v>85.48999999999999</v>
       </c>
       <c r="BL6" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="BM6" t="n">
-        <v>3.993922385944024</v>
+        <v>3.978392998351124</v>
       </c>
     </row>
     <row r="7">
@@ -1983,13 +1983,13 @@
         <v>0.584807660688538</v>
       </c>
       <c r="BI7" t="n">
-        <v>0.7804556995701294</v>
+        <v>0.7395082100789241</v>
       </c>
       <c r="BJ7" t="n">
-        <v>0.7804556995701294</v>
+        <v>0.7395082100789241</v>
       </c>
       <c r="BK7" t="n">
-        <v>78.05</v>
+        <v>73.95</v>
       </c>
       <c r="BL7" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         </is>
       </c>
       <c r="BM7" t="n">
-        <v>3.874676683822134</v>
+        <v>3.817614712715328</v>
       </c>
     </row>
     <row r="8">
@@ -2189,13 +2189,13 @@
         <v>0.5457628998540878</v>
       </c>
       <c r="BI8" t="n">
-        <v>0.955342012406263</v>
+        <v>0.761243694776387</v>
       </c>
       <c r="BJ8" t="n">
-        <v>0.955342012406263</v>
+        <v>0.761243694776387</v>
       </c>
       <c r="BK8" t="n">
-        <v>95.53</v>
+        <v>76.12</v>
       </c>
       <c r="BL8" t="inlineStr">
         <is>
@@ -2203,7 +2203,7 @@
         </is>
       </c>
       <c r="BM8" t="n">
-        <v>4.118387784405595</v>
+        <v>3.847903983564655</v>
       </c>
     </row>
     <row r="9">
@@ -2394,13 +2394,13 @@
         <v>0.4217311262607299</v>
       </c>
       <c r="BI9" t="n">
-        <v>0.8002671504870114</v>
+        <v>0.8626015846940868</v>
       </c>
       <c r="BJ9" t="n">
-        <v>0.8002671504870114</v>
+        <v>0.8626015846940868</v>
       </c>
       <c r="BK9" t="n">
-        <v>80.03</v>
+        <v>86.26000000000001</v>
       </c>
       <c r="BL9" t="inlineStr">
         <is>
@@ -2408,7 +2408,7 @@
         </is>
       </c>
       <c r="BM9" t="n">
-        <v>3.902284736326692</v>
+        <v>3.989150273820687</v>
       </c>
     </row>
     <row r="10">
@@ -2601,13 +2601,13 @@
         <v>0.4777177887773147</v>
       </c>
       <c r="BI10" t="n">
-        <v>0.8449251380807483</v>
+        <v>0.8342082463533553</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0.8449251380807483</v>
+        <v>0.8342082463533553</v>
       </c>
       <c r="BK10" t="n">
-        <v>84.48999999999999</v>
+        <v>83.42</v>
       </c>
       <c r="BL10" t="inlineStr">
         <is>
@@ -2615,7 +2615,7 @@
         </is>
       </c>
       <c r="BM10" t="n">
-        <v>5.933329653520449</v>
+        <v>5.910978678224625</v>
       </c>
     </row>
     <row r="11">
@@ -2807,13 +2807,13 @@
         <v>0.6026726190182244</v>
       </c>
       <c r="BI11" t="n">
-        <v>0.75847981791585</v>
+        <v>0.7139596494856451</v>
       </c>
       <c r="BJ11" t="n">
-        <v>0.75847981791585</v>
+        <v>0.7139596494856451</v>
       </c>
       <c r="BK11" t="n">
-        <v>75.84999999999999</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="BL11" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="BM11" t="n">
-        <v>5.753040698047799</v>
+        <v>5.660190157978803</v>
       </c>
     </row>
     <row r="12">
@@ -3013,13 +3013,13 @@
         <v>0.5855400437691201</v>
       </c>
       <c r="BI12" t="n">
-        <v>0.8233404440771093</v>
+        <v>0.9199718003314667</v>
       </c>
       <c r="BJ12" t="n">
-        <v>0.8233404440771093</v>
+        <v>0.9199718003314667</v>
       </c>
       <c r="BK12" t="n">
-        <v>82.33</v>
+        <v>92</v>
       </c>
       <c r="BL12" t="inlineStr">
         <is>
@@ -3027,7 +3027,7 @@
         </is>
       </c>
       <c r="BM12" t="n">
-        <v>3.934438297595932</v>
+        <v>4.069097973368776</v>
       </c>
     </row>
     <row r="13">
@@ -3220,13 +3220,13 @@
         <v>0.6244997998398401</v>
       </c>
       <c r="BI13" t="n">
-        <v>0.6775390761516846</v>
+        <v>0.6800692474526799</v>
       </c>
       <c r="BJ13" t="n">
-        <v>0.6775390761516846</v>
+        <v>0.6800692474526799</v>
       </c>
       <c r="BK13" t="n">
-        <v>67.75</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="BL13" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         </is>
       </c>
       <c r="BM13" t="n">
-        <v>3.296437275116855</v>
+        <v>3.299552281378881</v>
       </c>
     </row>
     <row r="14">
@@ -3632,13 +3632,13 @@
         <v>0.707359274242687</v>
       </c>
       <c r="BI15" t="n">
-        <v>0.5635407836991131</v>
+        <v>0.5563274019391721</v>
       </c>
       <c r="BJ15" t="n">
-        <v>0.5635407836991131</v>
+        <v>0.5563274019391721</v>
       </c>
       <c r="BK15" t="n">
-        <v>56.35</v>
+        <v>55.63</v>
       </c>
       <c r="BL15" t="inlineStr">
         <is>
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="BM15" t="n">
-        <v>5.115965801240466</v>
+        <v>5.101570315656695</v>
       </c>
     </row>
     <row r="16">
@@ -3838,13 +3838,13 @@
         <v>0.6579187965525378</v>
       </c>
       <c r="BI16" t="n">
-        <v>0.6546605430963264</v>
+        <v>0.6068919016003881</v>
       </c>
       <c r="BJ16" t="n">
-        <v>0.6546605430963264</v>
+        <v>0.6068919016003881</v>
       </c>
       <c r="BK16" t="n">
-        <v>65.47</v>
+        <v>60.69</v>
       </c>
       <c r="BL16" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         </is>
       </c>
       <c r="BM16" t="n">
-        <v>5.297810215754027</v>
+        <v>5.202480062311999</v>
       </c>
     </row>
     <row r="17">
@@ -4044,21 +4044,21 @@
         <v>0.6447590912226693</v>
       </c>
       <c r="BI17" t="n">
-        <v>0.4482987068515692</v>
+        <v>0.7435041105165291</v>
       </c>
       <c r="BJ17" t="n">
-        <v>0.4482987068515692</v>
+        <v>0.7435041105165291</v>
       </c>
       <c r="BK17" t="n">
-        <v>44.83</v>
+        <v>74.34999999999999</v>
       </c>
       <c r="BL17" t="inlineStr">
         <is>
-          <t>Aman</t>
+          <t>Terdampak</t>
         </is>
       </c>
       <c r="BM17" t="n">
-        <v>4.885981348578386</v>
+        <v>5.475112116106906</v>
       </c>
     </row>
     <row r="18">
@@ -4250,13 +4250,13 @@
         <v>0.630476010645922</v>
       </c>
       <c r="BI18" t="n">
-        <v>0.3884902514512227</v>
+        <v>0.5677565934530615</v>
       </c>
       <c r="BJ18" t="n">
-        <v>0.3884902514512227</v>
+        <v>0.5677565934530615</v>
       </c>
       <c r="BK18" t="n">
-        <v>38.85</v>
+        <v>56.78</v>
       </c>
       <c r="BL18" t="inlineStr">
         <is>
@@ -4264,7 +4264,7 @@
         </is>
       </c>
       <c r="BM18" t="n">
-        <v>4.766623773150359</v>
+        <v>5.124379140580679</v>
       </c>
     </row>
     <row r="19">
@@ -4456,13 +4456,13 @@
         <v>0.6026726190182213</v>
       </c>
       <c r="BI19" t="n">
-        <v>0.955342012406263</v>
+        <v>1</v>
       </c>
       <c r="BJ19" t="n">
-        <v>0.955342012406263</v>
+        <v>1</v>
       </c>
       <c r="BK19" t="n">
-        <v>95.53</v>
+        <v>100</v>
       </c>
       <c r="BL19" t="inlineStr">
         <is>
@@ -4470,7 +4470,7 @@
         </is>
       </c>
       <c r="BM19" t="n">
-        <v>4.36338906393521</v>
+        <v>4.429323962118182</v>
       </c>
     </row>
     <row r="20">
@@ -4662,13 +4662,13 @@
         <v>0.5185832348124723</v>
       </c>
       <c r="BI20" t="n">
-        <v>0.9322687188161658</v>
+        <v>0.8992978487504288</v>
       </c>
       <c r="BJ20" t="n">
-        <v>0.9322687188161658</v>
+        <v>0.8992978487504288</v>
       </c>
       <c r="BK20" t="n">
-        <v>93.23</v>
+        <v>89.93000000000001</v>
       </c>
       <c r="BL20" t="inlineStr">
         <is>
@@ -4676,7 +4676,7 @@
         </is>
       </c>
       <c r="BM20" t="n">
-        <v>4.086234223136356</v>
+        <v>4.040287991549645</v>
       </c>
     </row>
     <row r="21">
@@ -5080,13 +5080,13 @@
         <v>0.4452126297784946</v>
       </c>
       <c r="BI22" t="n">
-        <v>0.9126564192645831</v>
+        <v>0.9366276693874802</v>
       </c>
       <c r="BJ22" t="n">
-        <v>0.9126564192645831</v>
+        <v>0.9366276693874802</v>
       </c>
       <c r="BK22" t="n">
-        <v>91.27</v>
+        <v>93.66</v>
       </c>
       <c r="BL22" t="inlineStr">
         <is>
@@ -5094,7 +5094,7 @@
         </is>
       </c>
       <c r="BM22" t="n">
-        <v>4.792711347074723</v>
+        <v>4.832155505921507</v>
       </c>
     </row>
   </sheetData>
@@ -5632,21 +5632,21 @@
         <v>0.6447590912226693</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.4482987068515692</v>
+        <v>0.7435041105165291</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.4482987068515692</v>
+        <v>0.7435041105165291</v>
       </c>
       <c r="BK2" t="n">
-        <v>44.83</v>
+        <v>74.34999999999999</v>
       </c>
       <c r="BL2" t="inlineStr">
         <is>
-          <t>Aman</t>
+          <t>Terdampak</t>
         </is>
       </c>
       <c r="BM2" t="n">
-        <v>4.885981348578386</v>
+        <v>5.475112116106906</v>
       </c>
     </row>
     <row r="3">
@@ -5837,13 +5837,13 @@
         <v>0.584807660688538</v>
       </c>
       <c r="BI3" t="n">
-        <v>0.7804556995701294</v>
+        <v>0.7395082100789241</v>
       </c>
       <c r="BJ3" t="n">
-        <v>0.7804556995701294</v>
+        <v>0.7395082100789241</v>
       </c>
       <c r="BK3" t="n">
-        <v>78.05</v>
+        <v>73.95</v>
       </c>
       <c r="BL3" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         </is>
       </c>
       <c r="BM3" t="n">
-        <v>3.874676683822134</v>
+        <v>3.817614712715328</v>
       </c>
     </row>
     <row r="4">
@@ -6041,13 +6041,13 @@
         <v>0.6928203230275504</v>
       </c>
       <c r="BI4" t="n">
-        <v>0.0001</v>
+        <v>0.251511556867749</v>
       </c>
       <c r="BJ4" t="n">
-        <v>0.0001</v>
+        <v>0.251511556867749</v>
       </c>
       <c r="BK4" t="n">
-        <v>0.01</v>
+        <v>25.15</v>
       </c>
       <c r="BL4" t="inlineStr">
         <is>
@@ -6247,13 +6247,13 @@
         <v>0.6328506932918696</v>
       </c>
       <c r="BI5" t="n">
-        <v>0.8660260372187892</v>
+        <v>0.8548821979343928</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0.8660260372187892</v>
+        <v>0.8548821979343928</v>
       </c>
       <c r="BK5" t="n">
-        <v>86.59999999999999</v>
+        <v>85.48999999999999</v>
       </c>
       <c r="BL5" t="inlineStr">
         <is>
@@ -6261,7 +6261,7 @@
         </is>
       </c>
       <c r="BM5" t="n">
-        <v>3.993922385944024</v>
+        <v>3.978392998351124</v>
       </c>
     </row>
     <row r="6">
@@ -6453,13 +6453,13 @@
         <v>0.6026726190182244</v>
       </c>
       <c r="BI6" t="n">
-        <v>0.75847981791585</v>
+        <v>0.7139596494856451</v>
       </c>
       <c r="BJ6" t="n">
-        <v>0.75847981791585</v>
+        <v>0.7139596494856451</v>
       </c>
       <c r="BK6" t="n">
-        <v>75.84999999999999</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="BL6" t="inlineStr">
         <is>
@@ -6467,7 +6467,7 @@
         </is>
       </c>
       <c r="BM6" t="n">
-        <v>5.753040698047799</v>
+        <v>5.660190157978803</v>
       </c>
     </row>
     <row r="7">
@@ -6868,13 +6868,13 @@
         <v>0.4452126297784946</v>
       </c>
       <c r="BI8" t="n">
-        <v>0.9126564192645831</v>
+        <v>0.9366276693874802</v>
       </c>
       <c r="BJ8" t="n">
-        <v>0.9126564192645831</v>
+        <v>0.9366276693874802</v>
       </c>
       <c r="BK8" t="n">
-        <v>91.27</v>
+        <v>93.66</v>
       </c>
       <c r="BL8" t="inlineStr">
         <is>
@@ -6882,7 +6882,7 @@
         </is>
       </c>
       <c r="BM8" t="n">
-        <v>4.792711347074723</v>
+        <v>4.832155505921507</v>
       </c>
     </row>
     <row r="9">
@@ -7074,13 +7074,13 @@
         <v>0</v>
       </c>
       <c r="BI9" t="n">
-        <v>0.9322687188161658</v>
+        <v>0.9259739153066067</v>
       </c>
       <c r="BJ9" t="n">
-        <v>0.9322687188161658</v>
+        <v>0.9259739153066067</v>
       </c>
       <c r="BK9" t="n">
-        <v>93.23</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="BL9" t="inlineStr">
         <is>
@@ -7088,7 +7088,7 @@
         </is>
       </c>
       <c r="BM9" t="n">
-        <v>5.851822830711569</v>
+        <v>5.839260518582497</v>
       </c>
     </row>
     <row r="10">
@@ -7280,13 +7280,13 @@
         <v>0.6928203230275506</v>
       </c>
       <c r="BI10" t="n">
-        <v>0.06516278616970395</v>
+        <v>0.0001</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0.06516278616970395</v>
+        <v>0.0001</v>
       </c>
       <c r="BK10" t="n">
-        <v>6.52</v>
+        <v>0.01</v>
       </c>
       <c r="BL10" t="inlineStr">
         <is>
@@ -7485,13 +7485,13 @@
         <v>0.4217311262607299</v>
       </c>
       <c r="BI11" t="n">
-        <v>0.8002671504870114</v>
+        <v>0.8626015846940868</v>
       </c>
       <c r="BJ11" t="n">
-        <v>0.8002671504870114</v>
+        <v>0.8626015846940868</v>
       </c>
       <c r="BK11" t="n">
-        <v>80.03</v>
+        <v>86.26000000000001</v>
       </c>
       <c r="BL11" t="inlineStr">
         <is>
@@ -7499,7 +7499,7 @@
         </is>
       </c>
       <c r="BM11" t="n">
-        <v>3.902284736326692</v>
+        <v>3.989150273820687</v>
       </c>
     </row>
     <row r="12">
@@ -7691,13 +7691,13 @@
         <v>0.707359274242687</v>
       </c>
       <c r="BI12" t="n">
-        <v>0.5635407836991131</v>
+        <v>0.5563274019391721</v>
       </c>
       <c r="BJ12" t="n">
-        <v>0.5635407836991131</v>
+        <v>0.5563274019391721</v>
       </c>
       <c r="BK12" t="n">
-        <v>56.35</v>
+        <v>55.63</v>
       </c>
       <c r="BL12" t="inlineStr">
         <is>
@@ -7705,7 +7705,7 @@
         </is>
       </c>
       <c r="BM12" t="n">
-        <v>5.115965801240466</v>
+        <v>5.101570315656695</v>
       </c>
     </row>
     <row r="13">
@@ -7898,13 +7898,13 @@
         <v>0.6244997998398401</v>
       </c>
       <c r="BI13" t="n">
-        <v>0.6775390761516846</v>
+        <v>0.6800692474526799</v>
       </c>
       <c r="BJ13" t="n">
-        <v>0.6775390761516846</v>
+        <v>0.6800692474526799</v>
       </c>
       <c r="BK13" t="n">
-        <v>67.75</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="BL13" t="inlineStr">
         <is>
@@ -7912,7 +7912,7 @@
         </is>
       </c>
       <c r="BM13" t="n">
-        <v>3.296437275116855</v>
+        <v>3.299552281378881</v>
       </c>
     </row>
     <row r="14">
@@ -8105,13 +8105,13 @@
         <v>0.4777177887773147</v>
       </c>
       <c r="BI14" t="n">
-        <v>0.8449251380807483</v>
+        <v>0.8342082463533553</v>
       </c>
       <c r="BJ14" t="n">
-        <v>0.8449251380807483</v>
+        <v>0.8342082463533553</v>
       </c>
       <c r="BK14" t="n">
-        <v>84.48999999999999</v>
+        <v>83.42</v>
       </c>
       <c r="BL14" t="inlineStr">
         <is>
@@ -8119,7 +8119,7 @@
         </is>
       </c>
       <c r="BM14" t="n">
-        <v>5.933329653520449</v>
+        <v>5.910978678224625</v>
       </c>
     </row>
     <row r="15">
@@ -8311,13 +8311,13 @@
         <v>0.5457628998540878</v>
       </c>
       <c r="BI15" t="n">
-        <v>0.955342012406263</v>
+        <v>0.761243694776387</v>
       </c>
       <c r="BJ15" t="n">
-        <v>0.955342012406263</v>
+        <v>0.761243694776387</v>
       </c>
       <c r="BK15" t="n">
-        <v>95.53</v>
+        <v>76.12</v>
       </c>
       <c r="BL15" t="inlineStr">
         <is>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="BM15" t="n">
-        <v>4.118387784405595</v>
+        <v>3.847903983564655</v>
       </c>
     </row>
     <row r="16">
@@ -8517,13 +8517,13 @@
         <v>0.5855400437691201</v>
       </c>
       <c r="BI16" t="n">
-        <v>0.8233404440771093</v>
+        <v>0.9199718003314667</v>
       </c>
       <c r="BJ16" t="n">
-        <v>0.8233404440771093</v>
+        <v>0.9199718003314667</v>
       </c>
       <c r="BK16" t="n">
-        <v>82.33</v>
+        <v>92</v>
       </c>
       <c r="BL16" t="inlineStr">
         <is>
@@ -8531,7 +8531,7 @@
         </is>
       </c>
       <c r="BM16" t="n">
-        <v>3.934438297595932</v>
+        <v>4.069097973368776</v>
       </c>
     </row>
     <row r="17">
@@ -8724,13 +8724,13 @@
         <v>0</v>
       </c>
       <c r="BI17" t="n">
-        <v>1</v>
+        <v>0.8975343106629416</v>
       </c>
       <c r="BJ17" t="n">
-        <v>1</v>
+        <v>0.8975343106629416</v>
       </c>
       <c r="BK17" t="n">
-        <v>100</v>
+        <v>89.75</v>
       </c>
       <c r="BL17" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         </is>
       </c>
       <c r="BM17" t="n">
-        <v>5.98699170355107</v>
+        <v>5.782504626231201</v>
       </c>
     </row>
     <row r="18">
@@ -8930,13 +8930,13 @@
         <v>0.630476010645922</v>
       </c>
       <c r="BI18" t="n">
-        <v>0.3884902514512227</v>
+        <v>0.5677565934530615</v>
       </c>
       <c r="BJ18" t="n">
-        <v>0.3884902514512227</v>
+        <v>0.5677565934530615</v>
       </c>
       <c r="BK18" t="n">
-        <v>38.85</v>
+        <v>56.78</v>
       </c>
       <c r="BL18" t="inlineStr">
         <is>
@@ -8944,7 +8944,7 @@
         </is>
       </c>
       <c r="BM18" t="n">
-        <v>4.766623773150359</v>
+        <v>5.124379140580679</v>
       </c>
     </row>
     <row r="19">
@@ -9136,13 +9136,13 @@
         <v>0.5185832348124723</v>
       </c>
       <c r="BI19" t="n">
-        <v>0.9322687188161658</v>
+        <v>0.8992978487504288</v>
       </c>
       <c r="BJ19" t="n">
-        <v>0.9322687188161658</v>
+        <v>0.8992978487504288</v>
       </c>
       <c r="BK19" t="n">
-        <v>93.23</v>
+        <v>89.93000000000001</v>
       </c>
       <c r="BL19" t="inlineStr">
         <is>
@@ -9150,7 +9150,7 @@
         </is>
       </c>
       <c r="BM19" t="n">
-        <v>4.086234223136356</v>
+        <v>4.040287991549645</v>
       </c>
     </row>
     <row r="20">
@@ -9551,13 +9551,13 @@
         <v>0.6026726190182213</v>
       </c>
       <c r="BI21" t="n">
-        <v>0.955342012406263</v>
+        <v>1</v>
       </c>
       <c r="BJ21" t="n">
-        <v>0.955342012406263</v>
+        <v>1</v>
       </c>
       <c r="BK21" t="n">
-        <v>95.53</v>
+        <v>100</v>
       </c>
       <c r="BL21" t="inlineStr">
         <is>
@@ -9565,7 +9565,7 @@
         </is>
       </c>
       <c r="BM21" t="n">
-        <v>4.36338906393521</v>
+        <v>4.429323962118182</v>
       </c>
     </row>
     <row r="22">
@@ -9757,13 +9757,13 @@
         <v>0.6579187965525378</v>
       </c>
       <c r="BI22" t="n">
-        <v>0.6546605430963264</v>
+        <v>0.6068919016003881</v>
       </c>
       <c r="BJ22" t="n">
-        <v>0.6546605430963264</v>
+        <v>0.6068919016003881</v>
       </c>
       <c r="BK22" t="n">
-        <v>65.47</v>
+        <v>60.69</v>
       </c>
       <c r="BL22" t="inlineStr">
         <is>
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="BM22" t="n">
-        <v>5.297810215754027</v>
+        <v>5.202480062311999</v>
       </c>
     </row>
   </sheetData>
@@ -9785,7 +9785,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9801,84 +9801,36 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Best_Cost</t>
+          <t>PredictedBearing</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Node_Count</t>
+          <t>PredictedDistanceKM</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>PredictedLat</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PredictedLon</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>PredictedBearing</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>PredictedDistanceKM</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
           <t>PredictedDirection</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>PredictedConfidence</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>MovementScale</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-12-29T23:33:19.736701</t>
+          <t>2025-12-30T18:12:07.355189</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>640515014540.4769</v>
+        <v>60.72043401770543</v>
       </c>
       <c r="C2" t="n">
-        <v>21</v>
-      </c>
-      <c r="D2" t="n">
-        <v>-7.994398215976737</v>
-      </c>
-      <c r="E2" t="n">
-        <v>114.2823584470765</v>
-      </c>
-      <c r="F2" t="n">
-        <v>93.51743294051084</v>
-      </c>
-      <c r="G2" t="n">
-        <v>7.982748640550591</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>0.4041904767157775</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1.444660543096326</v>
+        <v>6.134758280905867</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>NE</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/output/ga_results/ga_report.xlsx
+++ b/output/ga_results/ga_report.xlsx
@@ -20881,7 +20881,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-03T17:33:51.507052</t>
+          <t>2026-01-04T03:01:05.157047</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -20991,7 +20991,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>9.223552424994118</v>
+        <v>5.993404666666116</v>
       </c>
     </row>
     <row r="3">
@@ -21007,7 +21007,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>9.223552424994118</v>
+        <v>8.494125390280153</v>
       </c>
     </row>
     <row r="4">
@@ -21023,7 +21023,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>9.223552424994118</v>
+        <v>8.268789502062328</v>
       </c>
     </row>
     <row r="5">
@@ -21039,7 +21039,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>9.223552424994118</v>
+        <v>10.39796180576665</v>
       </c>
     </row>
     <row r="6">
@@ -21055,7 +21055,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>9.223552424994118</v>
+        <v>13.64918632380864</v>
       </c>
     </row>
     <row r="7">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>9.223552424994118</v>
+        <v>9.740617215130582</v>
       </c>
     </row>
     <row r="8">
@@ -21087,7 +21087,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>9.223552424994118</v>
+        <v>4.201697739156106</v>
       </c>
     </row>
     <row r="9">
@@ -21103,7 +21103,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>9.223552424994118</v>
+        <v>11.60451168256536</v>
       </c>
     </row>
     <row r="10">
@@ -21119,7 +21119,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>9.223552424994118</v>
+        <v>7.197933386866828</v>
       </c>
     </row>
     <row r="11">
@@ -21135,7 +21135,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>9.223552424994118</v>
+        <v>6.656868241123886</v>
       </c>
     </row>
     <row r="12">
@@ -21151,7 +21151,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>9.223552424994118</v>
+        <v>10.36371852544151</v>
       </c>
     </row>
     <row r="13">
@@ -21167,7 +21167,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>9.223552424994118</v>
+        <v>6.341633299493274</v>
       </c>
     </row>
     <row r="14">
@@ -21183,7 +21183,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>9.223552424994118</v>
+        <v>6.005341266144641</v>
       </c>
     </row>
     <row r="15">
@@ -21199,7 +21199,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>9.223552424994118</v>
+        <v>9.400594777183857</v>
       </c>
     </row>
     <row r="16">
@@ -21215,7 +21215,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>9.223552424994118</v>
+        <v>8.938562136278698</v>
       </c>
     </row>
     <row r="17">
@@ -21231,7 +21231,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>9.223552424994118</v>
+        <v>7.692386908787312</v>
       </c>
     </row>
     <row r="18">
@@ -21247,7 +21247,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>9.223552424994118</v>
+        <v>7.288649949378089</v>
       </c>
     </row>
     <row r="19">
@@ -21263,7 +21263,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>9.223552424994118</v>
+        <v>5.177892952989549</v>
       </c>
     </row>
     <row r="20">
@@ -21279,7 +21279,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>9.223552424994118</v>
+        <v>10.90747708286891</v>
       </c>
     </row>
     <row r="21">
@@ -21295,7 +21295,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>9.223552424994118</v>
+        <v>6.500294114353155</v>
       </c>
     </row>
     <row r="22">
@@ -21311,7 +21311,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>9.223552424994118</v>
+        <v>8.270181530970364</v>
       </c>
     </row>
     <row r="23">
@@ -21327,7 +21327,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>9.223552424994118</v>
+        <v>9.331723066145633</v>
       </c>
     </row>
     <row r="24">
@@ -21343,7 +21343,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>9.223552424994118</v>
+        <v>8.164298868889491</v>
       </c>
     </row>
     <row r="25">
@@ -21359,7 +21359,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>9.223552424994118</v>
+        <v>5.142647654231723</v>
       </c>
     </row>
     <row r="26">
@@ -21375,7 +21375,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>9.223552424994118</v>
+        <v>9.052762179535485</v>
       </c>
     </row>
     <row r="27">
@@ -21391,7 +21391,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>9.223552424994118</v>
+        <v>10.76895250542804</v>
       </c>
     </row>
     <row r="28">
@@ -21407,7 +21407,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>9.223552424994118</v>
+        <v>13.17057784513273</v>
       </c>
     </row>
     <row r="29">
@@ -21423,7 +21423,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>9.223552424994118</v>
+        <v>9.491393195576659</v>
       </c>
     </row>
     <row r="30">
@@ -21439,7 +21439,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>9.223552424994118</v>
+        <v>11.75918451190118</v>
       </c>
     </row>
     <row r="31">
@@ -21455,7 +21455,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>9.223552424994118</v>
+        <v>5.749554562881679</v>
       </c>
     </row>
     <row r="32">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>9.223552424994118</v>
+        <v>7.154073606457235</v>
       </c>
     </row>
     <row r="33">
@@ -21487,7 +21487,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>9.223552424994118</v>
+        <v>7.194284641002108</v>
       </c>
     </row>
     <row r="34">
@@ -21503,7 +21503,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>9.223552424994118</v>
+        <v>7.203999768936746</v>
       </c>
     </row>
     <row r="35">
@@ -21519,7 +21519,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>9.223552424994118</v>
+        <v>10.58538966022302</v>
       </c>
     </row>
     <row r="36">
@@ -21535,7 +21535,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>9.223552424994118</v>
+        <v>10.08904788246505</v>
       </c>
     </row>
     <row r="37">
@@ -21551,7 +21551,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>9.223552424994118</v>
+        <v>10.91184529222839</v>
       </c>
     </row>
     <row r="38">
@@ -21567,7 +21567,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>9.223552424994118</v>
+        <v>11.18728005393413</v>
       </c>
     </row>
     <row r="39">
@@ -21583,7 +21583,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>9.223552424994118</v>
+        <v>8.884121200525643</v>
       </c>
     </row>
     <row r="40">
@@ -21599,7 +21599,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>9.223552424994118</v>
+        <v>10.80299881756767</v>
       </c>
     </row>
     <row r="41">
@@ -21615,7 +21615,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>9.223552424994118</v>
+        <v>6.008239609834009</v>
       </c>
     </row>
     <row r="42">
@@ -21631,7 +21631,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>9.223552424994118</v>
+        <v>10.85465715230237</v>
       </c>
     </row>
     <row r="43">
@@ -21647,7 +21647,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>9.223552424994118</v>
+        <v>12.34945402533812</v>
       </c>
     </row>
     <row r="44">
@@ -21663,7 +21663,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>9.223552424994118</v>
+        <v>10.89263964181641</v>
       </c>
     </row>
     <row r="45">
@@ -21679,7 +21679,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>9.223552424994118</v>
+        <v>10.62838912323983</v>
       </c>
     </row>
     <row r="46">
@@ -21695,7 +21695,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>9.223552424994118</v>
+        <v>6.120323956362693</v>
       </c>
     </row>
     <row r="47">
@@ -21711,7 +21711,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>9.223552424994118</v>
+        <v>10.62584402305465</v>
       </c>
     </row>
     <row r="48">
@@ -21727,7 +21727,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>9.223552424994118</v>
+        <v>12.42906354927797</v>
       </c>
     </row>
     <row r="49">
@@ -21743,7 +21743,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>9.223552424994118</v>
+        <v>10.80139790331167</v>
       </c>
     </row>
     <row r="50">
@@ -21759,7 +21759,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>9.223552424994118</v>
+        <v>10.55966142173697</v>
       </c>
     </row>
     <row r="51">
@@ -21775,7 +21775,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>9.223552424994118</v>
+        <v>10.1264749992983</v>
       </c>
     </row>
     <row r="52">
@@ -21791,7 +21791,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>9.223552424994118</v>
+        <v>7.68944407025081</v>
       </c>
     </row>
     <row r="53">
@@ -21807,7 +21807,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>9.223552424994118</v>
+        <v>11.64835665398695</v>
       </c>
     </row>
     <row r="54">
@@ -21823,7 +21823,7 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>9.223552424994118</v>
+        <v>6.479136743565299</v>
       </c>
     </row>
     <row r="55">
@@ -21839,7 +21839,7 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>9.223552424994118</v>
+        <v>9.158711774262088</v>
       </c>
     </row>
     <row r="56">
@@ -21855,7 +21855,7 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>9.223552424994118</v>
+        <v>5.374193723563948</v>
       </c>
     </row>
     <row r="57">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>9.223552424994118</v>
+        <v>8.405549447994279</v>
       </c>
     </row>
     <row r="58">
@@ -21887,7 +21887,7 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>9.223552424994118</v>
+        <v>9.033291466759829</v>
       </c>
     </row>
     <row r="59">
@@ -21903,7 +21903,7 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>9.223552424994118</v>
+        <v>6.440847786731124</v>
       </c>
     </row>
     <row r="60">
@@ -21919,7 +21919,7 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>9.223552424994118</v>
+        <v>11.24764454435942</v>
       </c>
     </row>
     <row r="61">
@@ -21935,7 +21935,7 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>9.223552424994118</v>
+        <v>4.528996454760128</v>
       </c>
     </row>
     <row r="62">
@@ -21951,7 +21951,7 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>9.223552424994118</v>
+        <v>7.657142565566016</v>
       </c>
     </row>
     <row r="63">
@@ -21967,7 +21967,7 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>9.223552424994118</v>
+        <v>6.553367496175015</v>
       </c>
     </row>
     <row r="64">
@@ -21983,7 +21983,7 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>9.223552424994118</v>
+        <v>5.071914041032276</v>
       </c>
     </row>
     <row r="65">
@@ -21999,7 +21999,7 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>9.223552424994118</v>
+        <v>8.228027610190152</v>
       </c>
     </row>
     <row r="66">
@@ -22015,7 +22015,7 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>9.223552424994118</v>
+        <v>9.427202835929355</v>
       </c>
     </row>
     <row r="67">
@@ -22031,7 +22031,7 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>9.223552424994118</v>
+        <v>8.079590800603068</v>
       </c>
     </row>
     <row r="68">
@@ -22047,7 +22047,7 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>9.223552424994118</v>
+        <v>10.39248437935134</v>
       </c>
     </row>
     <row r="69">
@@ -22063,7 +22063,7 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>9.223552424994118</v>
+        <v>12.71506578988101</v>
       </c>
     </row>
     <row r="70">
@@ -22079,7 +22079,7 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>9.223552424994118</v>
+        <v>9.899604589763435</v>
       </c>
     </row>
     <row r="71">
@@ -22095,7 +22095,7 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>9.223552424994118</v>
+        <v>10.35547237542853</v>
       </c>
     </row>
     <row r="72">
@@ -22111,7 +22111,7 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>9.223552424994118</v>
+        <v>5.359228995591426</v>
       </c>
     </row>
     <row r="73">
@@ -22127,7 +22127,7 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>9.223552424994118</v>
+        <v>9.454924802064658</v>
       </c>
     </row>
     <row r="74">
@@ -22143,7 +22143,7 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>9.223552424994118</v>
+        <v>11.24288696465819</v>
       </c>
     </row>
     <row r="75">
@@ -22159,7 +22159,7 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>9.223552424994118</v>
+        <v>7.840087863063431</v>
       </c>
     </row>
     <row r="76">
@@ -22175,7 +22175,7 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>9.223552424994118</v>
+        <v>9.236585704692898</v>
       </c>
     </row>
     <row r="77">
@@ -22191,7 +22191,7 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>9.223552424994118</v>
+        <v>8.824798149974747</v>
       </c>
     </row>
     <row r="78">
@@ -22207,7 +22207,7 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>9.223552424994118</v>
+        <v>9.466997004211173</v>
       </c>
     </row>
     <row r="79">
@@ -22223,7 +22223,7 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>9.223552424994118</v>
+        <v>9.302441330621877</v>
       </c>
     </row>
     <row r="80">
@@ -22239,7 +22239,7 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>9.223552424994118</v>
+        <v>10.75943423235008</v>
       </c>
     </row>
     <row r="81">
@@ -22255,7 +22255,7 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>9.223552424994118</v>
+        <v>10.448757745363</v>
       </c>
     </row>
     <row r="82">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>9.223552424994118</v>
+        <v>6.260108837916221</v>
       </c>
     </row>
     <row r="83">
@@ -22287,7 +22287,7 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>9.223552424994118</v>
+        <v>11.99228254500745</v>
       </c>
     </row>
     <row r="84">
@@ -22303,7 +22303,7 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>9.223552424994118</v>
+        <v>6.971784561709134</v>
       </c>
     </row>
     <row r="85">
@@ -22319,7 +22319,7 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>9.223552424994118</v>
+        <v>13.40384933474541</v>
       </c>
     </row>
     <row r="86">
@@ -22335,7 +22335,7 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>9.223552424994118</v>
+        <v>4.065360755368697</v>
       </c>
     </row>
     <row r="87">
@@ -22351,7 +22351,7 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>9.223552424994118</v>
+        <v>9.376057457725848</v>
       </c>
     </row>
     <row r="88">
@@ -22367,7 +22367,7 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>9.223552424994118</v>
+        <v>7.660333909172206</v>
       </c>
     </row>
     <row r="89">
@@ -22383,7 +22383,7 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>9.223552424994118</v>
+        <v>10.49003476457226</v>
       </c>
     </row>
     <row r="90">
@@ -22399,7 +22399,7 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>9.223552424994118</v>
+        <v>10.09152440343546</v>
       </c>
     </row>
     <row r="91">
@@ -22415,7 +22415,7 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>9.223552424994118</v>
+        <v>9.860065784530072</v>
       </c>
     </row>
     <row r="92">
@@ -22431,7 +22431,7 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>9.223552424994118</v>
+        <v>8.000738006728033</v>
       </c>
     </row>
     <row r="93">
@@ -22447,7 +22447,7 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>9.223552424994118</v>
+        <v>5.920806042668261</v>
       </c>
     </row>
     <row r="94">
@@ -22463,7 +22463,7 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>9.223552424994118</v>
+        <v>4.804941987154358</v>
       </c>
     </row>
     <row r="95">
@@ -22479,7 +22479,7 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>9.223552424994118</v>
+        <v>8.401102435757753</v>
       </c>
     </row>
     <row r="96">
@@ -22495,7 +22495,7 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>9.223552424994118</v>
+        <v>10.24128051644704</v>
       </c>
     </row>
     <row r="97">
@@ -22511,7 +22511,7 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>9.223552424994118</v>
+        <v>7.625426438562148</v>
       </c>
     </row>
     <row r="98">
@@ -22527,7 +22527,7 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>9.223552424994118</v>
+        <v>10.77323531629938</v>
       </c>
     </row>
     <row r="99">
@@ -22543,7 +22543,7 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>9.223552424994118</v>
+        <v>8.216096599377984</v>
       </c>
     </row>
     <row r="100">
@@ -22559,7 +22559,7 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>9.223552424994118</v>
+        <v>7.806734669221917</v>
       </c>
     </row>
     <row r="101">
@@ -22575,7 +22575,7 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>9.223552424994118</v>
+        <v>11.2400361206362</v>
       </c>
     </row>
     <row r="102">
@@ -22591,7 +22591,7 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>9.223552424994118</v>
+        <v>8.078192604928473</v>
       </c>
     </row>
     <row r="103">
@@ -22607,7 +22607,7 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>9.223552424994118</v>
+        <v>6.879073094282768</v>
       </c>
     </row>
     <row r="104">
@@ -22623,7 +22623,7 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>9.223552424994118</v>
+        <v>9.404236427526856</v>
       </c>
     </row>
     <row r="105">
@@ -22639,7 +22639,7 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>9.223552424994118</v>
+        <v>10.95728760748637</v>
       </c>
     </row>
     <row r="106">
@@ -22655,7 +22655,7 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>9.223552424994118</v>
+        <v>7.289702822316258</v>
       </c>
     </row>
     <row r="107">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>9.223552424994118</v>
+        <v>11.52747676992426</v>
       </c>
     </row>
     <row r="108">
@@ -22687,7 +22687,7 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>9.223552424994118</v>
+        <v>11.07966762759729</v>
       </c>
     </row>
     <row r="109">
@@ -22703,7 +22703,7 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>9.223552424994118</v>
+        <v>6.356691779367194</v>
       </c>
     </row>
     <row r="110">
@@ -22719,7 +22719,7 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>9.223552424994118</v>
+        <v>10.25623567487317</v>
       </c>
     </row>
     <row r="111">
@@ -22735,7 +22735,7 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>9.223552424994118</v>
+        <v>6.563454793121655</v>
       </c>
     </row>
     <row r="112">
@@ -22751,7 +22751,7 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>9.223552424994118</v>
+        <v>11.0987274941887</v>
       </c>
     </row>
     <row r="113">
@@ -22767,7 +22767,7 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>9.223552424994118</v>
+        <v>7.236554640793344</v>
       </c>
     </row>
     <row r="114">
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>9.223552424994118</v>
+        <v>9.131266504362847</v>
       </c>
     </row>
     <row r="115">
@@ -22799,7 +22799,7 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>9.223552424994118</v>
+        <v>12.95437684418187</v>
       </c>
     </row>
     <row r="116">
@@ -22815,7 +22815,7 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>9.223552424994118</v>
+        <v>7.769273536066359</v>
       </c>
     </row>
     <row r="117">
@@ -22831,7 +22831,7 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>9.223552424994118</v>
+        <v>10.63500770350705</v>
       </c>
     </row>
     <row r="118">
@@ -22847,7 +22847,7 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>9.223552424994118</v>
+        <v>4.461667068655089</v>
       </c>
     </row>
     <row r="119">
@@ -22863,7 +22863,7 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>9.223552424994118</v>
+        <v>13.48769620663774</v>
       </c>
     </row>
     <row r="120">
@@ -22879,7 +22879,7 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>9.223552424994118</v>
+        <v>10.35200894988734</v>
       </c>
     </row>
     <row r="121">
@@ -22895,7 +22895,7 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>9.223552424994118</v>
+        <v>10.72903892015359</v>
       </c>
     </row>
     <row r="122">
@@ -22911,7 +22911,7 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>9.223552424994118</v>
+        <v>8.830277025288234</v>
       </c>
     </row>
     <row r="123">
@@ -22927,7 +22927,7 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>9.223552424994118</v>
+        <v>9.545338284088247</v>
       </c>
     </row>
     <row r="124">
@@ -22943,7 +22943,7 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>9.223552424994118</v>
+        <v>8.298547997633463</v>
       </c>
     </row>
     <row r="125">
@@ -22959,7 +22959,7 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>9.223552424994118</v>
+        <v>9.728324903184253</v>
       </c>
     </row>
     <row r="126">
@@ -22975,7 +22975,7 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>9.223552424994118</v>
+        <v>11.04108235115012</v>
       </c>
     </row>
     <row r="127">
@@ -22991,7 +22991,7 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>9.223552424994118</v>
+        <v>9.168223011879686</v>
       </c>
     </row>
     <row r="128">
@@ -23007,7 +23007,7 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>9.223552424994118</v>
+        <v>9.72462039832218</v>
       </c>
     </row>
     <row r="129">
@@ -23023,7 +23023,7 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>9.223552424994118</v>
+        <v>8.782432044520824</v>
       </c>
     </row>
     <row r="130">
@@ -23039,7 +23039,7 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>9.223552424994118</v>
+        <v>5.957406324045374</v>
       </c>
     </row>
     <row r="131">
@@ -23055,7 +23055,7 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>9.223552424994118</v>
+        <v>9.369687821325263</v>
       </c>
     </row>
     <row r="132">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>9.223552424994118</v>
+        <v>10.08281039244963</v>
       </c>
     </row>
     <row r="133">
@@ -23087,7 +23087,7 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>9.223552424994118</v>
+        <v>8.719479416869902</v>
       </c>
     </row>
     <row r="134">
@@ -23103,7 +23103,7 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>9.223552424994118</v>
+        <v>7.079251177258991</v>
       </c>
     </row>
     <row r="135">
@@ -23119,7 +23119,7 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>9.223552424994118</v>
+        <v>10.47953558814569</v>
       </c>
     </row>
     <row r="136">
@@ -23135,7 +23135,7 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>9.223552424994118</v>
+        <v>7.022534340016694</v>
       </c>
     </row>
     <row r="137">
@@ -23151,7 +23151,7 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>9.223552424994118</v>
+        <v>12.67899170700191</v>
       </c>
     </row>
     <row r="138">
@@ -23167,7 +23167,7 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>9.223552424994118</v>
+        <v>6.156450382667424</v>
       </c>
     </row>
     <row r="139">
@@ -23183,7 +23183,7 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>9.223552424994118</v>
+        <v>9.897769117846305</v>
       </c>
     </row>
     <row r="140">
@@ -23199,7 +23199,7 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>9.223552424994118</v>
+        <v>5.41980404997603</v>
       </c>
     </row>
     <row r="141">
@@ -23215,7 +23215,7 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>9.223552424994118</v>
+        <v>10.53923012169581</v>
       </c>
     </row>
     <row r="142">
@@ -23231,7 +23231,7 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>9.223552424994118</v>
+        <v>9.898726605087228</v>
       </c>
     </row>
     <row r="143">
@@ -23247,7 +23247,7 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>9.223552424994118</v>
+        <v>10.04936737055831</v>
       </c>
     </row>
     <row r="144">
@@ -23263,7 +23263,7 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>9.223552424994118</v>
+        <v>8.667939905703511</v>
       </c>
     </row>
     <row r="145">
@@ -23279,7 +23279,7 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>9.223552424994118</v>
+        <v>6.508571157552889</v>
       </c>
     </row>
     <row r="146">
@@ -23295,7 +23295,7 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>9.223552424994118</v>
+        <v>11.15788087190922</v>
       </c>
     </row>
     <row r="147">
@@ -23311,7 +23311,7 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>9.223552424994118</v>
+        <v>8.532794279352657</v>
       </c>
     </row>
     <row r="148">
@@ -23327,7 +23327,7 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>9.223552424994118</v>
+        <v>7.350457281321251</v>
       </c>
     </row>
     <row r="149">
@@ -23343,7 +23343,7 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>9.223552424994118</v>
+        <v>6.020648100835821</v>
       </c>
     </row>
     <row r="150">
@@ -23359,7 +23359,7 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>9.223552424994118</v>
+        <v>7.159423882253877</v>
       </c>
     </row>
     <row r="151">
@@ -23375,7 +23375,7 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>9.223552424994118</v>
+        <v>10.9055813449513</v>
       </c>
     </row>
     <row r="152">
@@ -23391,7 +23391,7 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>9.223552424994118</v>
+        <v>9.722825649317878</v>
       </c>
     </row>
     <row r="153">
@@ -23407,7 +23407,7 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>9.223552424994118</v>
+        <v>9.699126724007074</v>
       </c>
     </row>
     <row r="154">
@@ -23423,7 +23423,7 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>9.223552424994118</v>
+        <v>12.01003552554906</v>
       </c>
     </row>
     <row r="155">
@@ -23439,7 +23439,7 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>9.223552424994118</v>
+        <v>5.88415922968664</v>
       </c>
     </row>
     <row r="156">
@@ -23455,7 +23455,7 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>9.223552424994118</v>
+        <v>10.32135404010582</v>
       </c>
     </row>
     <row r="157">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>9.223552424994118</v>
+        <v>5.400975929518233</v>
       </c>
     </row>
     <row r="158">
@@ -23487,7 +23487,7 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>9.223552424994118</v>
+        <v>4.903633154357262</v>
       </c>
     </row>
     <row r="159">
@@ -23503,7 +23503,7 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>9.223552424994118</v>
+        <v>6.387012893644846</v>
       </c>
     </row>
     <row r="160">
@@ -23519,7 +23519,7 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>9.223552424994118</v>
+        <v>9.601846246775999</v>
       </c>
     </row>
     <row r="161">
@@ -23535,7 +23535,7 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>9.223552424994118</v>
+        <v>5.996611814284076</v>
       </c>
     </row>
     <row r="162">
@@ -23551,7 +23551,7 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>9.223552424994118</v>
+        <v>10.2547017458873</v>
       </c>
     </row>
     <row r="163">
@@ -23567,7 +23567,7 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>9.223552424994118</v>
+        <v>5.092713347539857</v>
       </c>
     </row>
     <row r="164">
@@ -23583,7 +23583,7 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>9.223552424994118</v>
+        <v>8.978339135250909</v>
       </c>
     </row>
     <row r="165">
@@ -23599,7 +23599,7 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>9.223552424994118</v>
+        <v>5.466970513745984</v>
       </c>
     </row>
     <row r="166">
@@ -23615,7 +23615,7 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>9.223552424994118</v>
+        <v>8.291799765970291</v>
       </c>
     </row>
     <row r="167">
@@ -23631,7 +23631,7 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>9.223552424994118</v>
+        <v>6.350965425450312</v>
       </c>
     </row>
     <row r="168">
@@ -23647,7 +23647,7 @@
         </is>
       </c>
       <c r="D168" t="n">
-        <v>9.223552424994118</v>
+        <v>8.945397594293215</v>
       </c>
     </row>
     <row r="169">
@@ -23663,7 +23663,7 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>9.223552424994118</v>
+        <v>10.74116135350797</v>
       </c>
     </row>
     <row r="170">
@@ -23679,7 +23679,7 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>9.223552424994118</v>
+        <v>10.63773716711841</v>
       </c>
     </row>
     <row r="171">
@@ -23695,7 +23695,7 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>9.223552424994118</v>
+        <v>5.947777647959974</v>
       </c>
     </row>
     <row r="172">
@@ -23711,7 +23711,7 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>9.223552424994118</v>
+        <v>10.91020550837152</v>
       </c>
     </row>
     <row r="173">
@@ -23727,7 +23727,7 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>9.223552424994118</v>
+        <v>10.11719437945183</v>
       </c>
     </row>
     <row r="174">
@@ -23743,7 +23743,7 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>9.223552424994118</v>
+        <v>9.644898398882173</v>
       </c>
     </row>
     <row r="175">
@@ -23759,7 +23759,7 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>9.223552424994118</v>
+        <v>5.80799560863516</v>
       </c>
     </row>
     <row r="176">
@@ -23775,7 +23775,7 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>9.223552424994118</v>
+        <v>8.469355518575171</v>
       </c>
     </row>
     <row r="177">
@@ -23791,7 +23791,7 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>9.223552424994118</v>
+        <v>4.609992710111048</v>
       </c>
     </row>
     <row r="178">
@@ -23807,7 +23807,7 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>9.223552424994118</v>
+        <v>8.029651815981524</v>
       </c>
     </row>
     <row r="179">
@@ -23823,7 +23823,7 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>9.223552424994118</v>
+        <v>10.18082680486715</v>
       </c>
     </row>
     <row r="180">
@@ -23839,7 +23839,7 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>9.223552424994118</v>
+        <v>5.045524036124629</v>
       </c>
     </row>
     <row r="181">
@@ -23855,7 +23855,7 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>9.223552424994118</v>
+        <v>10.87451825709988</v>
       </c>
     </row>
     <row r="182">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>9.223552424994118</v>
+        <v>10.03518604308911</v>
       </c>
     </row>
     <row r="183">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>9.223552424994118</v>
+        <v>9.731134951760176</v>
       </c>
     </row>
     <row r="184">
@@ -23903,7 +23903,7 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>9.223552424994118</v>
+        <v>9.834035824121157</v>
       </c>
     </row>
     <row r="185">
@@ -23919,7 +23919,7 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>9.223552424994118</v>
+        <v>8.453010085385102</v>
       </c>
     </row>
     <row r="186">
@@ -23935,7 +23935,7 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>9.223552424994118</v>
+        <v>8.657167772772175</v>
       </c>
     </row>
     <row r="187">
@@ -23951,7 +23951,7 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>9.223552424994118</v>
+        <v>9.790840789186189</v>
       </c>
     </row>
     <row r="188">
@@ -23967,7 +23967,7 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>9.223552424994118</v>
+        <v>10.7711638065183</v>
       </c>
     </row>
     <row r="189">
@@ -23983,7 +23983,7 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>9.223552424994118</v>
+        <v>11.51729135402819</v>
       </c>
     </row>
     <row r="190">
@@ -23999,7 +23999,7 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>9.223552424994118</v>
+        <v>10.83022531470514</v>
       </c>
     </row>
     <row r="191">
@@ -24015,7 +24015,7 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>9.223552424994118</v>
+        <v>8.124118084043232</v>
       </c>
     </row>
     <row r="192">
@@ -24031,7 +24031,7 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>9.223552424994118</v>
+        <v>11.30104506251469</v>
       </c>
     </row>
     <row r="193">
@@ -24047,7 +24047,7 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>9.223552424994118</v>
+        <v>5.641396671346092</v>
       </c>
     </row>
     <row r="194">
@@ -24063,7 +24063,7 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>9.223552424994118</v>
+        <v>9.492898416858628</v>
       </c>
     </row>
     <row r="195">
@@ -24079,7 +24079,7 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>9.223552424994118</v>
+        <v>9.271899638887938</v>
       </c>
     </row>
     <row r="196">
@@ -24095,7 +24095,7 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>9.223552424994118</v>
+        <v>11.78314180583208</v>
       </c>
     </row>
     <row r="197">
@@ -24111,7 +24111,7 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>9.223552424994118</v>
+        <v>5.311325150964009</v>
       </c>
     </row>
     <row r="198">
@@ -24127,7 +24127,7 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>9.223552424994118</v>
+        <v>7.77662829823177</v>
       </c>
     </row>
     <row r="199">
@@ -24143,7 +24143,7 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>9.223552424994118</v>
+        <v>5.348343124762171</v>
       </c>
     </row>
     <row r="200">
@@ -24159,7 +24159,7 @@
         </is>
       </c>
       <c r="D200" t="n">
-        <v>9.223552424994118</v>
+        <v>5.384512851785114</v>
       </c>
     </row>
     <row r="201">
@@ -24175,7 +24175,7 @@
         </is>
       </c>
       <c r="D201" t="n">
-        <v>9.223552424994118</v>
+        <v>10.32057114139664</v>
       </c>
     </row>
     <row r="202">
@@ -24191,7 +24191,7 @@
         </is>
       </c>
       <c r="D202" t="n">
-        <v>9.223552424994118</v>
+        <v>9.606700506303751</v>
       </c>
     </row>
     <row r="203">
@@ -24207,7 +24207,7 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>9.223552424994118</v>
+        <v>5.749298727404407</v>
       </c>
     </row>
     <row r="204">
@@ -24223,7 +24223,7 @@
         </is>
       </c>
       <c r="D204" t="n">
-        <v>9.223552424994118</v>
+        <v>5.3570011705503</v>
       </c>
     </row>
     <row r="205">
@@ -24239,7 +24239,7 @@
         </is>
       </c>
       <c r="D205" t="n">
-        <v>9.223552424994118</v>
+        <v>6.132449372768641</v>
       </c>
     </row>
     <row r="206">
@@ -24255,7 +24255,7 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>9.223552424994118</v>
+        <v>6.17961820748941</v>
       </c>
     </row>
     <row r="207">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="D207" t="n">
-        <v>9.223552424994118</v>
+        <v>10.6446369317921</v>
       </c>
     </row>
     <row r="208">
@@ -24287,7 +24287,7 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>9.223552424994118</v>
+        <v>10.0142673877762</v>
       </c>
     </row>
     <row r="209">
@@ -24303,7 +24303,7 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>9.223552424994118</v>
+        <v>5.832498318988077</v>
       </c>
     </row>
     <row r="210">
@@ -24319,7 +24319,7 @@
         </is>
       </c>
       <c r="D210" t="n">
-        <v>9.223552424994118</v>
+        <v>12.37178646731363</v>
       </c>
     </row>
     <row r="211">
@@ -24335,7 +24335,7 @@
         </is>
       </c>
       <c r="D211" t="n">
-        <v>9.223552424994118</v>
+        <v>10.96987112343691</v>
       </c>
     </row>
     <row r="212">
@@ -24351,7 +24351,7 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>9.223552424994118</v>
+        <v>11.17934207686267</v>
       </c>
     </row>
     <row r="213">
@@ -24367,7 +24367,7 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>9.223552424994118</v>
+        <v>5.859758612164057</v>
       </c>
     </row>
     <row r="214">
@@ -24383,7 +24383,7 @@
         </is>
       </c>
       <c r="D214" t="n">
-        <v>9.223552424994118</v>
+        <v>11.1801699397437</v>
       </c>
     </row>
     <row r="215">
@@ -24399,7 +24399,7 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>9.223552424994118</v>
+        <v>10.7771454652473</v>
       </c>
     </row>
     <row r="216">
@@ -24415,7 +24415,7 @@
         </is>
       </c>
       <c r="D216" t="n">
-        <v>9.223552424994118</v>
+        <v>10.61819159475182</v>
       </c>
     </row>
     <row r="217">
@@ -24431,7 +24431,7 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>9.223552424994118</v>
+        <v>10.97412635807141</v>
       </c>
     </row>
     <row r="218">
@@ -24447,7 +24447,7 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>9.223552424994118</v>
+        <v>8.877154137645896</v>
       </c>
     </row>
     <row r="219">
@@ -24463,7 +24463,7 @@
         </is>
       </c>
       <c r="D219" t="n">
-        <v>9.223552424994118</v>
+        <v>11.19196044505019</v>
       </c>
     </row>
     <row r="220">
@@ -24479,7 +24479,7 @@
         </is>
       </c>
       <c r="D220" t="n">
-        <v>9.223552424994118</v>
+        <v>5.86983774618051</v>
       </c>
     </row>
     <row r="221">
@@ -24495,7 +24495,7 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>9.223552424994118</v>
+        <v>10.02137919780783</v>
       </c>
     </row>
     <row r="222">
@@ -24511,7 +24511,7 @@
         </is>
       </c>
       <c r="D222" t="n">
-        <v>9.223552424994118</v>
+        <v>6.355828831016943</v>
       </c>
     </row>
     <row r="223">
@@ -24527,7 +24527,7 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>9.223552424994118</v>
+        <v>10.75905320181367</v>
       </c>
     </row>
     <row r="224">
@@ -24543,7 +24543,7 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>9.223552424994118</v>
+        <v>6.900259705872445</v>
       </c>
     </row>
     <row r="225">
@@ -24559,7 +24559,7 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>9.223552424994118</v>
+        <v>9.970553922512739</v>
       </c>
     </row>
     <row r="226">
@@ -24575,7 +24575,7 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>9.223552424994118</v>
+        <v>9.957207951068131</v>
       </c>
     </row>
     <row r="227">
@@ -24591,7 +24591,7 @@
         </is>
       </c>
       <c r="D227" t="n">
-        <v>9.223552424994118</v>
+        <v>11.68056562048915</v>
       </c>
     </row>
     <row r="228">
@@ -24607,7 +24607,7 @@
         </is>
       </c>
       <c r="D228" t="n">
-        <v>9.223552424994118</v>
+        <v>9.750515473182839</v>
       </c>
     </row>
     <row r="229">
@@ -24623,7 +24623,7 @@
         </is>
       </c>
       <c r="D229" t="n">
-        <v>9.223552424994118</v>
+        <v>9.524540422832642</v>
       </c>
     </row>
     <row r="230">
@@ -24639,7 +24639,7 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>9.223552424994118</v>
+        <v>5.527222388884151</v>
       </c>
     </row>
     <row r="231">
@@ -24655,7 +24655,7 @@
         </is>
       </c>
       <c r="D231" t="n">
-        <v>9.223552424994118</v>
+        <v>4.826026953819814</v>
       </c>
     </row>
     <row r="232">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>9.223552424994118</v>
+        <v>5.348063496683859</v>
       </c>
     </row>
     <row r="233">
@@ -24687,7 +24687,7 @@
         </is>
       </c>
       <c r="D233" t="n">
-        <v>9.223552424994118</v>
+        <v>12.33336870970006</v>
       </c>
     </row>
     <row r="234">
@@ -24703,7 +24703,7 @@
         </is>
       </c>
       <c r="D234" t="n">
-        <v>9.223552424994118</v>
+        <v>8.414975590817258</v>
       </c>
     </row>
     <row r="235">
@@ -24719,7 +24719,7 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>9.223552424994118</v>
+        <v>5.156707043924439</v>
       </c>
     </row>
     <row r="236">
@@ -24735,7 +24735,7 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>9.223552424994118</v>
+        <v>12.280915655513</v>
       </c>
     </row>
     <row r="237">
@@ -24751,7 +24751,7 @@
         </is>
       </c>
       <c r="D237" t="n">
-        <v>9.223552424994118</v>
+        <v>7.379882346323296</v>
       </c>
     </row>
     <row r="238">
@@ -24767,7 +24767,7 @@
         </is>
       </c>
       <c r="D238" t="n">
-        <v>9.223552424994118</v>
+        <v>5.708432868757342</v>
       </c>
     </row>
     <row r="239">
@@ -24783,7 +24783,7 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>9.223552424994118</v>
+        <v>9.158948581743571</v>
       </c>
     </row>
     <row r="240">
@@ -24799,7 +24799,7 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>9.223552424994118</v>
+        <v>4.59977395275657</v>
       </c>
     </row>
     <row r="241">
@@ -24815,7 +24815,7 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>9.223552424994118</v>
+        <v>9.836342097263167</v>
       </c>
     </row>
     <row r="242">
@@ -24831,7 +24831,7 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>9.223552424994118</v>
+        <v>11.04287512990897</v>
       </c>
     </row>
     <row r="243">
@@ -24847,7 +24847,7 @@
         </is>
       </c>
       <c r="D243" t="n">
-        <v>9.223552424994118</v>
+        <v>6.474127665300481</v>
       </c>
     </row>
     <row r="244">
@@ -24863,7 +24863,7 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>9.223552424994118</v>
+        <v>11.11579177984313</v>
       </c>
     </row>
     <row r="245">
@@ -24879,7 +24879,7 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>9.223552424994118</v>
+        <v>13.4105482806046</v>
       </c>
     </row>
     <row r="246">
@@ -24895,7 +24895,7 @@
         </is>
       </c>
       <c r="D246" t="n">
-        <v>9.223552424994118</v>
+        <v>6.262718717101939</v>
       </c>
     </row>
     <row r="247">
@@ -24911,7 +24911,7 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>9.223552424994118</v>
+        <v>4.77097539650293</v>
       </c>
     </row>
     <row r="248">
@@ -24927,7 +24927,7 @@
         </is>
       </c>
       <c r="D248" t="n">
-        <v>9.223552424994118</v>
+        <v>5.861880432677495</v>
       </c>
     </row>
     <row r="249">
@@ -24943,7 +24943,7 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>9.223552424994118</v>
+        <v>10.4736457051101</v>
       </c>
     </row>
     <row r="250">
@@ -24959,7 +24959,7 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>9.223552424994118</v>
+        <v>10.5895641508644</v>
       </c>
     </row>
     <row r="251">
@@ -24975,7 +24975,7 @@
         </is>
       </c>
       <c r="D251" t="n">
-        <v>9.223552424994118</v>
+        <v>8.259710045853556</v>
       </c>
     </row>
     <row r="252">
@@ -24991,7 +24991,7 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>9.223552424994118</v>
+        <v>10.10798595539817</v>
       </c>
     </row>
     <row r="253">
@@ -25007,7 +25007,7 @@
         </is>
       </c>
       <c r="D253" t="n">
-        <v>9.223552424994118</v>
+        <v>4.904937356339407</v>
       </c>
     </row>
     <row r="254">
@@ -25023,7 +25023,7 @@
         </is>
       </c>
       <c r="D254" t="n">
-        <v>9.223552424994118</v>
+        <v>6.700919984165292</v>
       </c>
     </row>
     <row r="255">
@@ -25039,7 +25039,7 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>9.223552424994118</v>
+        <v>6.107497391347885</v>
       </c>
     </row>
     <row r="256">
@@ -25055,7 +25055,7 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>9.223552424994118</v>
+        <v>10.26025464197288</v>
       </c>
     </row>
     <row r="257">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="D257" t="n">
-        <v>9.223552424994118</v>
+        <v>6.237428740712552</v>
       </c>
     </row>
     <row r="258">
@@ -25087,7 +25087,7 @@
         </is>
       </c>
       <c r="D258" t="n">
-        <v>9.223552424994118</v>
+        <v>9.903345064404503</v>
       </c>
     </row>
     <row r="259">
@@ -25103,7 +25103,7 @@
         </is>
       </c>
       <c r="D259" t="n">
-        <v>9.223552424994118</v>
+        <v>6.691937885880078</v>
       </c>
     </row>
     <row r="260">
@@ -25119,7 +25119,7 @@
         </is>
       </c>
       <c r="D260" t="n">
-        <v>9.223552424994118</v>
+        <v>8.888123717452668</v>
       </c>
     </row>
     <row r="261">
@@ -25135,7 +25135,7 @@
         </is>
       </c>
       <c r="D261" t="n">
-        <v>9.223552424994118</v>
+        <v>8.722231401352989</v>
       </c>
     </row>
     <row r="262">
@@ -25151,7 +25151,7 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>9.223552424994118</v>
+        <v>7.985848928272516</v>
       </c>
     </row>
     <row r="263">
@@ -25167,7 +25167,7 @@
         </is>
       </c>
       <c r="D263" t="n">
-        <v>9.223552424994118</v>
+        <v>9.895768357419659</v>
       </c>
     </row>
     <row r="264">
@@ -25183,7 +25183,7 @@
         </is>
       </c>
       <c r="D264" t="n">
-        <v>9.223552424994118</v>
+        <v>11.9051816678698</v>
       </c>
     </row>
     <row r="265">
@@ -25199,7 +25199,7 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>9.223552424994118</v>
+        <v>10.56350999985267</v>
       </c>
     </row>
     <row r="266">
@@ -25215,7 +25215,7 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>9.223552424994118</v>
+        <v>5.654212010961366</v>
       </c>
     </row>
     <row r="267">
@@ -25231,7 +25231,7 @@
         </is>
       </c>
       <c r="D267" t="n">
-        <v>9.223552424994118</v>
+        <v>9.484108655132738</v>
       </c>
     </row>
     <row r="268">
@@ -25247,7 +25247,7 @@
         </is>
       </c>
       <c r="D268" t="n">
-        <v>9.223552424994118</v>
+        <v>7.059826497216164</v>
       </c>
     </row>
     <row r="269">
@@ -25263,7 +25263,7 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>9.223552424994118</v>
+        <v>6.700787420023176</v>
       </c>
     </row>
     <row r="270">
@@ -25279,7 +25279,7 @@
         </is>
       </c>
       <c r="D270" t="n">
-        <v>9.223552424994118</v>
+        <v>7.189824041088659</v>
       </c>
     </row>
     <row r="271">
@@ -25295,7 +25295,7 @@
         </is>
       </c>
       <c r="D271" t="n">
-        <v>9.223552424994118</v>
+        <v>6.321143397314649</v>
       </c>
     </row>
     <row r="272">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>9.223552424994118</v>
+        <v>8.186377620649552</v>
       </c>
     </row>
     <row r="273">
@@ -25327,7 +25327,7 @@
         </is>
       </c>
       <c r="D273" t="n">
-        <v>9.223552424994118</v>
+        <v>10.27312016370823</v>
       </c>
     </row>
     <row r="274">
@@ -25343,7 +25343,7 @@
         </is>
       </c>
       <c r="D274" t="n">
-        <v>9.223552424994118</v>
+        <v>4.934881332175044</v>
       </c>
     </row>
     <row r="275">
@@ -25359,7 +25359,7 @@
         </is>
       </c>
       <c r="D275" t="n">
-        <v>9.223552424994118</v>
+        <v>10.46748624869196</v>
       </c>
     </row>
     <row r="276">
@@ -25375,7 +25375,7 @@
         </is>
       </c>
       <c r="D276" t="n">
-        <v>9.223552424994118</v>
+        <v>7.587208451435711</v>
       </c>
     </row>
     <row r="277">
@@ -25391,7 +25391,7 @@
         </is>
       </c>
       <c r="D277" t="n">
-        <v>9.223552424994118</v>
+        <v>10.6504444140765</v>
       </c>
     </row>
     <row r="278">
@@ -25407,7 +25407,7 @@
         </is>
       </c>
       <c r="D278" t="n">
-        <v>9.223552424994118</v>
+        <v>10.46303991372293</v>
       </c>
     </row>
     <row r="279">
@@ -25423,7 +25423,7 @@
         </is>
       </c>
       <c r="D279" t="n">
-        <v>9.223552424994118</v>
+        <v>6.540843139688687</v>
       </c>
     </row>
     <row r="280">
@@ -25439,7 +25439,7 @@
         </is>
       </c>
       <c r="D280" t="n">
-        <v>9.223552424994118</v>
+        <v>10.78561834560817</v>
       </c>
     </row>
     <row r="281">
@@ -25455,7 +25455,7 @@
         </is>
       </c>
       <c r="D281" t="n">
-        <v>9.223552424994118</v>
+        <v>10.9248028979337</v>
       </c>
     </row>
     <row r="282">
@@ -25471,7 +25471,7 @@
         </is>
       </c>
       <c r="D282" t="n">
-        <v>9.223552424994118</v>
+        <v>10.46887758359929</v>
       </c>
     </row>
     <row r="283">
@@ -25487,7 +25487,7 @@
         </is>
       </c>
       <c r="D283" t="n">
-        <v>9.223552424994118</v>
+        <v>8.868130103386118</v>
       </c>
     </row>
     <row r="284">
@@ -25503,7 +25503,7 @@
         </is>
       </c>
       <c r="D284" t="n">
-        <v>9.223552424994118</v>
+        <v>10.71086079071581</v>
       </c>
     </row>
     <row r="285">
@@ -25519,7 +25519,7 @@
         </is>
       </c>
       <c r="D285" t="n">
-        <v>9.223552424994118</v>
+        <v>10.39727823747329</v>
       </c>
     </row>
     <row r="286">
@@ -25535,7 +25535,7 @@
         </is>
       </c>
       <c r="D286" t="n">
-        <v>9.223552424994118</v>
+        <v>7.849507561447012</v>
       </c>
     </row>
     <row r="287">
@@ -25551,7 +25551,7 @@
         </is>
       </c>
       <c r="D287" t="n">
-        <v>9.223552424994118</v>
+        <v>7.943037474143213</v>
       </c>
     </row>
     <row r="288">
@@ -25567,7 +25567,7 @@
         </is>
       </c>
       <c r="D288" t="n">
-        <v>9.223552424994118</v>
+        <v>10.06658494661554</v>
       </c>
     </row>
     <row r="289">
@@ -25583,7 +25583,7 @@
         </is>
       </c>
       <c r="D289" t="n">
-        <v>9.223552424994118</v>
+        <v>6.501611091751069</v>
       </c>
     </row>
     <row r="290">
@@ -25599,7 +25599,7 @@
         </is>
       </c>
       <c r="D290" t="n">
-        <v>9.223552424994118</v>
+        <v>9.41360283013953</v>
       </c>
     </row>
     <row r="291">
@@ -25615,7 +25615,7 @@
         </is>
       </c>
       <c r="D291" t="n">
-        <v>9.223552424994118</v>
+        <v>5.977281922706528</v>
       </c>
     </row>
     <row r="292">
@@ -25631,7 +25631,7 @@
         </is>
       </c>
       <c r="D292" t="n">
-        <v>9.223552424994118</v>
+        <v>7.501318842186556</v>
       </c>
     </row>
     <row r="293">
@@ -25647,7 +25647,7 @@
         </is>
       </c>
       <c r="D293" t="n">
-        <v>9.223552424994118</v>
+        <v>9.141902175444367</v>
       </c>
     </row>
     <row r="294">
@@ -25663,7 +25663,7 @@
         </is>
       </c>
       <c r="D294" t="n">
-        <v>9.223552424994118</v>
+        <v>4.870207052661308</v>
       </c>
     </row>
     <row r="295">
@@ -25679,7 +25679,7 @@
         </is>
       </c>
       <c r="D295" t="n">
-        <v>9.223552424994118</v>
+        <v>10.19595055940138</v>
       </c>
     </row>
     <row r="296">
@@ -25695,7 +25695,7 @@
         </is>
       </c>
       <c r="D296" t="n">
-        <v>9.223552424994118</v>
+        <v>10.38104973485783</v>
       </c>
     </row>
     <row r="297">
@@ -25711,7 +25711,7 @@
         </is>
       </c>
       <c r="D297" t="n">
-        <v>9.223552424994118</v>
+        <v>10.42512414816015</v>
       </c>
     </row>
     <row r="298">
@@ -25727,7 +25727,7 @@
         </is>
       </c>
       <c r="D298" t="n">
-        <v>9.223552424994118</v>
+        <v>6.981150834666912</v>
       </c>
     </row>
     <row r="299">
@@ -25743,7 +25743,7 @@
         </is>
       </c>
       <c r="D299" t="n">
-        <v>9.223552424994118</v>
+        <v>10.09402335063084</v>
       </c>
     </row>
     <row r="300">
@@ -25759,7 +25759,7 @@
         </is>
       </c>
       <c r="D300" t="n">
-        <v>9.223552424994118</v>
+        <v>10.82884607943258</v>
       </c>
     </row>
     <row r="301">
@@ -25775,7 +25775,7 @@
         </is>
       </c>
       <c r="D301" t="n">
-        <v>9.223552424994118</v>
+        <v>8.922017819116675</v>
       </c>
     </row>
     <row r="302">
@@ -25791,7 +25791,7 @@
         </is>
       </c>
       <c r="D302" t="n">
-        <v>9.223552424994118</v>
+        <v>7.362879967119115</v>
       </c>
     </row>
     <row r="303">
@@ -25807,7 +25807,7 @@
         </is>
       </c>
       <c r="D303" t="n">
-        <v>9.223552424994118</v>
+        <v>9.286635219590458</v>
       </c>
     </row>
     <row r="304">
@@ -25823,7 +25823,7 @@
         </is>
       </c>
       <c r="D304" t="n">
-        <v>9.223552424994118</v>
+        <v>10.57432182755823</v>
       </c>
     </row>
     <row r="305">
@@ -25839,7 +25839,7 @@
         </is>
       </c>
       <c r="D305" t="n">
-        <v>9.223552424994118</v>
+        <v>10.8435666836446</v>
       </c>
     </row>
     <row r="306">
@@ -25855,7 +25855,7 @@
         </is>
       </c>
       <c r="D306" t="n">
-        <v>9.223552424994118</v>
+        <v>8.716474125950732</v>
       </c>
     </row>
     <row r="307">
@@ -25871,7 +25871,7 @@
         </is>
       </c>
       <c r="D307" t="n">
-        <v>9.223552424994118</v>
+        <v>9.604403720126792</v>
       </c>
     </row>
     <row r="308">
@@ -25887,7 +25887,7 @@
         </is>
       </c>
       <c r="D308" t="n">
-        <v>9.223552424994118</v>
+        <v>8.523865042535848</v>
       </c>
     </row>
     <row r="309">
@@ -25903,7 +25903,7 @@
         </is>
       </c>
       <c r="D309" t="n">
-        <v>9.223552424994118</v>
+        <v>10.53781600442099</v>
       </c>
     </row>
     <row r="310">
@@ -25919,7 +25919,7 @@
         </is>
       </c>
       <c r="D310" t="n">
-        <v>9.223552424994118</v>
+        <v>5.311306863336787</v>
       </c>
     </row>
     <row r="311">
@@ -25935,7 +25935,7 @@
         </is>
       </c>
       <c r="D311" t="n">
-        <v>9.223552424994118</v>
+        <v>5.304214454897835</v>
       </c>
     </row>
     <row r="312">
@@ -25951,7 +25951,7 @@
         </is>
       </c>
       <c r="D312" t="n">
-        <v>9.223552424994118</v>
+        <v>5.418632339564471</v>
       </c>
     </row>
     <row r="313">
@@ -25967,7 +25967,7 @@
         </is>
       </c>
       <c r="D313" t="n">
-        <v>9.223552424994118</v>
+        <v>8.449327806666243</v>
       </c>
     </row>
     <row r="314">
@@ -25983,7 +25983,7 @@
         </is>
       </c>
       <c r="D314" t="n">
-        <v>9.223552424994118</v>
+        <v>8.445194001165763</v>
       </c>
     </row>
     <row r="315">
@@ -25999,7 +25999,7 @@
         </is>
       </c>
       <c r="D315" t="n">
-        <v>9.223552424994118</v>
+        <v>10.77123923893553</v>
       </c>
     </row>
     <row r="316">
@@ -26015,7 +26015,7 @@
         </is>
       </c>
       <c r="D316" t="n">
-        <v>9.223552424994118</v>
+        <v>7.757931819899833</v>
       </c>
     </row>
     <row r="317">
@@ -26031,7 +26031,7 @@
         </is>
       </c>
       <c r="D317" t="n">
-        <v>9.223552424994118</v>
+        <v>5.163602936650944</v>
       </c>
     </row>
     <row r="318">
@@ -26047,7 +26047,7 @@
         </is>
       </c>
       <c r="D318" t="n">
-        <v>9.223552424994118</v>
+        <v>9.57066694925164</v>
       </c>
     </row>
     <row r="319">
@@ -26063,7 +26063,7 @@
         </is>
       </c>
       <c r="D319" t="n">
-        <v>9.223552424994118</v>
+        <v>7.272024705344838</v>
       </c>
     </row>
     <row r="320">
@@ -26079,7 +26079,7 @@
         </is>
       </c>
       <c r="D320" t="n">
-        <v>9.223552424994118</v>
+        <v>12.95965837364298</v>
       </c>
     </row>
     <row r="321">
@@ -26095,7 +26095,7 @@
         </is>
       </c>
       <c r="D321" t="n">
-        <v>9.223552424994118</v>
+        <v>10.85816685275301</v>
       </c>
     </row>
     <row r="322">
@@ -26111,7 +26111,7 @@
         </is>
       </c>
       <c r="D322" t="n">
-        <v>9.223552424994118</v>
+        <v>7.975459742854886</v>
       </c>
     </row>
     <row r="323">
@@ -26127,7 +26127,7 @@
         </is>
       </c>
       <c r="D323" t="n">
-        <v>9.223552424994118</v>
+        <v>8.637279525068136</v>
       </c>
     </row>
     <row r="324">
@@ -26143,7 +26143,7 @@
         </is>
       </c>
       <c r="D324" t="n">
-        <v>9.223552424994118</v>
+        <v>9.122526035603883</v>
       </c>
     </row>
     <row r="325">
@@ -26159,7 +26159,7 @@
         </is>
       </c>
       <c r="D325" t="n">
-        <v>9.223552424994118</v>
+        <v>6.023452634825638</v>
       </c>
     </row>
     <row r="326">
@@ -26175,7 +26175,7 @@
         </is>
       </c>
       <c r="D326" t="n">
-        <v>9.223552424994118</v>
+        <v>9.800509542108452</v>
       </c>
     </row>
     <row r="327">
@@ -26191,7 +26191,7 @@
         </is>
       </c>
       <c r="D327" t="n">
-        <v>9.223552424994118</v>
+        <v>7.632256514620627</v>
       </c>
     </row>
     <row r="328">
@@ -26207,7 +26207,7 @@
         </is>
       </c>
       <c r="D328" t="n">
-        <v>9.223552424994118</v>
+        <v>4.958550703932124</v>
       </c>
     </row>
     <row r="329">
@@ -26223,7 +26223,7 @@
         </is>
       </c>
       <c r="D329" t="n">
-        <v>9.223552424994118</v>
+        <v>6.185725501154581</v>
       </c>
     </row>
     <row r="330">
@@ -26239,7 +26239,7 @@
         </is>
       </c>
       <c r="D330" t="n">
-        <v>9.223552424994118</v>
+        <v>10.4397845827898</v>
       </c>
     </row>
     <row r="331">
@@ -26255,7 +26255,7 @@
         </is>
       </c>
       <c r="D331" t="n">
-        <v>9.223552424994118</v>
+        <v>10.2939882293345</v>
       </c>
     </row>
     <row r="332">
@@ -26271,7 +26271,7 @@
         </is>
       </c>
       <c r="D332" t="n">
-        <v>9.223552424994118</v>
+        <v>11.91255411121303</v>
       </c>
     </row>
     <row r="333">
@@ -26287,7 +26287,7 @@
         </is>
       </c>
       <c r="D333" t="n">
-        <v>9.223552424994118</v>
+        <v>5.810651977111339</v>
       </c>
     </row>
     <row r="334">
@@ -26303,7 +26303,7 @@
         </is>
       </c>
       <c r="D334" t="n">
-        <v>9.223552424994118</v>
+        <v>10.41236075648071</v>
       </c>
     </row>
     <row r="335">
@@ -26319,7 +26319,7 @@
         </is>
       </c>
       <c r="D335" t="n">
-        <v>9.223552424994118</v>
+        <v>9.123459480344113</v>
       </c>
     </row>
     <row r="336">
@@ -26335,7 +26335,7 @@
         </is>
       </c>
       <c r="D336" t="n">
-        <v>9.223552424994118</v>
+        <v>7.368790462097513</v>
       </c>
     </row>
     <row r="337">
@@ -26351,7 +26351,7 @@
         </is>
       </c>
       <c r="D337" t="n">
-        <v>9.223552424994118</v>
+        <v>8.267120390087495</v>
       </c>
     </row>
     <row r="338">
@@ -26367,7 +26367,7 @@
         </is>
       </c>
       <c r="D338" t="n">
-        <v>9.223552424994118</v>
+        <v>8.573460175491281</v>
       </c>
     </row>
     <row r="339">
@@ -26383,7 +26383,7 @@
         </is>
       </c>
       <c r="D339" t="n">
-        <v>9.223552424994118</v>
+        <v>8.799569729467603</v>
       </c>
     </row>
     <row r="340">
@@ -26399,7 +26399,7 @@
         </is>
       </c>
       <c r="D340" t="n">
-        <v>9.223552424994118</v>
+        <v>10.14410256479122</v>
       </c>
     </row>
     <row r="341">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="D341" t="n">
-        <v>9.223552424994118</v>
+        <v>7.873004828202336</v>
       </c>
     </row>
     <row r="342">
@@ -26431,7 +26431,7 @@
         </is>
       </c>
       <c r="D342" t="n">
-        <v>9.223552424994118</v>
+        <v>7.386415313256006</v>
       </c>
     </row>
     <row r="343">
@@ -26447,7 +26447,7 @@
         </is>
       </c>
       <c r="D343" t="n">
-        <v>9.223552424994118</v>
+        <v>11.19848145874244</v>
       </c>
     </row>
     <row r="344">
@@ -26463,7 +26463,7 @@
         </is>
       </c>
       <c r="D344" t="n">
-        <v>9.223552424994118</v>
+        <v>5.210459729184269</v>
       </c>
     </row>
     <row r="345">
@@ -26479,7 +26479,7 @@
         </is>
       </c>
       <c r="D345" t="n">
-        <v>9.223552424994118</v>
+        <v>8.18834624752879</v>
       </c>
     </row>
     <row r="346">
@@ -26495,7 +26495,7 @@
         </is>
       </c>
       <c r="D346" t="n">
-        <v>9.223552424994118</v>
+        <v>11.21595701772853</v>
       </c>
     </row>
     <row r="347">
@@ -26511,7 +26511,7 @@
         </is>
       </c>
       <c r="D347" t="n">
-        <v>9.223552424994118</v>
+        <v>7.210901178874466</v>
       </c>
     </row>
     <row r="348">
@@ -26527,7 +26527,7 @@
         </is>
       </c>
       <c r="D348" t="n">
-        <v>9.223552424994118</v>
+        <v>11.17214064644634</v>
       </c>
     </row>
     <row r="349">
@@ -26543,7 +26543,7 @@
         </is>
       </c>
       <c r="D349" t="n">
-        <v>9.223552424994118</v>
+        <v>8.982800385049915</v>
       </c>
     </row>
     <row r="350">
@@ -26559,7 +26559,7 @@
         </is>
       </c>
       <c r="D350" t="n">
-        <v>9.223552424994118</v>
+        <v>7.8130419962647</v>
       </c>
     </row>
     <row r="351">
@@ -26575,7 +26575,7 @@
         </is>
       </c>
       <c r="D351" t="n">
-        <v>9.223552424994118</v>
+        <v>11.99513886828003</v>
       </c>
     </row>
     <row r="352">
@@ -26591,7 +26591,7 @@
         </is>
       </c>
       <c r="D352" t="n">
-        <v>9.223552424994118</v>
+        <v>10.60562929575735</v>
       </c>
     </row>
     <row r="353">
@@ -26607,7 +26607,7 @@
         </is>
       </c>
       <c r="D353" t="n">
-        <v>9.223552424994118</v>
+        <v>11.39738624257658</v>
       </c>
     </row>
     <row r="354">
@@ -26623,7 +26623,7 @@
         </is>
       </c>
       <c r="D354" t="n">
-        <v>9.223552424994118</v>
+        <v>12.61049998687563</v>
       </c>
     </row>
     <row r="355">
@@ -26639,7 +26639,7 @@
         </is>
       </c>
       <c r="D355" t="n">
-        <v>9.223552424994118</v>
+        <v>12.06809578121855</v>
       </c>
     </row>
     <row r="356">
@@ -26655,7 +26655,7 @@
         </is>
       </c>
       <c r="D356" t="n">
-        <v>9.223552424994118</v>
+        <v>9.902760824988361</v>
       </c>
     </row>
     <row r="357">
@@ -26671,7 +26671,7 @@
         </is>
       </c>
       <c r="D357" t="n">
-        <v>9.223552424994118</v>
+        <v>10.99625143157691</v>
       </c>
     </row>
     <row r="358">
@@ -26687,7 +26687,7 @@
         </is>
       </c>
       <c r="D358" t="n">
-        <v>9.223552424994118</v>
+        <v>6.46052815625612</v>
       </c>
     </row>
     <row r="359">
@@ -26703,7 +26703,7 @@
         </is>
       </c>
       <c r="D359" t="n">
-        <v>9.223552424994118</v>
+        <v>5.992619701275434</v>
       </c>
     </row>
     <row r="360">
@@ -26719,7 +26719,7 @@
         </is>
       </c>
       <c r="D360" t="n">
-        <v>9.223552424994118</v>
+        <v>5.168366611767037</v>
       </c>
     </row>
     <row r="361">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="D361" t="n">
-        <v>9.223552424994118</v>
+        <v>8.71398223838256</v>
       </c>
     </row>
     <row r="362">
@@ -26751,7 +26751,7 @@
         </is>
       </c>
       <c r="D362" t="n">
-        <v>9.223552424994118</v>
+        <v>13.43720665503881</v>
       </c>
     </row>
     <row r="363">
@@ -26767,7 +26767,7 @@
         </is>
       </c>
       <c r="D363" t="n">
-        <v>9.223552424994118</v>
+        <v>7.370110586140902</v>
       </c>
     </row>
     <row r="364">
@@ -26783,7 +26783,7 @@
         </is>
       </c>
       <c r="D364" t="n">
-        <v>9.223552424994118</v>
+        <v>6.293972469441655</v>
       </c>
     </row>
     <row r="365">
@@ -26799,7 +26799,7 @@
         </is>
       </c>
       <c r="D365" t="n">
-        <v>9.223552424994118</v>
+        <v>5.914070354556946</v>
       </c>
     </row>
     <row r="366">
@@ -26815,7 +26815,7 @@
         </is>
       </c>
       <c r="D366" t="n">
-        <v>9.223552424994118</v>
+        <v>11.41208560977476</v>
       </c>
     </row>
     <row r="367">
@@ -26831,7 +26831,7 @@
         </is>
       </c>
       <c r="D367" t="n">
-        <v>9.223552424994118</v>
+        <v>7.629275935773904</v>
       </c>
     </row>
     <row r="368">
@@ -26847,7 +26847,7 @@
         </is>
       </c>
       <c r="D368" t="n">
-        <v>9.223552424994118</v>
+        <v>10.45538807688895</v>
       </c>
     </row>
     <row r="369">
@@ -26863,7 +26863,7 @@
         </is>
       </c>
       <c r="D369" t="n">
-        <v>9.223552424994118</v>
+        <v>8.319983501815033</v>
       </c>
     </row>
     <row r="370">
@@ -26879,7 +26879,7 @@
         </is>
       </c>
       <c r="D370" t="n">
-        <v>9.223552424994118</v>
+        <v>9.452956427956922</v>
       </c>
     </row>
     <row r="371">
@@ -26895,7 +26895,7 @@
         </is>
       </c>
       <c r="D371" t="n">
-        <v>9.223552424994118</v>
+        <v>10.23133324068981</v>
       </c>
     </row>
     <row r="372">
@@ -26911,7 +26911,7 @@
         </is>
       </c>
       <c r="D372" t="n">
-        <v>9.223552424994118</v>
+        <v>5.289237259587306</v>
       </c>
     </row>
     <row r="373">
@@ -26927,7 +26927,7 @@
         </is>
       </c>
       <c r="D373" t="n">
-        <v>9.223552424994118</v>
+        <v>5.315717538900532</v>
       </c>
     </row>
     <row r="374">
@@ -26943,7 +26943,7 @@
         </is>
       </c>
       <c r="D374" t="n">
-        <v>9.223552424994118</v>
+        <v>9.931905158719491</v>
       </c>
     </row>
     <row r="375">
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="D375" t="n">
-        <v>9.223552424994118</v>
+        <v>7.602673130762581</v>
       </c>
     </row>
     <row r="376">
@@ -26975,7 +26975,7 @@
         </is>
       </c>
       <c r="D376" t="n">
-        <v>9.223552424994118</v>
+        <v>6.995347847285583</v>
       </c>
     </row>
     <row r="377">
@@ -26991,7 +26991,7 @@
         </is>
       </c>
       <c r="D377" t="n">
-        <v>9.223552424994118</v>
+        <v>9.001640791240163</v>
       </c>
     </row>
     <row r="378">
@@ -27007,7 +27007,7 @@
         </is>
       </c>
       <c r="D378" t="n">
-        <v>9.223552424994118</v>
+        <v>9.235744705740787</v>
       </c>
     </row>
     <row r="379">
@@ -27023,7 +27023,7 @@
         </is>
       </c>
       <c r="D379" t="n">
-        <v>9.223552424994118</v>
+        <v>6.382355979368588</v>
       </c>
     </row>
     <row r="380">
@@ -27039,7 +27039,7 @@
         </is>
       </c>
       <c r="D380" t="n">
-        <v>9.223552424994118</v>
+        <v>8.25047614122637</v>
       </c>
     </row>
     <row r="381">
@@ -27055,7 +27055,7 @@
         </is>
       </c>
       <c r="D381" t="n">
-        <v>9.223552424994118</v>
+        <v>9.121504526168186</v>
       </c>
     </row>
     <row r="382">
@@ -27071,7 +27071,7 @@
         </is>
       </c>
       <c r="D382" t="n">
-        <v>9.223552424994118</v>
+        <v>6.222344734113515</v>
       </c>
     </row>
     <row r="383">
@@ -27087,7 +27087,7 @@
         </is>
       </c>
       <c r="D383" t="n">
-        <v>9.223552424994118</v>
+        <v>5.540861951356526</v>
       </c>
     </row>
     <row r="384">
@@ -27103,7 +27103,7 @@
         </is>
       </c>
       <c r="D384" t="n">
-        <v>9.223552424994118</v>
+        <v>9.187644046031753</v>
       </c>
     </row>
     <row r="385">
@@ -27119,7 +27119,7 @@
         </is>
       </c>
       <c r="D385" t="n">
-        <v>9.223552424994118</v>
+        <v>11.95051067624537</v>
       </c>
     </row>
     <row r="386">
@@ -27135,7 +27135,7 @@
         </is>
       </c>
       <c r="D386" t="n">
-        <v>9.223552424994118</v>
+        <v>8.28019404412909</v>
       </c>
     </row>
     <row r="387">
@@ -27151,7 +27151,7 @@
         </is>
       </c>
       <c r="D387" t="n">
-        <v>9.223552424994118</v>
+        <v>10.68219297424938</v>
       </c>
     </row>
     <row r="388">
@@ -27167,7 +27167,7 @@
         </is>
       </c>
       <c r="D388" t="n">
-        <v>9.223552424994118</v>
+        <v>9.882497269644503</v>
       </c>
     </row>
     <row r="389">
@@ -27183,7 +27183,7 @@
         </is>
       </c>
       <c r="D389" t="n">
-        <v>9.223552424994118</v>
+        <v>5.83641689545891</v>
       </c>
     </row>
     <row r="390">
@@ -27199,7 +27199,7 @@
         </is>
       </c>
       <c r="D390" t="n">
-        <v>9.223552424994118</v>
+        <v>7.038503284005071</v>
       </c>
     </row>
     <row r="391">
@@ -27215,7 +27215,7 @@
         </is>
       </c>
       <c r="D391" t="n">
-        <v>9.223552424994118</v>
+        <v>5.469446868261365</v>
       </c>
     </row>
     <row r="392">
@@ -27231,7 +27231,7 @@
         </is>
       </c>
       <c r="D392" t="n">
-        <v>9.223552424994118</v>
+        <v>7.009340003698954</v>
       </c>
     </row>
     <row r="393">
@@ -27247,7 +27247,7 @@
         </is>
       </c>
       <c r="D393" t="n">
-        <v>9.223552424994118</v>
+        <v>10.62745894139569</v>
       </c>
     </row>
     <row r="394">
@@ -27263,7 +27263,7 @@
         </is>
       </c>
       <c r="D394" t="n">
-        <v>9.223552424994118</v>
+        <v>10.42532144603464</v>
       </c>
     </row>
     <row r="395">
@@ -27279,7 +27279,7 @@
         </is>
       </c>
       <c r="D395" t="n">
-        <v>9.223552424994118</v>
+        <v>10.24804521504061</v>
       </c>
     </row>
     <row r="396">
@@ -27295,7 +27295,7 @@
         </is>
       </c>
       <c r="D396" t="n">
-        <v>9.223552424994118</v>
+        <v>10.91941796240642</v>
       </c>
     </row>
     <row r="397">
@@ -27311,7 +27311,7 @@
         </is>
       </c>
       <c r="D397" t="n">
-        <v>9.223552424994118</v>
+        <v>8.430874544414749</v>
       </c>
     </row>
     <row r="398">
@@ -27327,7 +27327,7 @@
         </is>
       </c>
       <c r="D398" t="n">
-        <v>9.223552424994118</v>
+        <v>10.70055898583661</v>
       </c>
     </row>
     <row r="399">
@@ -27343,7 +27343,7 @@
         </is>
       </c>
       <c r="D399" t="n">
-        <v>9.223552424994118</v>
+        <v>4.791738565433709</v>
       </c>
     </row>
     <row r="400">
@@ -27359,7 +27359,7 @@
         </is>
       </c>
       <c r="D400" t="n">
-        <v>9.223552424994118</v>
+        <v>10.3189570316125</v>
       </c>
     </row>
     <row r="401">
@@ -27375,7 +27375,7 @@
         </is>
       </c>
       <c r="D401" t="n">
-        <v>9.223552424994118</v>
+        <v>5.869453970010301</v>
       </c>
     </row>
     <row r="402">
@@ -27391,7 +27391,7 @@
         </is>
       </c>
       <c r="D402" t="n">
-        <v>9.223552424994118</v>
+        <v>5.909747502352412</v>
       </c>
     </row>
     <row r="403">
@@ -27407,7 +27407,7 @@
         </is>
       </c>
       <c r="D403" t="n">
-        <v>9.223552424994118</v>
+        <v>8.38862271776998</v>
       </c>
     </row>
     <row r="404">
@@ -27423,7 +27423,7 @@
         </is>
       </c>
       <c r="D404" t="n">
-        <v>9.223552424994118</v>
+        <v>9.943254826398274</v>
       </c>
     </row>
     <row r="405">
@@ -27439,7 +27439,7 @@
         </is>
       </c>
       <c r="D405" t="n">
-        <v>9.223552424994118</v>
+        <v>7.162641439511003</v>
       </c>
     </row>
     <row r="406">
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="D406" t="n">
-        <v>9.223552424994118</v>
+        <v>9.826425075288123</v>
       </c>
     </row>
     <row r="407">
@@ -27471,7 +27471,7 @@
         </is>
       </c>
       <c r="D407" t="n">
-        <v>9.223552424994118</v>
+        <v>13.39893135397443</v>
       </c>
     </row>
     <row r="408">
@@ -27487,7 +27487,7 @@
         </is>
       </c>
       <c r="D408" t="n">
-        <v>9.223552424994118</v>
+        <v>11.44680681376989</v>
       </c>
     </row>
     <row r="409">
@@ -27503,7 +27503,7 @@
         </is>
       </c>
       <c r="D409" t="n">
-        <v>9.223552424994118</v>
+        <v>11.9712123542224</v>
       </c>
     </row>
     <row r="410">
@@ -27519,7 +27519,7 @@
         </is>
       </c>
       <c r="D410" t="n">
-        <v>9.223552424994118</v>
+        <v>8.518997780913633</v>
       </c>
     </row>
     <row r="411">
@@ -27535,7 +27535,7 @@
         </is>
       </c>
       <c r="D411" t="n">
-        <v>9.223552424994118</v>
+        <v>6.284466622670449</v>
       </c>
     </row>
     <row r="412">
@@ -27551,7 +27551,7 @@
         </is>
       </c>
       <c r="D412" t="n">
-        <v>9.223552424994118</v>
+        <v>11.4924027269596</v>
       </c>
     </row>
     <row r="413">
@@ -27567,7 +27567,7 @@
         </is>
       </c>
       <c r="D413" t="n">
-        <v>9.223552424994118</v>
+        <v>10.28940095863719</v>
       </c>
     </row>
     <row r="414">
@@ -27583,7 +27583,7 @@
         </is>
       </c>
       <c r="D414" t="n">
-        <v>9.223552424994118</v>
+        <v>9.625240802621205</v>
       </c>
     </row>
     <row r="415">
@@ -27599,7 +27599,7 @@
         </is>
       </c>
       <c r="D415" t="n">
-        <v>9.223552424994118</v>
+        <v>12.04642942408556</v>
       </c>
     </row>
     <row r="416">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="D416" t="n">
-        <v>9.223552424994118</v>
+        <v>7.926287708273779</v>
       </c>
     </row>
     <row r="417">
@@ -27631,7 +27631,7 @@
         </is>
       </c>
       <c r="D417" t="n">
-        <v>9.223552424994118</v>
+        <v>11.03125054400961</v>
       </c>
     </row>
     <row r="418">
@@ -27647,7 +27647,7 @@
         </is>
       </c>
       <c r="D418" t="n">
-        <v>9.223552424994118</v>
+        <v>5.562256209175168</v>
       </c>
     </row>
     <row r="419">
@@ -27663,7 +27663,7 @@
         </is>
       </c>
       <c r="D419" t="n">
-        <v>9.223552424994118</v>
+        <v>5.144875858892485</v>
       </c>
     </row>
     <row r="420">
@@ -27679,7 +27679,7 @@
         </is>
       </c>
       <c r="D420" t="n">
-        <v>9.223552424994118</v>
+        <v>7.375036760364916</v>
       </c>
     </row>
     <row r="421">
@@ -27695,7 +27695,7 @@
         </is>
       </c>
       <c r="D421" t="n">
-        <v>9.223552424994118</v>
+        <v>11.76663813964664</v>
       </c>
     </row>
     <row r="422">
@@ -27711,7 +27711,7 @@
         </is>
       </c>
       <c r="D422" t="n">
-        <v>9.223552424994118</v>
+        <v>7.65326104268585</v>
       </c>
     </row>
     <row r="423">
@@ -27727,7 +27727,7 @@
         </is>
       </c>
       <c r="D423" t="n">
-        <v>9.223552424994118</v>
+        <v>9.896763840610713</v>
       </c>
     </row>
     <row r="424">
@@ -27743,7 +27743,7 @@
         </is>
       </c>
       <c r="D424" t="n">
-        <v>9.223552424994118</v>
+        <v>7.463429374922862</v>
       </c>
     </row>
     <row r="425">
@@ -27759,7 +27759,7 @@
         </is>
       </c>
       <c r="D425" t="n">
-        <v>9.223552424994118</v>
+        <v>9.49244606752807</v>
       </c>
     </row>
     <row r="426">
@@ -27775,7 +27775,7 @@
         </is>
       </c>
       <c r="D426" t="n">
-        <v>9.223552424994118</v>
+        <v>6.489137300653153</v>
       </c>
     </row>
     <row r="427">
@@ -27791,7 +27791,7 @@
         </is>
       </c>
       <c r="D427" t="n">
-        <v>9.223552424994118</v>
+        <v>8.738497660104784</v>
       </c>
     </row>
     <row r="428">
@@ -27807,7 +27807,7 @@
         </is>
       </c>
       <c r="D428" t="n">
-        <v>9.223552424994118</v>
+        <v>10.60741114795645</v>
       </c>
     </row>
     <row r="429">
@@ -27823,7 +27823,7 @@
         </is>
       </c>
       <c r="D429" t="n">
-        <v>9.223552424994118</v>
+        <v>10.79109024827201</v>
       </c>
     </row>
     <row r="430">
@@ -27839,7 +27839,7 @@
         </is>
       </c>
       <c r="D430" t="n">
-        <v>9.223552424994118</v>
+        <v>5.213604572355401</v>
       </c>
     </row>
     <row r="431">
@@ -27855,7 +27855,7 @@
         </is>
       </c>
       <c r="D431" t="n">
-        <v>9.223552424994118</v>
+        <v>12.13151853697082</v>
       </c>
     </row>
     <row r="432">
@@ -27871,7 +27871,7 @@
         </is>
       </c>
       <c r="D432" t="n">
-        <v>9.223552424994118</v>
+        <v>8.365360033456023</v>
       </c>
     </row>
     <row r="433">
@@ -27887,7 +27887,7 @@
         </is>
       </c>
       <c r="D433" t="n">
-        <v>9.223552424994118</v>
+        <v>11.84042581415637</v>
       </c>
     </row>
     <row r="434">
@@ -27903,7 +27903,7 @@
         </is>
       </c>
       <c r="D434" t="n">
-        <v>9.223552424994118</v>
+        <v>4.941578518960105</v>
       </c>
     </row>
     <row r="435">
@@ -27919,7 +27919,7 @@
         </is>
       </c>
       <c r="D435" t="n">
-        <v>9.223552424994118</v>
+        <v>9.921003353094902</v>
       </c>
     </row>
     <row r="436">
@@ -27935,7 +27935,7 @@
         </is>
       </c>
       <c r="D436" t="n">
-        <v>9.223552424994118</v>
+        <v>4.904479848799218</v>
       </c>
     </row>
     <row r="437">
@@ -27951,7 +27951,7 @@
         </is>
       </c>
       <c r="D437" t="n">
-        <v>9.223552424994118</v>
+        <v>9.886794802646108</v>
       </c>
     </row>
     <row r="438">
@@ -27967,7 +27967,7 @@
         </is>
       </c>
       <c r="D438" t="n">
-        <v>9.223552424994118</v>
+        <v>10.42985960708176</v>
       </c>
     </row>
     <row r="439">
@@ -27983,7 +27983,7 @@
         </is>
       </c>
       <c r="D439" t="n">
-        <v>9.223552424994118</v>
+        <v>5.445156186804342</v>
       </c>
     </row>
     <row r="440">
@@ -27999,7 +27999,7 @@
         </is>
       </c>
       <c r="D440" t="n">
-        <v>9.223552424994118</v>
+        <v>12.07327661427593</v>
       </c>
     </row>
     <row r="441">
@@ -28015,7 +28015,7 @@
         </is>
       </c>
       <c r="D441" t="n">
-        <v>9.223552424994118</v>
+        <v>5.897317961118485</v>
       </c>
     </row>
     <row r="442">
@@ -28031,7 +28031,7 @@
         </is>
       </c>
       <c r="D442" t="n">
-        <v>9.223552424994118</v>
+        <v>6.23142465875913</v>
       </c>
     </row>
     <row r="443">
@@ -28047,7 +28047,7 @@
         </is>
       </c>
       <c r="D443" t="n">
-        <v>9.223552424994118</v>
+        <v>6.020111494075344</v>
       </c>
     </row>
     <row r="444">
@@ -28063,7 +28063,7 @@
         </is>
       </c>
       <c r="D444" t="n">
-        <v>9.223552424994118</v>
+        <v>5.848499193035909</v>
       </c>
     </row>
     <row r="445">
@@ -28079,7 +28079,7 @@
         </is>
       </c>
       <c r="D445" t="n">
-        <v>9.223552424994118</v>
+        <v>9.845998410648395</v>
       </c>
     </row>
     <row r="446">
@@ -28095,7 +28095,7 @@
         </is>
       </c>
       <c r="D446" t="n">
-        <v>9.223552424994118</v>
+        <v>7.856734599333301</v>
       </c>
     </row>
     <row r="447">
@@ -28111,7 +28111,7 @@
         </is>
       </c>
       <c r="D447" t="n">
-        <v>9.223552424994118</v>
+        <v>10.36061061911948</v>
       </c>
     </row>
     <row r="448">
@@ -28127,7 +28127,7 @@
         </is>
       </c>
       <c r="D448" t="n">
-        <v>9.223552424994118</v>
+        <v>13.05941656812823</v>
       </c>
     </row>
     <row r="449">
@@ -28143,7 +28143,7 @@
         </is>
       </c>
       <c r="D449" t="n">
-        <v>9.223552424994118</v>
+        <v>8.793264858852034</v>
       </c>
     </row>
     <row r="450">
@@ -28159,7 +28159,7 @@
         </is>
       </c>
       <c r="D450" t="n">
-        <v>9.223552424994118</v>
+        <v>9.640617619769962</v>
       </c>
     </row>
     <row r="451">
@@ -28175,7 +28175,7 @@
         </is>
       </c>
       <c r="D451" t="n">
-        <v>9.223552424994118</v>
+        <v>9.16831633026603</v>
       </c>
     </row>
     <row r="452">
@@ -28191,7 +28191,7 @@
         </is>
       </c>
       <c r="D452" t="n">
-        <v>9.223552424994118</v>
+        <v>10.174866922237</v>
       </c>
     </row>
     <row r="453">
@@ -28207,7 +28207,7 @@
         </is>
       </c>
       <c r="D453" t="n">
-        <v>9.223552424994118</v>
+        <v>7.252266743114244</v>
       </c>
     </row>
     <row r="454">
@@ -28223,7 +28223,7 @@
         </is>
       </c>
       <c r="D454" t="n">
-        <v>9.223552424994118</v>
+        <v>9.89988229917833</v>
       </c>
     </row>
     <row r="455">
@@ -28239,7 +28239,7 @@
         </is>
       </c>
       <c r="D455" t="n">
-        <v>9.223552424994118</v>
+        <v>8.913515169513046</v>
       </c>
     </row>
     <row r="456">
@@ -28255,7 +28255,7 @@
         </is>
       </c>
       <c r="D456" t="n">
-        <v>9.223552424994118</v>
+        <v>12.98399961086527</v>
       </c>
     </row>
     <row r="457">
@@ -28271,7 +28271,7 @@
         </is>
       </c>
       <c r="D457" t="n">
-        <v>9.223552424994118</v>
+        <v>10.61241934082305</v>
       </c>
     </row>
     <row r="458">
@@ -28287,7 +28287,7 @@
         </is>
       </c>
       <c r="D458" t="n">
-        <v>9.223552424994118</v>
+        <v>9.138517194170573</v>
       </c>
     </row>
     <row r="459">
@@ -28303,7 +28303,7 @@
         </is>
       </c>
       <c r="D459" t="n">
-        <v>9.223552424994118</v>
+        <v>11.73581493452137</v>
       </c>
     </row>
     <row r="460">
@@ -28319,7 +28319,7 @@
         </is>
       </c>
       <c r="D460" t="n">
-        <v>9.223552424994118</v>
+        <v>6.425113526748616</v>
       </c>
     </row>
     <row r="461">
@@ -28335,7 +28335,7 @@
         </is>
       </c>
       <c r="D461" t="n">
-        <v>9.223552424994118</v>
+        <v>8.886759742841184</v>
       </c>
     </row>
     <row r="462">
@@ -28351,7 +28351,7 @@
         </is>
       </c>
       <c r="D462" t="n">
-        <v>9.223552424994118</v>
+        <v>8.24866481664086</v>
       </c>
     </row>
     <row r="463">
@@ -28367,7 +28367,7 @@
         </is>
       </c>
       <c r="D463" t="n">
-        <v>9.223552424994118</v>
+        <v>5.322581617502877</v>
       </c>
     </row>
     <row r="464">
@@ -28383,7 +28383,7 @@
         </is>
       </c>
       <c r="D464" t="n">
-        <v>9.223552424994118</v>
+        <v>9.128123907846978</v>
       </c>
     </row>
     <row r="465">
@@ -28399,7 +28399,7 @@
         </is>
       </c>
       <c r="D465" t="n">
-        <v>9.223552424994118</v>
+        <v>8.847587600479011</v>
       </c>
     </row>
     <row r="466">
@@ -28415,7 +28415,7 @@
         </is>
       </c>
       <c r="D466" t="n">
-        <v>9.223552424994118</v>
+        <v>7.983457330040869</v>
       </c>
     </row>
     <row r="467">
@@ -28431,7 +28431,7 @@
         </is>
       </c>
       <c r="D467" t="n">
-        <v>9.223552424994118</v>
+        <v>7.894218642284239</v>
       </c>
     </row>
     <row r="468">
@@ -28447,7 +28447,7 @@
         </is>
       </c>
       <c r="D468" t="n">
-        <v>9.223552424994118</v>
+        <v>9.155271154862076</v>
       </c>
     </row>
     <row r="469">
@@ -28463,7 +28463,7 @@
         </is>
       </c>
       <c r="D469" t="n">
-        <v>9.223552424994118</v>
+        <v>8.137835010367384</v>
       </c>
     </row>
     <row r="470">
@@ -28479,7 +28479,7 @@
         </is>
       </c>
       <c r="D470" t="n">
-        <v>9.223552424994118</v>
+        <v>4.166776235718868</v>
       </c>
     </row>
     <row r="471">
@@ -28495,7 +28495,7 @@
         </is>
       </c>
       <c r="D471" t="n">
-        <v>9.223552424994118</v>
+        <v>6.018210606638623</v>
       </c>
     </row>
     <row r="472">
@@ -28511,7 +28511,7 @@
         </is>
       </c>
       <c r="D472" t="n">
-        <v>9.223552424994118</v>
+        <v>8.997122271422256</v>
       </c>
     </row>
     <row r="473">
@@ -28527,7 +28527,7 @@
         </is>
       </c>
       <c r="D473" t="n">
-        <v>9.223552424994118</v>
+        <v>8.315120600550262</v>
       </c>
     </row>
     <row r="474">
@@ -28543,7 +28543,7 @@
         </is>
       </c>
       <c r="D474" t="n">
-        <v>9.223552424994118</v>
+        <v>6.436211919346116</v>
       </c>
     </row>
     <row r="475">
@@ -28559,7 +28559,7 @@
         </is>
       </c>
       <c r="D475" t="n">
-        <v>9.223552424994118</v>
+        <v>8.577918472569786</v>
       </c>
     </row>
     <row r="476">
@@ -28575,7 +28575,7 @@
         </is>
       </c>
       <c r="D476" t="n">
-        <v>9.223552424994118</v>
+        <v>10.76751855349435</v>
       </c>
     </row>
     <row r="477">
@@ -28591,7 +28591,7 @@
         </is>
       </c>
       <c r="D477" t="n">
-        <v>9.223552424994118</v>
+        <v>9.796879269407434</v>
       </c>
     </row>
     <row r="478">
@@ -28607,7 +28607,7 @@
         </is>
       </c>
       <c r="D478" t="n">
-        <v>9.223552424994118</v>
+        <v>6.236359387564347</v>
       </c>
     </row>
     <row r="479">
@@ -28623,7 +28623,7 @@
         </is>
       </c>
       <c r="D479" t="n">
-        <v>9.223552424994118</v>
+        <v>10.74238604827068</v>
       </c>
     </row>
     <row r="480">
@@ -28639,7 +28639,7 @@
         </is>
       </c>
       <c r="D480" t="n">
-        <v>9.223552424994118</v>
+        <v>8.124824011192105</v>
       </c>
     </row>
     <row r="481">
@@ -28655,7 +28655,7 @@
         </is>
       </c>
       <c r="D481" t="n">
-        <v>9.223552424994118</v>
+        <v>11.0481597567459</v>
       </c>
     </row>
     <row r="482">
@@ -28671,7 +28671,7 @@
         </is>
       </c>
       <c r="D482" t="n">
-        <v>9.223552424994118</v>
+        <v>10.0425441175489</v>
       </c>
     </row>
     <row r="483">
@@ -28687,7 +28687,7 @@
         </is>
       </c>
       <c r="D483" t="n">
-        <v>9.223552424994118</v>
+        <v>7.40665256484443</v>
       </c>
     </row>
     <row r="484">
@@ -28703,7 +28703,7 @@
         </is>
       </c>
       <c r="D484" t="n">
-        <v>9.223552424994118</v>
+        <v>9.633924584547298</v>
       </c>
     </row>
     <row r="485">
@@ -28719,7 +28719,7 @@
         </is>
       </c>
       <c r="D485" t="n">
-        <v>9.223552424994118</v>
+        <v>9.427252725271234</v>
       </c>
     </row>
     <row r="486">
@@ -28735,7 +28735,7 @@
         </is>
       </c>
       <c r="D486" t="n">
-        <v>9.223552424994118</v>
+        <v>9.974275374690803</v>
       </c>
     </row>
     <row r="487">
@@ -28751,7 +28751,7 @@
         </is>
       </c>
       <c r="D487" t="n">
-        <v>9.223552424994118</v>
+        <v>5.421925851470236</v>
       </c>
     </row>
     <row r="488">
@@ -28767,7 +28767,7 @@
         </is>
       </c>
       <c r="D488" t="n">
-        <v>9.223552424994118</v>
+        <v>11.7060299000036</v>
       </c>
     </row>
     <row r="489">
@@ -28783,7 +28783,7 @@
         </is>
       </c>
       <c r="D489" t="n">
-        <v>9.223552424994118</v>
+        <v>5.78353402151351</v>
       </c>
     </row>
     <row r="490">
@@ -28799,7 +28799,7 @@
         </is>
       </c>
       <c r="D490" t="n">
-        <v>9.223552424994118</v>
+        <v>5.599298184057933</v>
       </c>
     </row>
     <row r="491">
@@ -28815,7 +28815,7 @@
         </is>
       </c>
       <c r="D491" t="n">
-        <v>9.223552424994118</v>
+        <v>11.07642495624487</v>
       </c>
     </row>
     <row r="492">
@@ -28831,7 +28831,7 @@
         </is>
       </c>
       <c r="D492" t="n">
-        <v>9.223552424994118</v>
+        <v>9.457056517716399</v>
       </c>
     </row>
     <row r="493">
@@ -28847,7 +28847,7 @@
         </is>
       </c>
       <c r="D493" t="n">
-        <v>9.223552424994118</v>
+        <v>6.256976194114685</v>
       </c>
     </row>
     <row r="494">
@@ -28863,7 +28863,7 @@
         </is>
       </c>
       <c r="D494" t="n">
-        <v>9.223552424994118</v>
+        <v>9.072027785568329</v>
       </c>
     </row>
     <row r="495">
@@ -28879,7 +28879,7 @@
         </is>
       </c>
       <c r="D495" t="n">
-        <v>9.223552424994118</v>
+        <v>10.71587298583041</v>
       </c>
     </row>
     <row r="496">
@@ -28895,7 +28895,7 @@
         </is>
       </c>
       <c r="D496" t="n">
-        <v>9.223552424994118</v>
+        <v>8.204569855249757</v>
       </c>
     </row>
     <row r="497">
@@ -28911,7 +28911,7 @@
         </is>
       </c>
       <c r="D497" t="n">
-        <v>9.223552424994118</v>
+        <v>8.015267925943006</v>
       </c>
     </row>
     <row r="498">
@@ -28927,7 +28927,7 @@
         </is>
       </c>
       <c r="D498" t="n">
-        <v>9.223552424994118</v>
+        <v>5.801448347075132</v>
       </c>
     </row>
     <row r="499">
@@ -28943,7 +28943,7 @@
         </is>
       </c>
       <c r="D499" t="n">
-        <v>9.223552424994118</v>
+        <v>9.573593240398349</v>
       </c>
     </row>
     <row r="500">
@@ -28959,7 +28959,7 @@
         </is>
       </c>
       <c r="D500" t="n">
-        <v>9.223552424994118</v>
+        <v>9.385979763184825</v>
       </c>
     </row>
     <row r="501">
@@ -28975,7 +28975,7 @@
         </is>
       </c>
       <c r="D501" t="n">
-        <v>9.223552424994118</v>
+        <v>9.731129954514659</v>
       </c>
     </row>
     <row r="502">
@@ -28991,7 +28991,7 @@
         </is>
       </c>
       <c r="D502" t="n">
-        <v>9.223552424994118</v>
+        <v>8.633850900699102</v>
       </c>
     </row>
     <row r="503">
@@ -29007,7 +29007,7 @@
         </is>
       </c>
       <c r="D503" t="n">
-        <v>9.223552424994118</v>
+        <v>13.21614582152397</v>
       </c>
     </row>
     <row r="504">
@@ -29023,7 +29023,7 @@
         </is>
       </c>
       <c r="D504" t="n">
-        <v>9.223552424994118</v>
+        <v>11.15594765940192</v>
       </c>
     </row>
     <row r="505">
@@ -29039,7 +29039,7 @@
         </is>
       </c>
       <c r="D505" t="n">
-        <v>9.223552424994118</v>
+        <v>8.872536212387892</v>
       </c>
     </row>
     <row r="506">
@@ -29055,7 +29055,7 @@
         </is>
       </c>
       <c r="D506" t="n">
-        <v>9.223552424994118</v>
+        <v>9.905858589766499</v>
       </c>
     </row>
     <row r="507">
@@ -29071,7 +29071,7 @@
         </is>
       </c>
       <c r="D507" t="n">
-        <v>9.223552424994118</v>
+        <v>11.75336880340775</v>
       </c>
     </row>
     <row r="508">
@@ -29087,7 +29087,7 @@
         </is>
       </c>
       <c r="D508" t="n">
-        <v>9.223552424994118</v>
+        <v>11.01415095612265</v>
       </c>
     </row>
     <row r="509">
@@ -29103,7 +29103,7 @@
         </is>
       </c>
       <c r="D509" t="n">
-        <v>9.223552424994118</v>
+        <v>11.18788203994476</v>
       </c>
     </row>
     <row r="510">
@@ -29119,7 +29119,7 @@
         </is>
       </c>
       <c r="D510" t="n">
-        <v>9.223552424994118</v>
+        <v>7.801177837713269</v>
       </c>
     </row>
     <row r="511">
@@ -29135,7 +29135,7 @@
         </is>
       </c>
       <c r="D511" t="n">
-        <v>9.223552424994118</v>
+        <v>9.690830591637081</v>
       </c>
     </row>
     <row r="512">
@@ -29151,7 +29151,7 @@
         </is>
       </c>
       <c r="D512" t="n">
-        <v>9.223552424994118</v>
+        <v>8.386462354385914</v>
       </c>
     </row>
     <row r="513">
@@ -29167,7 +29167,7 @@
         </is>
       </c>
       <c r="D513" t="n">
-        <v>9.223552424994118</v>
+        <v>9.670946540645771</v>
       </c>
     </row>
     <row r="514">
@@ -29183,7 +29183,7 @@
         </is>
       </c>
       <c r="D514" t="n">
-        <v>9.223552424994118</v>
+        <v>10.10059655453427</v>
       </c>
     </row>
     <row r="515">
@@ -29199,7 +29199,7 @@
         </is>
       </c>
       <c r="D515" t="n">
-        <v>9.223552424994118</v>
+        <v>10.60002308406286</v>
       </c>
     </row>
     <row r="516">
@@ -29215,7 +29215,7 @@
         </is>
       </c>
       <c r="D516" t="n">
-        <v>9.223552424994118</v>
+        <v>10.60002308406286</v>
       </c>
     </row>
     <row r="517">
@@ -29231,7 +29231,7 @@
         </is>
       </c>
       <c r="D517" t="n">
-        <v>9.223552424994118</v>
+        <v>13.91771259350967</v>
       </c>
     </row>
     <row r="518">
@@ -29247,7 +29247,7 @@
         </is>
       </c>
       <c r="D518" t="n">
-        <v>9.223552424994118</v>
+        <v>13.91771259350967</v>
       </c>
     </row>
     <row r="519">
@@ -29263,7 +29263,7 @@
         </is>
       </c>
       <c r="D519" t="n">
-        <v>9.223552424994118</v>
+        <v>10.52011353576635</v>
       </c>
     </row>
     <row r="520">
@@ -29279,7 +29279,7 @@
         </is>
       </c>
       <c r="D520" t="n">
-        <v>9.223552424994118</v>
+        <v>12.15585089049333</v>
       </c>
     </row>
     <row r="521">
@@ -29295,7 +29295,7 @@
         </is>
       </c>
       <c r="D521" t="n">
-        <v>9.223552424994118</v>
+        <v>12.15585089049333</v>
       </c>
     </row>
     <row r="522">
@@ -29311,7 +29311,7 @@
         </is>
       </c>
       <c r="D522" t="n">
-        <v>9.223552424994118</v>
+        <v>13.77856342098458</v>
       </c>
     </row>
     <row r="523">
@@ -29327,7 +29327,7 @@
         </is>
       </c>
       <c r="D523" t="n">
-        <v>9.223552424994118</v>
+        <v>13.77856342098458</v>
       </c>
     </row>
     <row r="524">
@@ -29343,7 +29343,7 @@
         </is>
       </c>
       <c r="D524" t="n">
-        <v>9.223552424994118</v>
+        <v>13.69796556063899</v>
       </c>
     </row>
     <row r="525">
@@ -29359,7 +29359,7 @@
         </is>
       </c>
       <c r="D525" t="n">
-        <v>9.223552424994118</v>
+        <v>13.69796556063899</v>
       </c>
     </row>
     <row r="526">
@@ -29375,7 +29375,7 @@
         </is>
       </c>
       <c r="D526" t="n">
-        <v>9.223552424994118</v>
+        <v>11.08642543566365</v>
       </c>
     </row>
     <row r="527">
@@ -29391,7 +29391,7 @@
         </is>
       </c>
       <c r="D527" t="n">
-        <v>9.223552424994118</v>
+        <v>11.08642543566365</v>
       </c>
     </row>
     <row r="528">
@@ -29407,7 +29407,7 @@
         </is>
       </c>
       <c r="D528" t="n">
-        <v>9.223552424994118</v>
+        <v>10.56086607946774</v>
       </c>
     </row>
     <row r="529">
@@ -29423,7 +29423,7 @@
         </is>
       </c>
       <c r="D529" t="n">
-        <v>9.223552424994118</v>
+        <v>10.56086607946774</v>
       </c>
     </row>
     <row r="530">
@@ -29439,7 +29439,7 @@
         </is>
       </c>
       <c r="D530" t="n">
-        <v>9.223552424994118</v>
+        <v>10.08085125354568</v>
       </c>
     </row>
     <row r="531">
@@ -29455,7 +29455,7 @@
         </is>
       </c>
       <c r="D531" t="n">
-        <v>9.223552424994118</v>
+        <v>10.08085125354568</v>
       </c>
     </row>
     <row r="532">
@@ -29471,7 +29471,7 @@
         </is>
       </c>
       <c r="D532" t="n">
-        <v>9.223552424994118</v>
+        <v>13.4632762283776</v>
       </c>
     </row>
     <row r="533">
@@ -29487,7 +29487,7 @@
         </is>
       </c>
       <c r="D533" t="n">
-        <v>9.223552424994118</v>
+        <v>13.4632762283776</v>
       </c>
     </row>
     <row r="534">
@@ -29503,7 +29503,7 @@
         </is>
       </c>
       <c r="D534" t="n">
-        <v>9.223552424994118</v>
+        <v>11.17873915860379</v>
       </c>
     </row>
     <row r="535">
@@ -29519,7 +29519,7 @@
         </is>
       </c>
       <c r="D535" t="n">
-        <v>9.223552424994118</v>
+        <v>11.17873915860379</v>
       </c>
     </row>
     <row r="536">
@@ -29535,7 +29535,7 @@
         </is>
       </c>
       <c r="D536" t="n">
-        <v>9.223552424994118</v>
+        <v>13.30119045459242</v>
       </c>
     </row>
   </sheetData>

--- a/output/ga_results/ga_report.xlsx
+++ b/output/ga_results/ga_report.xlsx
@@ -20881,7 +20881,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-04T03:01:05.157047</t>
+          <t>2026-01-05T18:37:22.711422</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">

--- a/output/ga_results/ga_report.xlsx
+++ b/output/ga_results/ga_report.xlsx
@@ -20881,7 +20881,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-05T18:37:22.711422</t>
+          <t>2026-01-08T22:11:30.556745</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">

--- a/output/ga_results/ga_report.xlsx
+++ b/output/ga_results/ga_report.xlsx
@@ -20881,7 +20881,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-08T22:11:30.556745</t>
+          <t>2026-01-10T00:36:36.141614</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">

--- a/output/ga_results/ga_report.xlsx
+++ b/output/ga_results/ga_report.xlsx
@@ -20881,7 +20881,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-10T00:36:36.141614</t>
+          <t>2026-01-10T18:31:52.972093</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">

--- a/output/ga_results/ga_report.xlsx
+++ b/output/ga_results/ga_report.xlsx
@@ -20881,7 +20881,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-10T18:31:52.972093</t>
+          <t>2026-01-17T23:15:52.610309</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">

--- a/output/ga_results/ga_report.xlsx
+++ b/output/ga_results/ga_report.xlsx
@@ -20881,7 +20881,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-17T23:15:52.610309</t>
+          <t>2026-01-18T02:45:32.035881</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">

--- a/output/ga_results/ga_report.xlsx
+++ b/output/ga_results/ga_report.xlsx
@@ -20881,7 +20881,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-18T02:45:32.035881</t>
+          <t>2026-01-18T12:56:54.385285</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">

--- a/output/ga_results/ga_report.xlsx
+++ b/output/ga_results/ga_report.xlsx
@@ -20881,7 +20881,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-18T12:56:54.385285</t>
+          <t>2026-01-18T14:09:41.061294</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">

--- a/output/ga_results/ga_report.xlsx
+++ b/output/ga_results/ga_report.xlsx
@@ -20881,7 +20881,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-18T14:09:41.061294</t>
+          <t>2026-01-18T16:27:59.675970</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">

--- a/output/ga_results/ga_report.xlsx
+++ b/output/ga_results/ga_report.xlsx
@@ -20881,7 +20881,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-20T23:16:04.440034</t>
+          <t>2026-01-21T22:46:50.621137</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">

--- a/output/ga_results/ga_report.xlsx
+++ b/output/ga_results/ga_report.xlsx
@@ -20881,7 +20881,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-21T22:46:50.621137</t>
+          <t>2026-01-22T14:34:47.431750</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">

--- a/output/ga_results/ga_report.xlsx
+++ b/output/ga_results/ga_report.xlsx
@@ -20881,7 +20881,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-22T14:34:47.431750</t>
+          <t>2026-01-22T15:32:20.438159</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
